--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -690,11 +690,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>obj_fish_3d_summon_fish</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4728,7 +4728,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5282,7 +5282,7 @@
         <v>2003</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D29" s="21">
         <v>3</v>
@@ -5350,7 +5350,7 @@
         <v>2005</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="21">
         <v>100000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
   <si>
     <t>id|任务id</t>
   </si>
@@ -594,14 +594,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,34,35,36,37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与3种不同的游戏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -696,6 +688,56 @@
   <si>
     <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼中累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28,29,30,31,32,33,34,35,36,37</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+  </si>
+  <si>
+    <t>jykp_award</t>
   </si>
 </sst>
 </file>
@@ -832,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,6 +956,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,7 +1239,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1727,8 +1772,8 @@
       <c r="C14" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>114</v>
+      <c r="D14" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>122</v>
@@ -1867,14 +1912,14 @@
       <c r="C18" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>147</v>
+      <c r="D18" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" s="21">
         <v>12517</v>
@@ -1903,7 +1948,7 @@
         <v>131</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>122</v>
@@ -2726,7 +2771,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2736,7 +2781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3778,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A22:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3802,13 +3847,13 @@
         <v>48</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4024,7 +4069,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4038,7 +4083,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4052,7 +4097,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4066,7 +4111,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -4080,7 +4125,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -4094,7 +4139,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -4108,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -4122,134 +4167,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" s="20">
-        <v>14</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>141</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="D24" s="21">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>24</v>
       </c>
       <c r="B25" s="20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="20">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>25</v>
       </c>
       <c r="B26" s="20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="D26" s="21">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" s="20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="20">
+        <v>175</v>
+      </c>
+      <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>27</v>
       </c>
       <c r="B28" s="20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="20">
+        <v>176</v>
+      </c>
+      <c r="D28" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>28</v>
       </c>
       <c r="B29" s="20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="20">
+        <v>177</v>
+      </c>
+      <c r="D29" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>29</v>
       </c>
       <c r="B30" s="20">
-        <v>17</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>30</v>
       </c>
       <c r="B31" s="20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="D31" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" s="20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -4257,13 +4301,14 @@
         <v>17</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D33" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -4271,13 +4316,13 @@
         <v>17</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D34" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -4285,58 +4330,142 @@
         <v>17</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D35" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>35</v>
       </c>
       <c r="B36" s="20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="21">
+        <v>158</v>
+      </c>
+      <c r="D36" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>36</v>
       </c>
       <c r="B37" s="20">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20">
+        <v>17</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20">
+        <v>17</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20">
+        <v>18</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20">
         <v>19</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="20">
+      <c r="C43" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="20">
         <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4350,7 +4479,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4675,8 +4804,8 @@
       <c r="C18" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>146</v>
+      <c r="D18" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="E18" s="20">
         <v>2</v>
@@ -4707,7 +4836,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="20">
         <v>600</v>
@@ -4727,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4803,7 +4932,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="21">
         <v>20</v>
@@ -4857,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -5214,7 +5343,7 @@
         <v>2001</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="21">
         <v>2</v>
@@ -5231,7 +5360,7 @@
         <v>2002</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" s="21">
         <v>10</v>
@@ -5248,7 +5377,7 @@
         <v>2002</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="21">
         <v>50000</v>
@@ -5282,7 +5411,7 @@
         <v>2003</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" s="21">
         <v>3</v>
@@ -5299,7 +5428,7 @@
         <v>2004</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="21">
         <v>20</v>
@@ -5316,7 +5445,7 @@
         <v>2004</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" s="21">
         <v>100000</v>
@@ -5333,7 +5462,7 @@
         <v>2005</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D32" s="21">
         <v>100000</v>
@@ -5350,7 +5479,7 @@
         <v>2005</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" s="21">
         <v>100000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -3825,7 +3825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A22:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -4856,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4915,7 +4915,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="21">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="E2" s="21">
         <v>1</v>
@@ -4940,6 +4940,10 @@
       <c r="E3" s="21">
         <v>1</v>
       </c>
+      <c r="G3" s="6">
+        <f>D2+D4+D6+D8+D10+D12+D14+D16+D24+D27+D28+D31+D32+D33</f>
+        <v>107300</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>90</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>87</v>
       </c>
       <c r="D4" s="21">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -5002,7 +5006,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="21">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
@@ -5041,7 +5045,7 @@
         <v>87</v>
       </c>
       <c r="D8" s="21">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="21">
         <v>1</v>
@@ -5078,7 +5082,7 @@
         <v>87</v>
       </c>
       <c r="D10" s="21">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="21">
         <v>1</v>
@@ -5114,7 +5118,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="21">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="21">
         <v>1</v>
@@ -5150,7 +5154,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="21">
-        <v>25000</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
@@ -5192,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -5227,8 +5231,11 @@
       <c r="E18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="6">
+        <v>203000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -5246,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -5264,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -5318,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5329,13 +5336,13 @@
         <v>87</v>
       </c>
       <c r="D24" s="21">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5369,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5380,13 +5387,13 @@
         <v>150</v>
       </c>
       <c r="D27" s="21">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E27" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5397,13 +5404,13 @@
         <v>87</v>
       </c>
       <c r="D28" s="21">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E28" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5420,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -5437,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -5448,13 +5455,13 @@
         <v>151</v>
       </c>
       <c r="D31" s="21">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E31" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -5465,7 +5472,7 @@
         <v>149</v>
       </c>
       <c r="D32" s="21">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -5482,7 +5489,7 @@
         <v>168</v>
       </c>
       <c r="D33" s="21">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -19,12 +19,12 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="190">
   <si>
     <t>id|任务id</t>
   </si>
@@ -606,18 +606,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fish_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>enter_game_xiaoxiaole</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -675,14 +667,6 @@
   </si>
   <si>
     <t>task_13000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -738,6 +722,68 @@
   </si>
   <si>
     <t>jykp_award</t>
+  </si>
+  <si>
+    <t>fish_coin</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼10条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼累计在线60分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任务捕鱼技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中使用技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计捕鱼10条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线60分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计开炮1000次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮1000炮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,7 +855,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,12 +866,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -874,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,12 +941,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,46 +953,71 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1324,7 @@
     <col min="19" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1313,10 +1372,10 @@
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1392,7 +1451,7 @@
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1702,10 +1761,10 @@
       <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="6">
@@ -1728,31 +1787,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>12512</v>
       </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>12512</v>
       </c>
-      <c r="H13" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="H13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="6">
@@ -1762,67 +1821,67 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <v>12513</v>
       </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="23">
         <v>12513</v>
       </c>
-      <c r="H14" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="H14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23">
         <v>946677600</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="23">
         <v>32503651200</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="16">
         <v>12514</v>
       </c>
-      <c r="B15" s="21">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="16">
         <v>12514</v>
       </c>
-      <c r="H15" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="H15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
         <v>1</v>
       </c>
       <c r="J15" s="6">
@@ -1832,172 +1891,172 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <v>12515</v>
       </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="23">
         <v>12515</v>
       </c>
-      <c r="H16" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23">
         <v>946677600</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+    <row r="17" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
         <v>12516</v>
       </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="23">
         <v>12516</v>
       </c>
-      <c r="H17" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="23">
         <v>946677600</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+    <row r="18" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>12517</v>
       </c>
-      <c r="B18" s="21">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="F18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="23">
         <v>12517</v>
       </c>
-      <c r="H18" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
         <v>946677600</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>12518</v>
       </c>
-      <c r="B19" s="21">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="23">
         <v>12518</v>
       </c>
-      <c r="H19" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
         <v>946677600</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="23">
         <v>32503651200</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="16">
         <v>12519</v>
       </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="16">
         <v>12519</v>
       </c>
-      <c r="H20" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
         <v>1</v>
       </c>
       <c r="J20" s="6">
@@ -2007,55 +2066,195 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="H21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K21" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L21" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="H22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K22" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="H23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K23" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="H24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K24" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L24" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
         <v>13000</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G25" s="16">
         <v>13000</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
         <v>946677600</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K25" s="16">
         <v>32503651200</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L25" s="16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
@@ -2078,69 +2277,61 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.2">
@@ -2767,6 +2958,26 @@
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="G180" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2781,7 +2992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2819,7 +3030,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="13"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -3085,231 +3296,312 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="16">
         <v>12512</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
         <v>1001</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <v>12513</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="26">
         <v>500000</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <v>1002</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="16">
         <v>12514</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="20">
+      <c r="C15" s="18"/>
+      <c r="D15" s="15">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
         <v>1003</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>12515</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26">
         <v>15</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="26">
         <v>2</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <v>1004</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="23">
         <v>12516</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26">
         <v>16</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="26">
         <v>2</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="23">
         <v>1005</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="23">
         <v>12517</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26">
         <v>17</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="23">
         <v>1006</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="23">
         <v>12518</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26">
         <v>18</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="26">
         <v>5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="23">
         <v>1007</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>12519</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>19</v>
       </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
         <v>1008</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15">
+        <v>20</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1009</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15">
+        <v>21</v>
+      </c>
+      <c r="E22" s="20">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1010</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15">
+        <v>22</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1011</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20">
+        <v>3600</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1012</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
         <v>13000</v>
       </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G25" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="6"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" s="6"/>
@@ -3319,7 +3611,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
@@ -3345,7 +3637,7 @@
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F37" s="6"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F38" s="6"/>
@@ -3371,7 +3663,7 @@
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
-      <c r="H45" s="12"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
@@ -3397,7 +3689,7 @@
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
@@ -3423,7 +3715,7 @@
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
@@ -3449,7 +3741,7 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
@@ -3475,7 +3767,7 @@
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
@@ -3498,7 +3790,7 @@
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
-      <c r="H84" s="12"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
@@ -3521,7 +3813,7 @@
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
@@ -3823,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A22:XFD29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3846,14 +4138,14 @@
       <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>154</v>
+      <c r="D1" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>155</v>
+      <c r="F1" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3866,7 +4158,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="7">
@@ -3880,7 +4172,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="7">
@@ -4111,361 +4403,398 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="15">
         <v>12</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+    <row r="21" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="15">
         <v>12</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="26">
         <v>13</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="26">
         <v>13</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="26">
         <v>13</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26">
+        <v>13</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>13</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>13</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>13</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D28" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20">
+    <row r="29" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
         <v>13</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C29" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D29" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20">
-        <v>13</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="21">
+    <row r="30" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>14</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="16">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26">
+        <v>15</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26">
+        <v>16</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26">
+        <v>17</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20">
-        <v>13</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="21">
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26">
+        <v>17</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20">
-        <v>13</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="21">
+    <row r="35" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26">
+        <v>17</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20">
-        <v>13</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="21">
+    <row r="36" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26">
+        <v>17</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20">
-        <v>14</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20">
-        <v>15</v>
-      </c>
-      <c r="C31" s="24" t="s">
+    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
+        <v>36</v>
+      </c>
+      <c r="B37" s="26">
+        <v>17</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26">
+        <v>17</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26">
+        <v>17</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26">
+        <v>17</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26">
+        <v>17</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26">
+        <v>18</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>19</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>20</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="20">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20">
-        <v>16</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="20">
+      <c r="D45" s="16">
         <v>0</v>
       </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20">
-        <v>17</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20">
-        <v>17</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20">
-        <v>17</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20">
-        <v>17</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20">
-        <v>17</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20">
-        <v>17</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
-        <v>40</v>
-      </c>
-      <c r="B41" s="20">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
-        <v>41</v>
-      </c>
-      <c r="B42" s="20">
-        <v>18</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
-        <v>42</v>
-      </c>
-      <c r="B43" s="20">
-        <v>19</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="20">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49"/>
+    </row>
+    <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>22</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>23</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="20">
+        <v>1022</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4476,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4675,7 +5004,7 @@
       <c r="B11" s="6">
         <v>1010</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -4758,92 +5087,152 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="16">
         <v>1015</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <v>1016</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="26">
         <v>1017</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="20">
+        <v>167</v>
+      </c>
+      <c r="E18" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="23">
         <v>1018</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>1019</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="15">
         <v>600</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1021</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4854,10 +5243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4876,624 +5265,718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>1001</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="21">
-        <v>800</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <f>D2+D6+D18+D20+D22</f>
+        <v>100000</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="16">
         <v>1001</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="16">
         <v>20</v>
       </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <f>D2+D4+D6+D8+D10+D12+D14+D16+D24+D27+D28+D31+D32+D33</f>
-        <v>107300</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <f>D3+D7+D17+D19+D21+D23+D25</f>
+        <v>200</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="23">
         <f>B2+1</f>
         <v>1002</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="23">
         <v>2500</v>
       </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
+        <f>D26+D28+D30+D31+D32+D33</f>
+        <v>160000</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="37" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
-        <f t="shared" ref="B5:B23" si="0">B3+1</f>
+      <c r="B5" s="23">
+        <f t="shared" ref="B5:B25" si="0">B3+1</f>
         <v>1002</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="23">
         <v>30</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="21">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="D6" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="21">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="D7" s="16">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="23">
         <v>2000</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="23">
         <v>30</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="23">
         <v>2500</v>
       </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="23">
         <v>20</v>
       </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="23">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="23">
         <v>3500</v>
       </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="23">
         <v>40</v>
       </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="23">
         <v>2500</v>
       </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="23">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="23">
         <v>30</v>
       </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="21">
-        <v>50000</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="C16" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="21">
-        <v>60</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="D17" s="16">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>203000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="D18" s="16">
+        <v>25000</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="D19" s="16">
+        <v>20</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="C20" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="16">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="D21" s="16">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="D22" s="16">
+        <v>30000</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="D23" s="16">
+        <v>30</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="16">
+        <v>50</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="16">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
         <v>2001</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="21">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21">
+      <c r="C26" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
         <v>2001</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="21">
+      <c r="C27" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="23">
         <v>2</v>
       </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21">
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
         <v>2002</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="21">
-        <v>10</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21">
+      <c r="C28" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="23">
+        <v>20000</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
         <v>2002</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <v>27</v>
-      </c>
-      <c r="B28" s="21">
+      <c r="C29" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
         <v>2003</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="21">
-        <v>3</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21">
+      <c r="C30" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
         <v>2004</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="21">
-        <v>20</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21">
+      <c r="C31" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="23">
+        <v>25000</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23">
         <v>2004</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="21">
+      <c r="C32" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="23">
+        <v>25000</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23">
         <v>2005</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>32</v>
-      </c>
-      <c r="B33" s="21">
+      <c r="C33" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="23">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23">
         <v>2005</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
+      <c r="C34" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="23">
+        <v>50</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="191">
   <si>
     <t>id|任务id</t>
   </si>
@@ -783,6 +783,34 @@
   </si>
   <si>
     <t>累计开炮1000炮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3d捕鱼游戏中击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条彩金鱼</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,9 +1037,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,7 +1323,7 @@
   <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1856,38 +1881,38 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <v>12514</v>
       </c>
-      <c r="B15" s="16">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="23">
         <v>12514</v>
       </c>
-      <c r="H15" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="H15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23">
         <v>946677600</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="23">
         <v>32503651200</v>
       </c>
     </row>
@@ -1926,38 +1951,38 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>12516</v>
       </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="16">
         <v>12516</v>
       </c>
-      <c r="H17" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="23">
-        <v>1</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="H17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
         <v>946677600</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="16">
         <v>32503651200</v>
       </c>
     </row>
@@ -2992,7 +3017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3404,7 +3429,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="23">
         <v>1005</v>
@@ -3412,8 +3437,8 @@
       <c r="G17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>117</v>
+      <c r="H17" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -5246,7 +5271,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5265,31 +5290,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5300,218 +5325,206 @@
       <c r="B2" s="16">
         <v>1001</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>87</v>
+      <c r="C2" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D2" s="16">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
-        <f>D2+D6+D18+D20+D22</f>
-        <v>100000</v>
+      <c r="G2" s="16" t="e">
+        <f>#REF!+D5+D17+D19+D21</f>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="16">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
+      <c r="B3" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23"/>
       <c r="G3" s="16">
-        <f>D3+D7+D17+D19+D21+D23+D25</f>
-        <v>200</v>
+        <f>D2+D6+D16+D18+D20+D22+D24</f>
+        <v>190</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>90</v>
       </c>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="23">
-        <f>B2+1</f>
         <v>1002</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>87</v>
+      <c r="C4" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="23">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="E4" s="23">
         <v>1</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23">
-        <f>D26+D28+D30+D31+D32+D33</f>
-        <v>160000</v>
+        <f>D25+D27+D29+D31+D32+D33</f>
+        <v>130010</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+    <row r="5" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="23">
-        <f t="shared" ref="B5:B25" si="0">B3+1</f>
-        <v>1002</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>89</v>
+        <v>1003</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D5" s="23">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
       <c r="H5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
-        <f t="shared" si="0"/>
+      <c r="B6" s="23">
         <v>1003</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="35" t="s">
+      <c r="C6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="23">
+        <v>30</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="23">
         <v>30</v>
       </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2000</v>
-      </c>
       <c r="E8" s="23">
         <v>1</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D10" s="16">
         <v>30</v>
       </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="23">
-        <v>2500</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="23">
-        <v>20</v>
+        <v>3500</v>
       </c>
       <c r="E11" s="23">
         <v>1</v>
@@ -5522,18 +5535,17 @@
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="23">
-        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>87</v>
+      <c r="C12" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="23">
-        <v>3500</v>
+        <v>40</v>
       </c>
       <c r="E12" s="23">
         <v>1</v>
@@ -5544,18 +5556,17 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="23">
-        <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>89</v>
+        <v>1007</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D13" s="23">
-        <v>40</v>
+        <v>2500</v>
       </c>
       <c r="E13" s="23">
         <v>1</v>
@@ -5566,18 +5577,17 @@
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="23">
-        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>87</v>
+      <c r="C14" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="D14" s="23">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="E14" s="23">
         <v>1</v>
@@ -5587,41 +5597,35 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+    <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
-        <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="23">
-        <v>30</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="B15" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="16">
+        <v>50</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="16">
-        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="D16" s="16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
@@ -5632,14 +5636,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>89</v>
+        <v>1009</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D17" s="16">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -5650,14 +5653,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="16">
-        <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>87</v>
+      <c r="C18" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="16">
-        <v>25000</v>
+        <v>20</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
@@ -5668,14 +5670,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="16">
-        <f t="shared" si="0"/>
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="D19" s="16">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
@@ -5686,14 +5687,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="16">
-        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="D20" s="16">
-        <v>25000</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -5704,14 +5704,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="16">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>89</v>
+        <v>1011</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="16">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
@@ -5722,14 +5721,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="16">
-        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>87</v>
+      <c r="C22" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="D22" s="16">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="E22" s="16">
         <v>1</v>
@@ -5740,11 +5738,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>133</v>
+        <v>1012</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="D23" s="16">
         <v>30</v>
@@ -5758,49 +5755,51 @@
         <v>23</v>
       </c>
       <c r="B24" s="16">
-        <f t="shared" si="0"/>
         <v>1012</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>175</v>
+      <c r="C24" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="D24" s="16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="16">
-        <f t="shared" si="0"/>
-        <v>1012</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="16">
-        <v>30</v>
-      </c>
-      <c r="E25" s="16">
-        <v>1</v>
-      </c>
+      <c r="B25" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="23">
         <v>2001</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>174</v>
+      <c r="C26" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="D26" s="23">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="E26" s="23">
         <v>1</v>
@@ -5811,17 +5810,17 @@
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>177</v>
+        <v>2002</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="D27" s="23">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="E27" s="23">
         <v>1</v>
@@ -5832,17 +5831,17 @@
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="23">
         <v>2002</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>174</v>
+      <c r="C28" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="D28" s="23">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
@@ -5853,17 +5852,17 @@
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="23">
-        <v>2002</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>165</v>
+        <v>2003</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="D29" s="23">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="E29" s="23">
         <v>1</v>
@@ -5874,17 +5873,17 @@
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="23">
         <v>2003</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>174</v>
+      <c r="C30" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D30" s="23">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E30" s="23">
         <v>1</v>
@@ -5895,7 +5894,7 @@
       <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="23">
@@ -5905,7 +5904,7 @@
         <v>174</v>
       </c>
       <c r="D31" s="23">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="E31" s="23">
         <v>1</v>
@@ -5916,17 +5915,17 @@
       <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="23">
         <v>2004</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>149</v>
+      <c r="C32" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="D32" s="23">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
@@ -5937,7 +5936,7 @@
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="23">
@@ -5958,7 +5957,7 @@
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="23">

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="190">
   <si>
     <t>id|任务id</t>
   </si>
@@ -663,10 +663,6 @@
   </si>
   <si>
     <t>complete_caibei_game</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1857,7 +1853,7 @@
         <v>140</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>122</v>
@@ -2102,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2140,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2178,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2216,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -3438,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3534,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3558,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3606,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4492,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="23">
         <v>0</v>
@@ -4506,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" s="23">
         <v>0</v>
@@ -4520,7 +4516,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="23">
         <v>0</v>
@@ -4534,7 +4530,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="23">
         <v>0</v>
@@ -4548,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
@@ -4562,7 +4558,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="23">
         <v>0</v>
@@ -5161,7 +5157,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="26">
         <v>2</v>
@@ -5230,7 +5226,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>68</v>
@@ -5248,7 +5244,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>68</v>
@@ -5268,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5326,47 +5322,34 @@
         <v>1001</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D2" s="16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
-      </c>
-      <c r="G2" s="16" t="e">
-        <f>#REF!+D5+D17+D19+D21</f>
-        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="23">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16">
-        <f>D2+D6+D16+D18+D20+D22+D24</f>
-        <v>190</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="16"/>
+      <c r="B3" s="16">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
@@ -5375,47 +5358,46 @@
       <c r="B4" s="23">
         <v>1002</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>89</v>
+      <c r="C4" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D4" s="23">
-        <v>30</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="23">
         <v>1</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="23">
-        <f>D25+D27+D29+D31+D32+D33</f>
-        <v>130010</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="23">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="23">
+        <v>30</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="23">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="36" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
@@ -5424,39 +5406,39 @@
       <c r="B6" s="23">
         <v>1003</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>89</v>
+      <c r="C6" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D6" s="23">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="23">
         <v>1</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="23">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>87</v>
+        <v>1003</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="23">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="36" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -5465,36 +5447,40 @@
       <c r="B8" s="23">
         <v>1004</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>89</v>
+      <c r="C8" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D8" s="23">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="23">
         <v>1</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
-        <v>1005</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="16">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
+      <c r="B9" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23">
+        <v>30</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -5503,36 +5489,32 @@
       <c r="B10" s="16">
         <v>1005</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>89</v>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="16">
-        <v>30</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
-        <v>1006</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="23">
-        <v>3500</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="B11" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="16">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -5541,11 +5523,11 @@
       <c r="B12" s="23">
         <v>1006</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>89</v>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="23">
-        <v>40</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="23">
         <v>1</v>
@@ -5560,13 +5542,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="23">
-        <v>1007</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>87</v>
+        <v>1006</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="D13" s="23">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="E13" s="23">
         <v>1</v>
@@ -5583,11 +5565,11 @@
       <c r="B14" s="23">
         <v>1007</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>89</v>
+      <c r="C14" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D14" s="23">
-        <v>30</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="23">
         <v>1</v>
@@ -5597,22 +5579,26 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
-        <v>1008</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="16">
-        <v>50</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
+      <c r="B15" s="23">
+        <v>1007</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="23">
+        <v>30</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -5622,7 +5608,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D16" s="16">
         <v>50</v>
@@ -5636,13 +5622,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16">
-        <v>1009</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>87</v>
+        <v>1008</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D17" s="16">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -5655,11 +5641,11 @@
       <c r="B18" s="16">
         <v>1009</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>89</v>
+      <c r="C18" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="16">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
@@ -5670,13 +5656,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="16">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="D19" s="16">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
@@ -5690,10 +5676,10 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D20" s="16">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -5704,13 +5690,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="16">
-        <v>1011</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>87</v>
+        <v>1010</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="16">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
@@ -5723,11 +5709,11 @@
       <c r="B22" s="16">
         <v>1011</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>133</v>
+      <c r="C22" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="16">
-        <v>30</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="16">
         <v>1</v>
@@ -5738,10 +5724,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16">
-        <v>1012</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>175</v>
+        <v>1011</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="D23" s="16">
         <v>30</v>
@@ -5757,8 +5743,8 @@
       <c r="B24" s="16">
         <v>1012</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>133</v>
+      <c r="C24" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="D24" s="16">
         <v>30</v>
@@ -5767,26 +5753,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="23">
-        <v>10000</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="16">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
@@ -5795,11 +5777,11 @@
       <c r="B26" s="23">
         <v>2001</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>177</v>
+      <c r="C26" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="D26" s="23">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="23">
         <v>1</v>
@@ -5814,13 +5796,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23">
-        <v>2002</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>174</v>
+        <v>2001</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="D27" s="23">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="E27" s="23">
         <v>1</v>
@@ -5837,11 +5819,11 @@
       <c r="B28" s="23">
         <v>2002</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>165</v>
+      <c r="C28" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="D28" s="23">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
@@ -5856,13 +5838,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23">
-        <v>2003</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>174</v>
+        <v>2002</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>164</v>
       </c>
       <c r="D29" s="23">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="E29" s="23">
         <v>1</v>
@@ -5879,11 +5861,11 @@
       <c r="B30" s="23">
         <v>2003</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>149</v>
+      <c r="C30" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="D30" s="23">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E30" s="23">
         <v>1</v>
@@ -5898,13 +5880,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="23">
-        <v>2004</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>174</v>
+        <v>2003</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D31" s="23">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E31" s="23">
         <v>1</v>
@@ -5921,11 +5903,11 @@
       <c r="B32" s="23">
         <v>2004</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>146</v>
+      <c r="C32" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="D32" s="23">
-        <v>10</v>
+        <v>30000</v>
       </c>
       <c r="E32" s="23">
         <v>1</v>
@@ -5940,13 +5922,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="23">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D33" s="23">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="E33" s="23">
         <v>1</v>
@@ -5964,10 +5946,10 @@
         <v>2005</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D34" s="23">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="E34" s="23">
         <v>1</v>
@@ -5976,6 +5958,27 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="23">
+        <v>50</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5267,7 +5267,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5611,7 +5611,7 @@
         <v>174</v>
       </c>
       <c r="D16" s="16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -746,10 +746,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼累计在线60分钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -767,10 +763,6 @@
   </si>
   <si>
     <t>3D捕鱼中累计捕鱼10条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计在线60分钟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -807,6 +799,14 @@
       </rPr>
       <t>条彩金鱼</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼累计在线90分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线90分钟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" activeCellId="1" sqref="C17:G17 G23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2174,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2212,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -3013,7 +3013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="20">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="F24" s="16">
         <v>1012</v>
@@ -3602,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4139,7 +4139,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4829,7 +4829,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5226,7 +5226,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>68</v>
@@ -5244,7 +5244,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>68</v>
@@ -5267,7 +5267,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -738,10 +738,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -807,6 +803,10 @@
   </si>
   <si>
     <t>累计捕鱼100条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_50flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2136,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2174,7 +2174,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2212,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -3013,7 +3013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3602,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -5226,7 +5226,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>68</v>
@@ -5244,7 +5244,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>68</v>
@@ -5266,8 +5266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5676,10 +5676,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="16">
-        <v>5000</v>
+        <v>189</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -5946,7 +5943,7 @@
         <v>2005</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="23">
         <v>30000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,6 +2048,9 @@
       <c r="K13" s="6">
         <v>32503651200</v>
       </c>
+      <c r="L13" s="6">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
@@ -2083,6 +2086,9 @@
       <c r="K14" s="23">
         <v>32503651200</v>
       </c>
+      <c r="L14" s="23">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
@@ -2118,6 +2124,9 @@
       <c r="K15" s="23">
         <v>32503651200</v>
       </c>
+      <c r="L15" s="23">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
@@ -2153,6 +2162,9 @@
       <c r="K16" s="23">
         <v>32503651200</v>
       </c>
+      <c r="L16" s="23">
+        <v>-1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -2188,6 +2200,9 @@
       <c r="K17" s="16">
         <v>32503651200</v>
       </c>
+      <c r="L17" s="16">
+        <v>-1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
@@ -2223,6 +2238,9 @@
       <c r="K18" s="43">
         <v>32503651200</v>
       </c>
+      <c r="L18" s="43">
+        <v>-1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
@@ -2258,6 +2276,9 @@
       <c r="K19" s="23">
         <v>32503651200</v>
       </c>
+      <c r="L19" s="23">
+        <v>-1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -2292,6 +2313,9 @@
       </c>
       <c r="K20" s="6">
         <v>32503651200</v>
+      </c>
+      <c r="L20" s="6">
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -3675,8 +3699,8 @@
   <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4559,7 +4583,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="38">
         <v>36</v>
       </c>
       <c r="B37" s="16">
@@ -5085,7 +5109,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A48" sqref="A48:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5937,7 +5961,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6394,6 +6418,9 @@
       <c r="D25" s="30" t="s">
         <v>216</v>
       </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
@@ -6408,6 +6435,9 @@
       <c r="D26" s="15">
         <v>3000</v>
       </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
@@ -6421,6 +6451,9 @@
       </c>
       <c r="D27" s="15">
         <v>10000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6434,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6937,7 +6970,7 @@
     </row>
     <row r="26" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="16">
         <v>1013</v>
@@ -6954,7 +6987,7 @@
     </row>
     <row r="27" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="16">
         <v>1013</v>
@@ -6971,7 +7004,7 @@
     </row>
     <row r="28" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="16">
         <f>B26+1</f>
@@ -6989,7 +7022,7 @@
     </row>
     <row r="29" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="16">
         <f t="shared" ref="B29:B49" si="0">B27+1</f>
@@ -7007,7 +7040,7 @@
     </row>
     <row r="30" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="16">
         <f t="shared" si="0"/>
@@ -7025,7 +7058,7 @@
     </row>
     <row r="31" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="16">
         <f t="shared" si="0"/>
@@ -7043,7 +7076,7 @@
     </row>
     <row r="32" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="16">
         <f t="shared" si="0"/>
@@ -7061,7 +7094,7 @@
     </row>
     <row r="33" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="16">
         <f t="shared" si="0"/>
@@ -7079,7 +7112,7 @@
     </row>
     <row r="34" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="16">
         <f t="shared" si="0"/>
@@ -7097,7 +7130,7 @@
     </row>
     <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="16">
         <f t="shared" si="0"/>
@@ -7115,7 +7148,7 @@
     </row>
     <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="16">
         <f t="shared" si="0"/>
@@ -7130,7 +7163,7 @@
     </row>
     <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="16">
         <f t="shared" si="0"/>
@@ -7148,7 +7181,7 @@
     </row>
     <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="16">
         <f t="shared" si="0"/>
@@ -7166,7 +7199,7 @@
     </row>
     <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="16">
         <f t="shared" si="0"/>
@@ -7184,7 +7217,7 @@
     </row>
     <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="16">
         <f t="shared" si="0"/>
@@ -7202,7 +7235,7 @@
     </row>
     <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="16">
         <f t="shared" si="0"/>
@@ -7220,7 +7253,7 @@
     </row>
     <row r="42" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="16">
         <f t="shared" si="0"/>
@@ -7235,7 +7268,7 @@
     </row>
     <row r="43" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="16">
         <f t="shared" si="0"/>
@@ -7253,7 +7286,7 @@
     </row>
     <row r="44" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="16">
         <f t="shared" si="0"/>
@@ -7271,7 +7304,7 @@
     </row>
     <row r="45" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="16">
         <f t="shared" si="0"/>
@@ -7289,7 +7322,7 @@
     </row>
     <row r="46" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="16">
         <f t="shared" si="0"/>
@@ -7307,7 +7340,7 @@
     </row>
     <row r="47" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="16">
         <f t="shared" si="0"/>
@@ -7325,7 +7358,7 @@
     </row>
     <row r="48" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="16">
         <f t="shared" si="0"/>
@@ -7343,7 +7376,7 @@
     </row>
     <row r="49" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="16">
         <f t="shared" si="0"/>
@@ -7361,7 +7394,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="23">
         <v>2001</v>
@@ -7382,7 +7415,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="23">
         <v>2001</v>
@@ -7403,7 +7436,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="23">
         <v>2002</v>
@@ -7424,7 +7457,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="23">
         <v>2002</v>
@@ -7445,7 +7478,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="23">
         <v>2003</v>
@@ -7466,7 +7499,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="23">
         <v>2003</v>
@@ -7487,7 +7520,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="23">
         <v>2004</v>
@@ -7508,7 +7541,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="23">
         <v>2004</v>
@@ -7529,7 +7562,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="23">
         <v>2005</v>
@@ -7550,7 +7583,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="23">
         <v>2005</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
   <si>
     <t>id|任务id</t>
   </si>
@@ -970,6 +970,10 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch_ad</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1525,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3700,7 +3704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A37"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5108,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5794,6 +5798,12 @@
       <c r="B48" s="38">
         <v>24</v>
       </c>
+      <c r="C48" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="38">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
@@ -5961,7 +5971,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="228">
   <si>
     <t>id|任务id</t>
   </si>
@@ -974,6 +974,18 @@
   </si>
   <si>
     <t>watch_ad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1527,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2722,7 +2734,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="46">
-        <v>12527</v>
+        <v>12530</v>
       </c>
       <c r="H31" s="39" t="b">
         <v>1</v>
@@ -2760,7 +2772,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="46">
-        <v>12528</v>
+        <v>12531</v>
       </c>
       <c r="H32" s="39" t="b">
         <v>1</v>
@@ -2798,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="46">
-        <v>12529</v>
+        <v>12532</v>
       </c>
       <c r="H33" s="39" t="b">
         <v>1</v>
@@ -2836,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="46">
-        <v>12526</v>
+        <v>12533</v>
       </c>
       <c r="H34" s="39" t="b">
         <v>1</v>
@@ -2874,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="46">
-        <v>12527</v>
+        <v>12534</v>
       </c>
       <c r="H35" s="39" t="b">
         <v>1</v>
@@ -2912,7 +2924,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="46">
-        <v>12528</v>
+        <v>12535</v>
       </c>
       <c r="H36" s="39" t="b">
         <v>1</v>
@@ -2930,46 +2942,81 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+    <row r="37" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="46">
+        <v>12536</v>
+      </c>
+      <c r="B37" s="46">
+        <v>1</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="46">
+        <v>12536</v>
+      </c>
+      <c r="H37" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1</v>
+      </c>
+      <c r="J37" s="39">
+        <v>946677600</v>
+      </c>
+      <c r="K37" s="39">
+        <v>32503651200</v>
+      </c>
+      <c r="L37" s="39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
         <v>13000</v>
       </c>
-      <c r="B37" s="16">
-        <v>1</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="B38" s="16">
+        <v>1</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E38" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>13000</v>
       </c>
-      <c r="H37" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="16">
-        <v>1</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="H38" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1</v>
+      </c>
+      <c r="J38" s="16">
         <v>946677600</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="16">
         <v>32503651200</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L38" s="16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G39" s="1"/>
@@ -3001,54 +3048,52 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.2">
@@ -3690,6 +3735,11 @@
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="G193" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3700,11 +3750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4299,7 +4349,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="39">
@@ -4323,7 +4373,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="39">
@@ -4347,7 +4397,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="39">
@@ -4371,7 +4421,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="39">
@@ -4395,7 +4445,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="39">
@@ -4419,7 +4469,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="39">
@@ -4443,7 +4493,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="39">
@@ -4467,7 +4517,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="39">
@@ -4491,7 +4541,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="39">
@@ -4515,7 +4565,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="39">
@@ -4539,7 +4589,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="39">
@@ -4563,7 +4613,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="39">
@@ -4586,40 +4636,61 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
+    <row r="37" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="39">
+        <v>12536</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45">
+        <v>32</v>
+      </c>
+      <c r="E37" s="46">
+        <v>8</v>
+      </c>
+      <c r="F37" s="46">
+        <v>1025</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16">
         <v>13000</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="22" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F38" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H38" s="37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F40" s="6"/>
-      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F41" s="6"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
@@ -4632,20 +4703,20 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
-      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
-      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
@@ -4658,20 +4729,20 @@
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
-      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
-      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
@@ -4684,20 +4755,20 @@
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
-      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
-      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
@@ -4710,20 +4781,20 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
-      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
-      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
@@ -4736,20 +4807,20 @@
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
-      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
-      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
+      <c r="H81" s="1"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
@@ -4762,20 +4833,20 @@
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
-      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
-      <c r="H88" s="1"/>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
@@ -4785,17 +4856,17 @@
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
-      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
-      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
@@ -4808,20 +4879,20 @@
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
-      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
-      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
@@ -4831,7 +4902,6 @@
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
-      <c r="H106" s="1"/>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
@@ -5100,6 +5170,10 @@
     <row r="173" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F173" s="6"/>
       <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F174" s="6"/>
+      <c r="H174" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5112,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6475,10 +6549,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6839,7 +6913,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -7035,7 +7109,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" ref="B29:B49" si="0">B27+1</f>
+        <f t="shared" ref="B29:B51" si="0">B27+1</f>
         <v>1014</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -7402,60 +7476,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="23">
-        <v>5000</v>
-      </c>
-      <c r="E50" s="23">
-        <v>1</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="16">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="23">
-        <v>2</v>
-      </c>
-      <c r="E51" s="23">
-        <v>1</v>
-      </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="B51" s="16">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="16">
+        <v>20</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="23">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="23">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="23">
         <v>1</v>
@@ -7470,13 +7535,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="23">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D53" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="23">
         <v>1</v>
@@ -7491,7 +7556,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>166</v>
@@ -7512,13 +7577,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="23">
-        <v>2003</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>142</v>
+        <v>2002</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="D55" s="23">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E55" s="23">
         <v>1</v>
@@ -7533,7 +7598,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="23">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>166</v>
@@ -7554,13 +7619,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="23">
-        <v>2004</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>139</v>
+        <v>2003</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="D57" s="23">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E57" s="23">
         <v>1</v>
@@ -7575,13 +7640,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="23">
-        <v>2005</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>170</v>
+        <v>2004</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="D58" s="23">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E58" s="23">
         <v>1</v>
@@ -7596,13 +7661,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D59" s="23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E59" s="23">
         <v>1</v>
@@ -7611,6 +7676,48 @@
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="23">
+        <v>1</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="23">
+        <v>30</v>
+      </c>
+      <c r="E61" s="23">
+        <v>1</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
   <si>
     <t>id|任务id</t>
   </si>
@@ -953,39 +953,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>task_13000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch_ad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>obj_3d_200flq_86400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_500flq_86400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>watch_ad</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀100倍以上鱼8条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀100倍以上鱼8条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1542,7 +1538,7 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2953,7 +2949,7 @@
         <v>195</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>14</v>
@@ -3753,8 +3749,8 @@
   <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3979,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="39">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>40</v>
@@ -4051,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="39">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>40</v>
@@ -4657,7 +4653,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -5187,7 +5183,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D51" sqref="D51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5873,7 +5869,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D48" s="38">
         <v>0</v>
@@ -6549,10 +6545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6851,7 +6847,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="23">
         <v>2500</v>
@@ -6893,10 +6889,10 @@
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="D16" s="16">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
@@ -6913,7 +6909,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -7109,7 +7105,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" ref="B29:B51" si="0">B27+1</f>
+        <f t="shared" ref="B29:B55" si="0">B27+1</f>
         <v>1014</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -7239,7 +7235,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
@@ -7290,7 +7286,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="16">
         <v>50</v>
@@ -7344,7 +7340,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E42" s="16">
         <v>1</v>
@@ -7431,7 +7427,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="16">
         <v>50</v>
@@ -7485,7 +7481,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E50" s="16">
         <v>1</v>
@@ -7509,102 +7505,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="23">
-        <v>5000</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="16">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="23">
-        <v>2</v>
-      </c>
-      <c r="E53" s="23">
-        <v>1</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="16">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="16">
+        <v>30</v>
+      </c>
+      <c r="E53" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="23">
-        <v>2002</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="23">
+      <c r="B54" s="16">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="16">
         <v>10000</v>
       </c>
-      <c r="E54" s="23">
-        <v>1</v>
-      </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>54</v>
       </c>
-      <c r="B55" s="23">
-        <v>2002</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="23">
-        <v>1</v>
-      </c>
-      <c r="E55" s="23">
-        <v>1</v>
-      </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="B55" s="16">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="16">
+        <v>30</v>
+      </c>
+      <c r="E55" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="23">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>166</v>
       </c>
       <c r="D56" s="23">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E56" s="23">
         <v>1</v>
@@ -7619,13 +7603,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="23">
-        <v>2003</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>142</v>
+        <v>2001</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="D57" s="23">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="E57" s="23">
         <v>1</v>
@@ -7640,7 +7624,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="23">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>166</v>
@@ -7661,13 +7645,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D59" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E59" s="23">
         <v>1</v>
@@ -7682,13 +7666,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="23">
-        <v>2005</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>170</v>
+        <v>2003</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="D60" s="23">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E60" s="23">
         <v>1</v>
@@ -7703,13 +7687,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="23">
-        <v>2005</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>168</v>
+        <v>2003</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="D61" s="23">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="E61" s="23">
         <v>1</v>
@@ -7718,6 +7702,90 @@
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>61</v>
+      </c>
+      <c r="B62" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="23">
+        <v>1</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="23">
+        <v>10</v>
+      </c>
+      <c r="E63" s="23">
+        <v>1</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E64" s="23">
+        <v>1</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="23">
+        <v>30</v>
+      </c>
+      <c r="E65" s="23">
+        <v>1</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="229">
   <si>
     <t>id|任务id</t>
   </si>
@@ -982,6 +982,14 @@
   </si>
   <si>
     <t>obj_3d_200flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS鱼1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1535,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2976,46 +2984,81 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+    <row r="38" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="42">
+        <v>12537</v>
+      </c>
+      <c r="B38" s="42">
+        <v>1</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="42">
+        <v>12511</v>
+      </c>
+      <c r="H38" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="42">
+        <v>1</v>
+      </c>
+      <c r="J38" s="42">
+        <v>946677600</v>
+      </c>
+      <c r="K38" s="42">
+        <v>32503651200</v>
+      </c>
+      <c r="L38" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>13000</v>
       </c>
-      <c r="B38" s="16">
-        <v>1</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="B39" s="16">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E39" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>13000</v>
       </c>
-      <c r="H38" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="16">
-        <v>1</v>
-      </c>
-      <c r="J38" s="16">
+      <c r="H39" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1</v>
+      </c>
+      <c r="J39" s="16">
         <v>946677600</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K39" s="16">
         <v>32503651200</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L39" s="16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G40" s="1"/>
@@ -3093,8 +3136,6 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
@@ -3736,6 +3777,11 @@
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="G194" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3746,11 +3792,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4656,40 +4702,61 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="39">
+        <v>12537</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="38">
+        <v>11</v>
+      </c>
+      <c r="E38" s="40">
+        <v>1</v>
+      </c>
+      <c r="F38" s="39">
+        <v>1028</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
         <v>13000</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="22" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F39" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G39" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H39" s="37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F41" s="6"/>
-      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
@@ -4702,20 +4769,20 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
-      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
-      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
@@ -4728,20 +4795,20 @@
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
-      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
-      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
@@ -4754,20 +4821,20 @@
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
-      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
-      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
@@ -4780,20 +4847,20 @@
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
-      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
-      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
@@ -4806,20 +4873,20 @@
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
-      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
-      <c r="H81" s="1"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
@@ -4832,20 +4899,20 @@
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
-      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
-      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
@@ -4855,17 +4922,17 @@
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
-      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
-      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
@@ -4878,20 +4945,20 @@
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
-      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
-      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
+      <c r="H104" s="1"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
@@ -4901,7 +4968,6 @@
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
-      <c r="H107" s="1"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
@@ -5170,6 +5236,10 @@
     <row r="174" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F174" s="6"/>
       <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F175" s="6"/>
+      <c r="H175" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5183,7 +5253,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D52"/>
+      <selection activeCell="A38" sqref="A38:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5792,7 +5862,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="15">
@@ -5806,7 +5876,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="15">
@@ -5820,7 +5890,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="15">
@@ -5834,7 +5904,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="15">
@@ -5848,7 +5918,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="15">
@@ -5862,7 +5932,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="38">
@@ -5876,7 +5946,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
+      <c r="A49" s="26">
         <v>48</v>
       </c>
       <c r="B49" s="38">
@@ -5890,7 +5960,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="38">
+      <c r="A50" s="26">
         <v>49</v>
       </c>
       <c r="B50" s="38">
@@ -5904,7 +5974,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
+      <c r="A51" s="26">
         <v>50</v>
       </c>
       <c r="B51" s="38">
@@ -5918,7 +5988,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="38">
+      <c r="A52" s="26">
         <v>51</v>
       </c>
       <c r="B52" s="38">
@@ -5932,7 +6002,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
+      <c r="A53" s="26">
         <v>52</v>
       </c>
       <c r="B53" s="38">
@@ -5946,7 +6016,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38">
+      <c r="A54" s="26">
         <v>53</v>
       </c>
       <c r="B54" s="38">
@@ -5960,7 +6030,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
+      <c r="A55" s="26">
         <v>54</v>
       </c>
       <c r="B55" s="38">
@@ -5974,7 +6044,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
+      <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="38">
@@ -5988,7 +6058,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="38">
+      <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="38">
@@ -6002,7 +6072,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="38">
+      <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="38">
@@ -6016,7 +6086,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+      <c r="A59" s="26">
         <v>58</v>
       </c>
       <c r="B59" s="38">
@@ -6041,7 +6111,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6545,10 +6615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7105,7 +7175,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" ref="B29:B55" si="0">B27+1</f>
+        <f t="shared" ref="B29:B57" si="0">B27+1</f>
         <v>1014</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -7340,7 +7410,10 @@
         <v>1021</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>220</v>
+        <v>170</v>
+      </c>
+      <c r="D42" s="16">
+        <v>50000</v>
       </c>
       <c r="E42" s="16">
         <v>1</v>
@@ -7481,7 +7554,10 @@
         <v>1025</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="D50" s="16">
+        <v>80000</v>
       </c>
       <c r="E50" s="16">
         <v>1</v>
@@ -7550,10 +7626,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="16">
-        <v>10000</v>
+        <v>220</v>
       </c>
       <c r="E54" s="16">
         <v>1</v>
@@ -7577,60 +7650,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>55</v>
       </c>
-      <c r="B56" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="23">
-        <v>5000</v>
-      </c>
-      <c r="E56" s="23">
-        <v>1</v>
-      </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="16">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>56</v>
       </c>
-      <c r="B57" s="23">
-        <v>2001</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="23">
-        <v>2</v>
-      </c>
-      <c r="E57" s="23">
-        <v>1</v>
-      </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+      <c r="B57" s="16">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="16">
+        <v>20</v>
+      </c>
+      <c r="E57" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="23">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>166</v>
       </c>
       <c r="D58" s="23">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="23">
         <v>1</v>
@@ -7645,13 +7709,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="23">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D59" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="23">
         <v>1</v>
@@ -7666,7 +7730,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>166</v>
@@ -7687,13 +7751,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="23">
-        <v>2003</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>142</v>
+        <v>2002</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="D61" s="23">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E61" s="23">
         <v>1</v>
@@ -7708,7 +7772,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="23">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>166</v>
@@ -7729,13 +7793,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="23">
-        <v>2004</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>139</v>
+        <v>2003</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="D63" s="23">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E63" s="23">
         <v>1</v>
@@ -7750,13 +7814,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="23">
-        <v>2005</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>170</v>
+        <v>2004</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="D64" s="23">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E64" s="23">
         <v>1</v>
@@ -7771,13 +7835,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="23">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D65" s="23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E65" s="23">
         <v>1</v>
@@ -7786,6 +7850,48 @@
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>65</v>
+      </c>
+      <c r="B66" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E66" s="23">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>66</v>
+      </c>
+      <c r="B67" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="23">
+        <v>30</v>
+      </c>
+      <c r="E67" s="23">
+        <v>1</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -19,12 +19,15 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$66</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="228">
   <si>
     <t>id|任务id</t>
   </si>
@@ -699,13 +702,6 @@
     <t>fish_coin</t>
   </si>
   <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -986,6 +982,10 @@
   </si>
   <si>
     <t>击杀BOSS鱼1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -1890,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>14</v>
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>116</v>
@@ -2197,7 +2197,7 @@
         <v>124</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>116</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>115</v>
@@ -2349,7 +2349,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2387,7 +2387,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2425,7 +2425,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2463,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -2498,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>14</v>
@@ -2536,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>14</v>
@@ -2574,10 +2574,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>189</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>191</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>14</v>
@@ -2612,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>14</v>
@@ -2650,10 +2650,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>14</v>
@@ -2688,10 +2688,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>195</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>197</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>14</v>
@@ -2726,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>14</v>
@@ -2764,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>14</v>
@@ -2802,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>14</v>
@@ -2840,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>14</v>
@@ -2878,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>14</v>
@@ -2916,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>14</v>
@@ -2954,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>14</v>
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>116</v>
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>36</v>
@@ -3834,7 +3834,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -4219,7 +4219,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -4315,7 +4315,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4339,7 +4339,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4363,7 +4363,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4387,7 +4387,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4435,7 +4435,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4459,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4483,7 +4483,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4531,7 +4531,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4555,7 +4555,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4579,7 +4579,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4603,7 +4603,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4627,7 +4627,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4651,7 +4651,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4675,7 +4675,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4699,7 +4699,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -4723,7 +4723,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" s="23">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D32" s="23">
         <v>1018</v>
@@ -5939,7 +5939,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D48" s="38">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D49" s="40">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D50" s="39">
         <v>1018</v>
@@ -5981,7 +5981,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D51" s="40">
         <v>1023</v>
@@ -5995,7 +5995,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D52" s="40">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D54" s="40">
         <v>1025</v>
@@ -6037,7 +6037,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D55" s="40">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>33</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D57" s="39">
         <v>1018</v>
@@ -6079,7 +6079,7 @@
         <v>34</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D58" s="40">
         <v>1026</v>
@@ -6093,7 +6093,7 @@
         <v>35</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D59" s="40">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>1017</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>159</v>
@@ -6472,7 +6472,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" s="15">
         <v>600</v>
@@ -6508,7 +6508,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>64</v>
@@ -6526,7 +6526,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>64</v>
@@ -6563,10 +6563,10 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -6615,10 +6615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6917,7 +6917,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="23">
         <v>2500</v>
@@ -6959,10 +6959,10 @@
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D16" s="16">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
@@ -7027,7 +7027,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>1011</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D22" s="16">
         <v>10000</v>
@@ -7092,10 +7092,10 @@
         <v>1012</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D24" s="16">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="16">
         <v>1</v>
@@ -7126,7 +7126,7 @@
         <v>1013</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D26" s="16">
         <v>5000</v>
@@ -7161,7 +7161,7 @@
         <v>1014</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D28" s="16">
         <v>10000</v>
@@ -7197,7 +7197,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D30" s="16">
         <v>15000</v>
@@ -7233,10 +7233,10 @@
         <v>1016</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D32" s="16">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -7269,7 +7269,7 @@
         <v>1017</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D34" s="16">
         <v>15000</v>
@@ -7305,7 +7305,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
@@ -7338,10 +7338,10 @@
         <v>1019</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D38" s="16">
-        <v>150</v>
+        <v>150000</v>
       </c>
       <c r="E38" s="16">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D39" s="16">
         <v>50</v>
@@ -7374,7 +7374,7 @@
         <v>1020</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D40" s="16">
         <v>20000</v>
@@ -7410,7 +7410,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D42" s="16">
         <v>50000</v>
@@ -7446,7 +7446,7 @@
         <v>1022</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D44" s="16">
         <v>15000</v>
@@ -7482,10 +7482,10 @@
         <v>1023</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D46" s="16">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="E46" s="16">
         <v>1</v>
@@ -7500,7 +7500,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D47" s="16">
         <v>50</v>
@@ -7518,7 +7518,7 @@
         <v>1024</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D48" s="16">
         <v>50000</v>
@@ -7554,7 +7554,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="16">
         <v>80000</v>
@@ -7590,7 +7590,7 @@
         <v>1026</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" s="16">
         <v>10000</v>
@@ -7626,7 +7626,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E54" s="16">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>1028</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E56" s="16">
         <v>1</v>
@@ -7712,7 +7712,7 @@
         <v>2001</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="23">
         <v>2</v>
@@ -7838,10 +7838,10 @@
         <v>2004</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D65" s="23">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E65" s="23">
         <v>1</v>
@@ -7859,10 +7859,10 @@
         <v>2005</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D66" s="23">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E66" s="23">
         <v>1</v>
@@ -7872,28 +7872,8 @@
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
-        <v>66</v>
-      </c>
-      <c r="B67" s="23">
-        <v>2005</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="23">
-        <v>30</v>
-      </c>
-      <c r="E67" s="23">
-        <v>1</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-    </row>
   </sheetData>
+  <autoFilter ref="C1:C66"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="230">
   <si>
     <t>id|任务id</t>
   </si>
@@ -297,9 +297,6 @@
     <t>14,15,16,17,18,20,28,</t>
   </si>
   <si>
-    <t>47,48,49,50,</t>
-  </si>
-  <si>
     <t>award_id|奖励配置id</t>
   </si>
   <si>
@@ -581,10 +578,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>pay_money</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_tiny_game_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -990,6 +983,22 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3d捕鱼游戏中击杀10条彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48,49,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1545,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1621,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -1700,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -1852,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -1890,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>14</v>
@@ -2004,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="42">
         <v>12511</v>
@@ -2042,16 +2051,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="16">
         <v>12512</v>
@@ -2080,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="23">
         <v>12513</v>
@@ -2118,16 +2127,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="23">
         <v>12514</v>
@@ -2156,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="23">
         <v>12515</v>
@@ -2194,16 +2203,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="16">
         <v>12516</v>
@@ -2232,16 +2241,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G18" s="43">
         <v>12517</v>
@@ -2270,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="23">
         <v>12518</v>
@@ -2308,16 +2317,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="16">
         <v>12519</v>
@@ -2349,7 +2358,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2387,7 +2396,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2425,7 +2434,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2463,7 +2472,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -2498,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>14</v>
@@ -2536,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>14</v>
@@ -2574,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>187</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>189</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>14</v>
@@ -2612,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>14</v>
@@ -2650,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>14</v>
@@ -2688,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>193</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>195</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>14</v>
@@ -2726,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>14</v>
@@ -2764,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>14</v>
@@ -2802,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>14</v>
@@ -2840,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>14</v>
@@ -2878,10 +2887,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>14</v>
@@ -2916,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>14</v>
@@ -2954,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>14</v>
@@ -2992,16 +3001,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38" s="42">
         <v>12511</v>
@@ -3796,7 +3805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A39"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3819,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>36</v>
@@ -3834,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -4123,7 +4132,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -4147,7 +4156,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -4171,7 +4180,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -4195,7 +4204,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4219,7 +4228,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -4243,7 +4252,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -4267,7 +4276,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4291,7 +4300,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4315,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4339,7 +4348,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4363,7 +4372,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4387,7 +4396,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4411,7 +4420,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4435,7 +4444,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4459,7 +4468,7 @@
         <v>40</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4474,7 +4483,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="45">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="46">
         <v>1016</v>
@@ -4483,7 +4492,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4507,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4531,7 +4540,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4546,7 +4555,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="46">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="F31" s="46">
         <v>1019</v>
@@ -4555,7 +4564,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4579,7 +4588,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4603,7 +4612,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4627,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4642,7 +4651,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="46">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F35" s="46">
         <v>1023</v>
@@ -4651,7 +4660,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4675,7 +4684,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -4699,7 +4708,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -4723,7 +4732,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4745,7 +4754,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5250,10 +5259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5274,13 +5283,13 @@
         <v>44</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5294,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7">
         <v>1001</v>
@@ -5308,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7">
         <v>1002</v>
@@ -5546,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="16">
         <v>1015</v>
@@ -5560,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="16">
         <v>1015</v>
@@ -5588,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="23">
         <v>0</v>
@@ -5602,7 +5611,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D24" s="23">
         <v>0</v>
@@ -5616,7 +5625,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D25" s="23">
         <v>0</v>
@@ -5630,7 +5639,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" s="23">
         <v>0</v>
@@ -5644,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="23">
         <v>0</v>
@@ -5658,7 +5667,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
@@ -5672,7 +5681,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D29" s="23">
         <v>0</v>
@@ -5686,7 +5695,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="16">
         <v>1016</v>
@@ -5714,7 +5723,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" s="23">
         <v>1018</v>
@@ -5728,7 +5737,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D33" s="26">
         <v>0</v>
@@ -5743,7 +5752,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="26">
         <v>0</v>
@@ -5757,7 +5766,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="26">
         <v>0</v>
@@ -5771,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D36" s="26">
         <v>0</v>
@@ -5785,7 +5794,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="26">
         <v>0</v>
@@ -5799,7 +5808,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D38" s="26">
         <v>0</v>
@@ -5813,7 +5822,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="26">
         <v>0</v>
@@ -5827,7 +5836,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D40" s="26">
         <v>0</v>
@@ -5841,7 +5850,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="26">
         <v>0</v>
@@ -5855,7 +5864,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D42" s="23">
         <v>0</v>
@@ -5869,7 +5878,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="15">
         <v>1019</v>
@@ -5939,7 +5948,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D48" s="38">
         <v>0</v>
@@ -5953,7 +5962,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D49" s="40">
         <v>0</v>
@@ -5967,7 +5976,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D50" s="39">
         <v>1018</v>
@@ -5981,10 +5990,10 @@
         <v>27</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D51" s="40">
-        <v>1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -5995,7 +6004,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D52" s="40">
         <v>0</v>
@@ -6012,7 +6021,7 @@
         <v>55</v>
       </c>
       <c r="D53" s="40">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6023,10 +6032,10 @@
         <v>30</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D54" s="40">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6037,7 +6046,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D55" s="40">
         <v>0</v>
@@ -6048,13 +6057,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D56" s="40">
-        <v>1010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6062,13 +6071,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="39">
-        <v>1018</v>
+        <v>158</v>
+      </c>
+      <c r="D57" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6076,13 +6085,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="38">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="D58" s="40">
-        <v>1026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6090,12 +6099,208 @@
         <v>58</v>
       </c>
       <c r="B59" s="38">
+        <v>31</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="26">
+        <v>59</v>
+      </c>
+      <c r="B60" s="38">
+        <v>31</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26">
+        <v>60</v>
+      </c>
+      <c r="B61" s="38">
+        <v>31</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="26">
+        <v>61</v>
+      </c>
+      <c r="B62" s="38">
+        <v>31</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26">
+        <v>62</v>
+      </c>
+      <c r="B63" s="38">
+        <v>32</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="40">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26">
+        <v>63</v>
+      </c>
+      <c r="B64" s="38">
+        <v>33</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="39">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="26">
+        <v>64</v>
+      </c>
+      <c r="B65" s="38">
+        <v>34</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26">
+        <v>65</v>
+      </c>
+      <c r="B66" s="38">
         <v>35</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="40">
+      <c r="C66" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="26">
+        <v>66</v>
+      </c>
+      <c r="B67" s="38">
+        <v>35</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26">
+        <v>67</v>
+      </c>
+      <c r="B68" s="38">
+        <v>35</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="26">
+        <v>68</v>
+      </c>
+      <c r="B69" s="38">
+        <v>35</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26">
+        <v>69</v>
+      </c>
+      <c r="B70" s="38">
+        <v>35</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="26">
+        <v>70</v>
+      </c>
+      <c r="B71" s="38">
+        <v>35</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26">
+        <v>71</v>
+      </c>
+      <c r="B72" s="38">
+        <v>35</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="26">
+        <v>72</v>
+      </c>
+      <c r="B73" s="38">
+        <v>35</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="40">
         <v>0</v>
       </c>
     </row>
@@ -6108,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6308,7 +6513,7 @@
         <v>1010</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>71</v>
@@ -6383,7 +6588,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -6417,10 +6622,10 @@
         <v>1016</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="E17" s="15">
         <v>2</v>
@@ -6436,10 +6641,10 @@
         <v>1017</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" s="26">
         <v>2</v>
@@ -6454,10 +6659,10 @@
         <v>1018</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
@@ -6472,7 +6677,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="15">
         <v>600</v>
@@ -6508,7 +6713,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>64</v>
@@ -6526,7 +6731,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>64</v>
@@ -6537,73 +6742,21 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
         <v>1023</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="15">
-        <v>3</v>
-      </c>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1024</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C24" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16">
-        <v>1025</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16">
-        <v>1026</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="15">
-        <v>10000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6617,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C56" sqref="A56:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6641,28 +6794,28 @@
         <v>56</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -6673,7 +6826,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="16">
         <v>100</v>
@@ -6682,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -6693,7 +6846,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="16">
         <v>10</v>
@@ -6710,7 +6863,7 @@
         <v>1002</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="23">
         <v>2500</v>
@@ -6721,7 +6874,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="16"/>
     </row>
@@ -6733,7 +6886,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="23">
         <v>30</v>
@@ -6744,10 +6897,10 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -6758,7 +6911,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="23">
         <v>10000</v>
@@ -6767,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="36"/>
     </row>
@@ -6779,7 +6932,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="23">
         <v>30</v>
@@ -6788,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6799,7 +6952,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="23">
         <v>2000</v>
@@ -6820,7 +6973,7 @@
         <v>1004</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="23">
         <v>30</v>
@@ -6841,7 +6994,7 @@
         <v>1005</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="16">
         <v>10000</v>
@@ -6858,7 +7011,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="16">
         <v>30</v>
@@ -6875,7 +7028,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="39">
         <v>10000</v>
@@ -6896,7 +7049,7 @@
         <v>1006</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="39">
         <v>30</v>
@@ -6917,7 +7070,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="23">
         <v>2500</v>
@@ -6938,7 +7091,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="23">
         <v>30</v>
@@ -6959,7 +7112,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D16" s="16">
         <v>30000</v>
@@ -6976,7 +7129,7 @@
         <v>1008</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="16">
         <v>50</v>
@@ -6993,7 +7146,7 @@
         <v>1009</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="16">
         <v>5000</v>
@@ -7010,7 +7163,7 @@
         <v>1009</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="16">
         <v>20</v>
@@ -7027,7 +7180,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -7041,7 +7194,7 @@
         <v>1010</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="16">
         <v>20</v>
@@ -7058,7 +7211,7 @@
         <v>1011</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" s="16">
         <v>10000</v>
@@ -7075,7 +7228,7 @@
         <v>1011</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="16">
         <v>30</v>
@@ -7092,7 +7245,7 @@
         <v>1012</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D24" s="16">
         <v>30000</v>
@@ -7109,7 +7262,7 @@
         <v>1012</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="16">
         <v>30</v>
@@ -7126,7 +7279,7 @@
         <v>1013</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26" s="16">
         <v>5000</v>
@@ -7143,7 +7296,7 @@
         <v>1013</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="16">
         <v>20</v>
@@ -7161,7 +7314,7 @@
         <v>1014</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D28" s="16">
         <v>10000</v>
@@ -7179,7 +7332,7 @@
         <v>1014</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="16">
         <v>30</v>
@@ -7197,7 +7350,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D30" s="16">
         <v>15000</v>
@@ -7215,7 +7368,7 @@
         <v>1015</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="16">
         <v>30</v>
@@ -7233,7 +7386,7 @@
         <v>1016</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D32" s="16">
         <v>50000</v>
@@ -7251,7 +7404,7 @@
         <v>1016</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="16">
         <v>50</v>
@@ -7269,7 +7422,7 @@
         <v>1017</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" s="16">
         <v>15000</v>
@@ -7287,7 +7440,7 @@
         <v>1017</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="16">
         <v>20</v>
@@ -7305,7 +7458,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
@@ -7320,7 +7473,7 @@
         <v>1018</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="16">
         <v>20</v>
@@ -7338,7 +7491,7 @@
         <v>1019</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D38" s="16">
         <v>150000</v>
@@ -7356,7 +7509,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D39" s="16">
         <v>50</v>
@@ -7374,7 +7527,7 @@
         <v>1020</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D40" s="16">
         <v>20000</v>
@@ -7392,7 +7545,7 @@
         <v>1020</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="16">
         <v>20</v>
@@ -7410,7 +7563,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D42" s="16">
         <v>50000</v>
@@ -7428,7 +7581,7 @@
         <v>1021</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="16">
         <v>20</v>
@@ -7446,7 +7599,7 @@
         <v>1022</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D44" s="16">
         <v>15000</v>
@@ -7464,7 +7617,7 @@
         <v>1022</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="16">
         <v>30</v>
@@ -7482,7 +7635,7 @@
         <v>1023</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D46" s="16">
         <v>500000</v>
@@ -7500,7 +7653,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D47" s="16">
         <v>50</v>
@@ -7518,7 +7671,7 @@
         <v>1024</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D48" s="16">
         <v>50000</v>
@@ -7536,7 +7689,7 @@
         <v>1024</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" s="16">
         <v>30</v>
@@ -7554,7 +7707,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D50" s="16">
         <v>80000</v>
@@ -7572,7 +7725,7 @@
         <v>1025</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="16">
         <v>20</v>
@@ -7590,7 +7743,7 @@
         <v>1026</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" s="16">
         <v>10000</v>
@@ -7608,7 +7761,7 @@
         <v>1026</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="16">
         <v>30</v>
@@ -7626,7 +7779,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E54" s="16">
         <v>1</v>
@@ -7641,7 +7794,7 @@
         <v>1027</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="16">
         <v>30</v>
@@ -7659,7 +7812,7 @@
         <v>1028</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E56" s="16">
         <v>1</v>
@@ -7674,7 +7827,7 @@
         <v>1028</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="16">
         <v>20</v>
@@ -7691,7 +7844,7 @@
         <v>2001</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="23">
         <v>5000</v>
@@ -7712,7 +7865,7 @@
         <v>2001</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="23">
         <v>2</v>
@@ -7733,7 +7886,7 @@
         <v>2002</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D60" s="23">
         <v>10000</v>
@@ -7754,7 +7907,7 @@
         <v>2002</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
@@ -7775,7 +7928,7 @@
         <v>2003</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D62" s="23">
         <v>10000</v>
@@ -7796,7 +7949,7 @@
         <v>2003</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" s="23">
         <v>10000</v>
@@ -7817,7 +7970,7 @@
         <v>2004</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" s="23">
         <v>10000</v>
@@ -7838,7 +7991,7 @@
         <v>2004</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" s="23">
         <v>10000</v>
@@ -7859,7 +8012,7 @@
         <v>2005</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D66" s="23">
         <v>60000</v>
@@ -7896,82 +8049,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="231">
   <si>
     <t>id|任务id</t>
   </si>
@@ -566,10 +566,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20,21,22,23,24,25,26,27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -966,39 +962,47 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>obj_3d_200flq_86400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS鱼1条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3d捕鱼游戏中击杀10条彩金鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,21,22,23,24,25,26,27,38,39,40,41,43,46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>obj_3d_1000flq_86400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>obj_3d_200flq_86400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀BOSS鱼1条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在游戏中累计赢金1000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3d捕鱼游戏中击杀10条彩金鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在游戏中累计赢金100万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,47,48,49,</t>
+    <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1144,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,9 +1241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -1891,41 +1892,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
+    <row r="9" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
         <v>12508</v>
       </c>
-      <c r="B9" s="42">
-        <v>1</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>12508</v>
       </c>
-      <c r="H9" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="42">
-        <v>1</v>
-      </c>
-      <c r="J9" s="42">
+      <c r="H9" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="41">
+        <v>1</v>
+      </c>
+      <c r="J9" s="41">
         <v>946677600</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2005,41 +2006,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
+    <row r="12" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
         <v>12511</v>
       </c>
-      <c r="B12" s="42">
-        <v>1</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="41">
+        <v>1</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>12511</v>
       </c>
-      <c r="H12" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="42">
-        <v>1</v>
-      </c>
-      <c r="J12" s="42">
+      <c r="H12" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="41">
+        <v>1</v>
+      </c>
+      <c r="J12" s="41">
         <v>946677600</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -2092,7 +2093,7 @@
         <v>133</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>116</v>
@@ -2206,7 +2207,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>115</v>
@@ -2233,41 +2234,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43">
+    <row r="18" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42">
         <v>12517</v>
       </c>
-      <c r="B18" s="43">
-        <v>1</v>
-      </c>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="42">
+        <v>1</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="43">
+      <c r="F18" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="42">
         <v>12517</v>
       </c>
-      <c r="H18" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="43">
-        <v>1</v>
-      </c>
-      <c r="J18" s="43">
+      <c r="H18" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="42">
         <v>946677600</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="42">
         <v>32503651200</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="42">
         <v>-1</v>
       </c>
     </row>
@@ -2282,7 +2283,7 @@
         <v>125</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>116</v>
@@ -2317,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>114</v>
@@ -2358,7 +2359,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>14</v>
@@ -2396,7 +2397,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -2434,7 +2435,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>14</v>
@@ -2472,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>14</v>
@@ -2499,535 +2500,535 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+    <row r="25" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="45">
         <v>12524</v>
       </c>
-      <c r="B25" s="46">
-        <v>1</v>
-      </c>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="45">
+        <v>1</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="E25" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="45">
+        <v>12524</v>
+      </c>
+      <c r="H25" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="38">
+        <v>1</v>
+      </c>
+      <c r="J25" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K25" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L25" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="45">
+        <v>12525</v>
+      </c>
+      <c r="B26" s="45">
+        <v>1</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="D26" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="46">
-        <v>12524</v>
-      </c>
-      <c r="H25" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39">
-        <v>1</v>
-      </c>
-      <c r="J25" s="39">
+      <c r="G26" s="45">
+        <v>12525</v>
+      </c>
+      <c r="H26" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="38">
+        <v>1</v>
+      </c>
+      <c r="J26" s="38">
         <v>946677600</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K26" s="38">
         <v>32503651200</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L26" s="38">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
-        <v>12525</v>
-      </c>
-      <c r="B26" s="46">
-        <v>1</v>
-      </c>
-      <c r="C26" s="46" t="s">
+    <row r="27" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="45">
+        <v>12526</v>
+      </c>
+      <c r="B27" s="45">
+        <v>1</v>
+      </c>
+      <c r="C27" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D27" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="45">
+        <v>12526</v>
+      </c>
+      <c r="H27" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="38">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K27" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L27" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45">
+        <v>12527</v>
+      </c>
+      <c r="B28" s="45">
+        <v>1</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="45">
+        <v>12527</v>
+      </c>
+      <c r="H28" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="38">
+        <v>1</v>
+      </c>
+      <c r="J28" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K28" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L28" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="45">
+        <v>12528</v>
+      </c>
+      <c r="B29" s="45">
+        <v>1</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="45">
+        <v>12528</v>
+      </c>
+      <c r="H29" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="38">
+        <v>1</v>
+      </c>
+      <c r="J29" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K29" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L29" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45">
+        <v>12529</v>
+      </c>
+      <c r="B30" s="45">
+        <v>1</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="45">
+        <v>12529</v>
+      </c>
+      <c r="H30" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="38">
+        <v>1</v>
+      </c>
+      <c r="J30" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K30" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L30" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45">
+        <v>12530</v>
+      </c>
+      <c r="B31" s="45">
+        <v>1</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="45">
+        <v>12530</v>
+      </c>
+      <c r="H31" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="38">
+        <v>1</v>
+      </c>
+      <c r="J31" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K31" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L31" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45">
+        <v>12531</v>
+      </c>
+      <c r="B32" s="45">
+        <v>1</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="45">
+        <v>12531</v>
+      </c>
+      <c r="H32" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="38">
+        <v>1</v>
+      </c>
+      <c r="J32" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K32" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L32" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45">
+        <v>12532</v>
+      </c>
+      <c r="B33" s="45">
+        <v>1</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F33" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="46">
-        <v>12525</v>
-      </c>
-      <c r="H26" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39">
-        <v>1</v>
-      </c>
-      <c r="J26" s="39">
+      <c r="G33" s="45">
+        <v>12532</v>
+      </c>
+      <c r="H33" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="38">
+        <v>1</v>
+      </c>
+      <c r="J33" s="38">
         <v>946677600</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K33" s="38">
         <v>32503651200</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L33" s="38">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
-        <v>12526</v>
-      </c>
-      <c r="B27" s="46">
-        <v>1</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="40" t="s">
+    <row r="34" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45">
+        <v>12533</v>
+      </c>
+      <c r="B34" s="45">
+        <v>1</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="46">
-        <v>12526</v>
-      </c>
-      <c r="H27" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="39">
-        <v>1</v>
-      </c>
-      <c r="J27" s="39">
+      <c r="G34" s="45">
+        <v>12533</v>
+      </c>
+      <c r="H34" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="38">
+        <v>1</v>
+      </c>
+      <c r="J34" s="38">
         <v>946677600</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K34" s="38">
         <v>32503651200</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L34" s="38">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
-        <v>12527</v>
-      </c>
-      <c r="B28" s="46">
-        <v>1</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="46" t="s">
+    <row r="35" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45">
+        <v>12534</v>
+      </c>
+      <c r="B35" s="45">
+        <v>1</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="45">
+        <v>12534</v>
+      </c>
+      <c r="H35" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="38">
+        <v>1</v>
+      </c>
+      <c r="J35" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K35" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L35" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45">
+        <v>12535</v>
+      </c>
+      <c r="B36" s="45">
+        <v>1</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="45">
+        <v>12535</v>
+      </c>
+      <c r="H36" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="38">
+        <v>1</v>
+      </c>
+      <c r="J36" s="38">
+        <v>946677600</v>
+      </c>
+      <c r="K36" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="L36" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
+        <v>12536</v>
+      </c>
+      <c r="B37" s="45">
+        <v>1</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="D37" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F37" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="46">
-        <v>12527</v>
-      </c>
-      <c r="H28" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39">
-        <v>1</v>
-      </c>
-      <c r="J28" s="39">
+      <c r="G37" s="45">
+        <v>12536</v>
+      </c>
+      <c r="H37" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="38">
+        <v>1</v>
+      </c>
+      <c r="J37" s="38">
         <v>946677600</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K37" s="38">
         <v>32503651200</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L37" s="38">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
-        <v>12528</v>
-      </c>
-      <c r="B29" s="46">
-        <v>1</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="46">
-        <v>12528</v>
-      </c>
-      <c r="H29" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="39">
-        <v>1</v>
-      </c>
-      <c r="J29" s="39">
+    <row r="38" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41">
+        <v>12537</v>
+      </c>
+      <c r="B38" s="41">
+        <v>1</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="41">
+        <v>1</v>
+      </c>
+      <c r="J38" s="41">
         <v>946677600</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K38" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L29" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
-        <v>12529</v>
-      </c>
-      <c r="B30" s="46">
-        <v>1</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="46">
-        <v>12529</v>
-      </c>
-      <c r="H30" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39">
-        <v>1</v>
-      </c>
-      <c r="J30" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K30" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L30" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
-        <v>12530</v>
-      </c>
-      <c r="B31" s="46">
-        <v>1</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="46">
-        <v>12530</v>
-      </c>
-      <c r="H31" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="39">
-        <v>1</v>
-      </c>
-      <c r="J31" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K31" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L31" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46">
-        <v>12531</v>
-      </c>
-      <c r="B32" s="46">
-        <v>1</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="46">
-        <v>12531</v>
-      </c>
-      <c r="H32" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="39">
-        <v>1</v>
-      </c>
-      <c r="J32" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K32" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L32" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
-        <v>12532</v>
-      </c>
-      <c r="B33" s="46">
-        <v>1</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="46">
-        <v>12532</v>
-      </c>
-      <c r="H33" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="39">
-        <v>1</v>
-      </c>
-      <c r="J33" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K33" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L33" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
-        <v>12533</v>
-      </c>
-      <c r="B34" s="46">
-        <v>1</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="46">
-        <v>12533</v>
-      </c>
-      <c r="H34" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="39">
-        <v>1</v>
-      </c>
-      <c r="J34" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K34" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L34" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
-        <v>12534</v>
-      </c>
-      <c r="B35" s="46">
-        <v>1</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="46">
-        <v>12534</v>
-      </c>
-      <c r="H35" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="39">
-        <v>1</v>
-      </c>
-      <c r="J35" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K35" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L35" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
-        <v>12535</v>
-      </c>
-      <c r="B36" s="46">
-        <v>1</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="46">
-        <v>12535</v>
-      </c>
-      <c r="H36" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="39">
-        <v>1</v>
-      </c>
-      <c r="J36" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K36" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L36" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
-        <v>12536</v>
-      </c>
-      <c r="B37" s="46">
-        <v>1</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="46">
-        <v>12536</v>
-      </c>
-      <c r="H37" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="39">
-        <v>1</v>
-      </c>
-      <c r="J37" s="39">
-        <v>946677600</v>
-      </c>
-      <c r="K37" s="39">
-        <v>32503651200</v>
-      </c>
-      <c r="L37" s="39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="42">
-        <v>12537</v>
-      </c>
-      <c r="B38" s="42">
-        <v>1</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="42">
-        <v>12511</v>
-      </c>
-      <c r="H38" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="42">
-        <v>1</v>
-      </c>
-      <c r="J38" s="42">
-        <v>946677600</v>
-      </c>
-      <c r="K38" s="42">
-        <v>32503651200</v>
-      </c>
-      <c r="L38" s="42">
+      <c r="L38" s="41">
         <v>-1</v>
       </c>
     </row>
@@ -3805,7 +3806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3828,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>36</v>
@@ -3843,7 +3844,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -4015,27 +4016,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+    <row r="9" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>12508</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="38">
+      <c r="C9" s="43"/>
+      <c r="D9" s="37">
         <v>8</v>
       </c>
-      <c r="E9" s="40">
-        <v>1</v>
-      </c>
-      <c r="F9" s="39">
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38">
         <v>1026</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4087,27 +4088,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+    <row r="12" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>12511</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="38">
+      <c r="C12" s="43"/>
+      <c r="D12" s="37">
         <v>11</v>
       </c>
-      <c r="E12" s="40">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39">
+      <c r="E12" s="39">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38">
         <v>1027</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="39" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4228,30 +4229,30 @@
         <v>40</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="38">
         <v>12517</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37">
         <v>17</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>3</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>1006</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="47" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4324,7 +4325,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4348,7 +4349,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4372,7 +4373,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4396,343 +4397,343 @@
         <v>40</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="38">
         <v>12524</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44">
         <v>24</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="45">
         <v>2</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="45">
         <v>1013</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="38">
         <v>12525</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44">
         <v>25</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>200000</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="45">
         <v>1014</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="38">
         <v>12526</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44">
         <v>26</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>5</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="45">
         <v>1015</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="38">
         <v>12527</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44">
         <v>27</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="44">
         <v>1000</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="45">
         <v>1016</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="38">
         <v>12528</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45">
+      <c r="C29" s="44"/>
+      <c r="D29" s="44">
         <v>28</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="45">
         <v>500000</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="45">
         <v>1017</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="38">
         <v>12529</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44">
         <v>29</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>5</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="45">
         <v>1018</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="38">
         <v>12530</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44">
         <v>30</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <v>3000</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="45">
         <v>1019</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="38">
         <v>12531</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44">
         <v>31</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="44">
         <v>1000000</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="45">
         <v>1020</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="38">
         <v>12532</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44">
         <v>32</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>5</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="45">
         <v>1021</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="38">
         <v>12533</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45">
+      <c r="C34" s="44"/>
+      <c r="D34" s="44">
         <v>33</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>10</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="45">
         <v>1022</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="38">
         <v>12534</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44">
         <v>34</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <v>10000</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="45">
         <v>1023</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="38">
         <v>12535</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45">
+      <c r="C36" s="44"/>
+      <c r="D36" s="44">
         <v>35</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="44">
         <v>10000000</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="45">
         <v>1024</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="38">
         <v>12536</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44">
         <v>32</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="45">
         <v>8</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="45">
         <v>1025</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="46" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="38">
         <v>12537</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="38">
+      <c r="C38" s="43"/>
+      <c r="D38" s="37">
         <v>11</v>
       </c>
-      <c r="E38" s="40">
-        <v>1</v>
-      </c>
-      <c r="F38" s="39">
+      <c r="E38" s="39">
+        <v>1</v>
+      </c>
+      <c r="F38" s="38">
         <v>1028</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="40" t="s">
-        <v>223</v>
+      <c r="H38" s="39" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -4753,8 +4754,8 @@
       <c r="G39" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="37" t="s">
-        <v>180</v>
+      <c r="H39" s="36" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5261,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5283,13 +5284,13 @@
         <v>44</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5597,7 +5598,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="23">
         <v>0</v>
@@ -5611,7 +5612,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="23">
         <v>0</v>
@@ -5625,7 +5626,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="23">
         <v>0</v>
@@ -5639,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="23">
         <v>0</v>
@@ -5653,7 +5654,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="23">
         <v>0</v>
@@ -5667,7 +5668,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
@@ -5681,7 +5682,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="23">
         <v>0</v>
@@ -5723,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="23">
         <v>1018</v>
@@ -5737,7 +5738,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" s="26">
         <v>0</v>
@@ -5752,7 +5753,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="26">
         <v>0</v>
@@ -5766,7 +5767,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="26">
         <v>0</v>
@@ -5780,7 +5781,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="26">
         <v>0</v>
@@ -5794,7 +5795,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="26">
         <v>0</v>
@@ -5808,7 +5809,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="26">
         <v>0</v>
@@ -5822,7 +5823,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="26">
         <v>0</v>
@@ -5836,7 +5837,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="26">
         <v>0</v>
@@ -5850,7 +5851,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41" s="26">
         <v>0</v>
@@ -5864,7 +5865,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="23">
         <v>0</v>
@@ -5878,7 +5879,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="15">
         <v>1019</v>
@@ -5940,367 +5941,367 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26">
         <v>47</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="37">
         <v>24</v>
       </c>
-      <c r="C48" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="38">
+      <c r="C48" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26">
         <v>48</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="37">
         <v>25</v>
       </c>
-      <c r="C49" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="40">
+      <c r="C49" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26">
         <v>49</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="37">
         <v>26</v>
       </c>
-      <c r="C50" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="39">
+      <c r="C50" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="38">
         <v>1018</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26">
         <v>50</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="37">
         <v>27</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="40">
+      <c r="C51" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26">
         <v>51</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="37">
         <v>28</v>
       </c>
-      <c r="C52" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="40">
+      <c r="C52" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26">
         <v>52</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="37">
         <v>29</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="39">
         <v>1023</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26">
         <v>53</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="37">
         <v>30</v>
       </c>
-      <c r="C54" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="40">
+      <c r="C54" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26">
         <v>54</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="37">
         <v>31</v>
       </c>
-      <c r="C55" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" s="40">
+      <c r="C55" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26">
         <v>55</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="37">
         <v>31</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26">
         <v>56</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="37">
         <v>31</v>
       </c>
-      <c r="C57" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="40">
+      <c r="C57" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26">
         <v>57</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58" s="37">
         <v>31</v>
       </c>
-      <c r="C58" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="40">
+      <c r="C58" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26">
         <v>58</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="37">
         <v>31</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="40">
+      <c r="C59" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26">
         <v>59</v>
       </c>
-      <c r="B60" s="38">
+      <c r="B60" s="37">
         <v>31</v>
       </c>
-      <c r="C60" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="40">
+      <c r="C60" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26">
         <v>60</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61" s="37">
         <v>31</v>
       </c>
-      <c r="C61" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="40">
+      <c r="C61" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26">
         <v>61</v>
       </c>
-      <c r="B62" s="38">
+      <c r="B62" s="37">
         <v>31</v>
       </c>
-      <c r="C62" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="40">
+      <c r="C62" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26">
         <v>62</v>
       </c>
-      <c r="B63" s="38">
+      <c r="B63" s="37">
         <v>32</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="39">
         <v>1010</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26">
         <v>63</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64" s="37">
         <v>33</v>
       </c>
-      <c r="C64" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="39">
+      <c r="C64" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="38">
         <v>1018</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26">
         <v>64</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65" s="37">
         <v>34</v>
       </c>
-      <c r="C65" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="40">
+      <c r="C65" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26">
         <v>65</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66" s="37">
         <v>35</v>
       </c>
-      <c r="C66" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="40">
+      <c r="C66" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
         <v>66</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67" s="37">
         <v>35</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26">
         <v>67</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68" s="37">
         <v>35</v>
       </c>
-      <c r="C68" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="40">
+      <c r="C68" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26">
         <v>68</v>
       </c>
-      <c r="B69" s="38">
+      <c r="B69" s="37">
         <v>35</v>
       </c>
-      <c r="C69" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="40">
+      <c r="C69" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26">
         <v>69</v>
       </c>
-      <c r="B70" s="38">
+      <c r="B70" s="37">
         <v>35</v>
       </c>
-      <c r="C70" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="40">
+      <c r="C70" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26">
         <v>70</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71" s="37">
         <v>35</v>
       </c>
-      <c r="C71" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="40">
+      <c r="C71" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26">
         <v>71</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="37">
         <v>35</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="40">
+      <c r="C72" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26">
         <v>72</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="37">
         <v>35</v>
       </c>
-      <c r="C73" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="40">
+      <c r="C73" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6315,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6588,7 +6589,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -6641,10 +6642,10 @@
         <v>1017</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="26">
         <v>2</v>
@@ -6661,8 +6662,8 @@
       <c r="C19" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>137</v>
+      <c r="D19" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
@@ -6677,7 +6678,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="15">
         <v>600</v>
@@ -6713,7 +6714,7 @@
         <v>1021</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>64</v>
@@ -6731,7 +6732,7 @@
         <v>1022</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>64</v>
@@ -6750,10 +6751,10 @@
         <v>1023</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>211</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>212</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -6771,7 +6772,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C56" sqref="A56:C57"/>
+      <selection activeCell="A56" sqref="A56:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6790,31 +6791,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6899,7 +6900,7 @@
       <c r="H5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="35" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6920,9 +6921,9 @@
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="36"/>
+        <v>137</v>
+      </c>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -6940,7 +6941,7 @@
       <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7024,16 +7025,16 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>1006</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>10000</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <v>1</v>
       </c>
       <c r="F12" s="23"/>
@@ -7045,16 +7046,16 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>1006</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>30</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <v>1</v>
       </c>
       <c r="F13" s="23"/>
@@ -7070,7 +7071,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="23">
         <v>2500</v>
@@ -7112,7 +7113,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="16">
         <v>30000</v>
@@ -7180,7 +7181,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
@@ -7211,7 +7212,7 @@
         <v>1011</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="16">
         <v>10000</v>
@@ -7245,7 +7246,7 @@
         <v>1012</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D24" s="16">
         <v>30000</v>
@@ -7279,7 +7280,7 @@
         <v>1013</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="16">
         <v>5000</v>
@@ -7314,7 +7315,7 @@
         <v>1014</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" s="16">
         <v>10000</v>
@@ -7350,7 +7351,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="16">
         <v>15000</v>
@@ -7386,7 +7387,7 @@
         <v>1016</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D32" s="16">
         <v>50000</v>
@@ -7422,7 +7423,7 @@
         <v>1017</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="16">
         <v>15000</v>
@@ -7458,7 +7459,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
@@ -7491,7 +7492,7 @@
         <v>1019</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D38" s="16">
         <v>150000</v>
@@ -7509,7 +7510,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" s="16">
         <v>50</v>
@@ -7527,7 +7528,7 @@
         <v>1020</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="16">
         <v>20000</v>
@@ -7563,7 +7564,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="16">
         <v>50000</v>
@@ -7599,7 +7600,7 @@
         <v>1022</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="16">
         <v>15000</v>
@@ -7635,7 +7636,7 @@
         <v>1023</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D46" s="16">
         <v>500000</v>
@@ -7653,7 +7654,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="16">
         <v>50</v>
@@ -7671,7 +7672,7 @@
         <v>1024</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" s="16">
         <v>50000</v>
@@ -7707,7 +7708,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D50" s="16">
         <v>80000</v>
@@ -7743,7 +7744,7 @@
         <v>1026</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="16">
         <v>10000</v>
@@ -7779,7 +7780,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E54" s="16">
         <v>1</v>
@@ -7812,7 +7813,7 @@
         <v>1028</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E56" s="16">
         <v>1</v>
@@ -7844,7 +7845,7 @@
         <v>2001</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="23">
         <v>5000</v>
@@ -7865,7 +7866,7 @@
         <v>2001</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="23">
         <v>2</v>
@@ -7886,7 +7887,7 @@
         <v>2002</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="23">
         <v>10000</v>
@@ -7907,7 +7908,7 @@
         <v>2002</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" s="23">
         <v>1</v>
@@ -7928,7 +7929,7 @@
         <v>2003</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62" s="23">
         <v>10000</v>
@@ -7949,7 +7950,7 @@
         <v>2003</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="23">
         <v>10000</v>
@@ -7970,7 +7971,7 @@
         <v>2004</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" s="23">
         <v>10000</v>
@@ -7991,7 +7992,7 @@
         <v>2004</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D65" s="23">
         <v>10000</v>
@@ -8012,7 +8013,7 @@
         <v>2005</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="23">
         <v>60000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="230">
   <si>
     <t>id|任务id</t>
   </si>
@@ -999,10 +999,6 @@
   </si>
   <si>
     <t>obj_3d_1000flq_86400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1555,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1652,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K2" s="6">
         <v>32503651200</v>
@@ -1693,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K3" s="6">
         <v>32503651200</v>
@@ -1731,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K4" s="6">
         <v>32503651200</v>
@@ -1769,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K5" s="6">
         <v>32503651200</v>
@@ -1807,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K6" s="6">
         <v>32503651200</v>
@@ -1845,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K7" s="6">
         <v>32503651200</v>
@@ -1883,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K8" s="6">
         <v>32503651200</v>
@@ -1921,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="41">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K9" s="41">
         <v>32503651200</v>
@@ -1959,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K10" s="6">
         <v>32503651200</v>
@@ -1997,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K11" s="6">
         <v>32503651200</v>
@@ -2035,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="41">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K12" s="41">
         <v>32503651200</v>
@@ -2073,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K13" s="6">
         <v>32503651200</v>
@@ -2111,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K14" s="23">
         <v>32503651200</v>
@@ -2149,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K15" s="23">
         <v>32503651200</v>
@@ -2187,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K16" s="23">
         <v>32503651200</v>
@@ -2225,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K17" s="16">
         <v>32503651200</v>
@@ -2263,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="42">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K18" s="42">
         <v>32503651200</v>
@@ -2301,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="23">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K19" s="23">
         <v>32503651200</v>
@@ -2339,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="6">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K20" s="6">
         <v>32503651200</v>
@@ -2377,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K21" s="16">
         <v>32503651200</v>
@@ -2415,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K22" s="16">
         <v>32503651200</v>
@@ -2453,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K23" s="16">
         <v>32503651200</v>
@@ -2491,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K24" s="16">
         <v>32503651200</v>
@@ -2529,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K25" s="38">
         <v>32503651200</v>
@@ -2567,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K26" s="38">
         <v>32503651200</v>
@@ -2605,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K27" s="38">
         <v>32503651200</v>
@@ -2643,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K28" s="38">
         <v>32503651200</v>
@@ -2681,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K29" s="38">
         <v>32503651200</v>
@@ -2719,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K30" s="38">
         <v>32503651200</v>
@@ -2757,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K31" s="38">
         <v>32503651200</v>
@@ -2795,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K32" s="38">
         <v>32503651200</v>
@@ -2833,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K33" s="38">
         <v>32503651200</v>
@@ -2871,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K34" s="38">
         <v>32503651200</v>
@@ -2909,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K35" s="38">
         <v>32503651200</v>
@@ -2947,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K36" s="38">
         <v>32503651200</v>
@@ -2985,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="38">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K37" s="38">
         <v>32503651200</v>
@@ -3013,8 +3009,8 @@
       <c r="F38" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="41" t="s">
-        <v>230</v>
+      <c r="G38" s="41">
+        <v>12537</v>
       </c>
       <c r="H38" s="41" t="b">
         <v>1</v>
@@ -3023,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="41">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K38" s="41">
         <v>32503651200</v>
@@ -3061,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="16">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="K39" s="16">
         <v>32503651200</v>
@@ -3804,9 +3800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="259">
   <si>
     <t>id|任务id</t>
   </si>
@@ -945,67 +945,115 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>p_task_fish_daily_4_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_3_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_4_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_1_2_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>p_task_fish_daily_3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_3_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_1_2_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cps</t>
+    <t>p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_task_fish_daily_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no_cps</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_task_fish_daily_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no_cps</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_task_fish_daily_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no_cps</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_1_2_no_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>p_task_fish_daily_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1088,6 +1136,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1708,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1718,7 +1767,7 @@
     <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="30.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="36.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="6" customWidth="1"/>
@@ -2064,8 +2113,8 @@
       <c r="D9" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>238</v>
+      <c r="E9" s="76" t="s">
+        <v>252</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>15</v>
@@ -2182,7 +2231,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>114</v>
@@ -2220,8 +2269,8 @@
       <c r="D13" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="60" t="s">
-        <v>253</v>
+      <c r="E13" s="59" t="s">
+        <v>113</v>
       </c>
       <c r="F13" s="60" t="s">
         <v>115</v>
@@ -2337,8 +2386,8 @@
       <c r="D16" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="63" t="s">
-        <v>113</v>
+      <c r="E16" s="62" t="s">
+        <v>251</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>115</v>
@@ -2416,7 +2465,7 @@
         <v>110</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>225</v>
@@ -2493,8 +2542,8 @@
       <c r="D20" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="60" t="s">
-        <v>237</v>
+      <c r="E20" s="59" t="s">
+        <v>257</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>115</v>
@@ -2532,8 +2581,8 @@
       <c r="D21" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>247</v>
+      <c r="E21" s="59" t="s">
+        <v>244</v>
       </c>
       <c r="F21" s="59" t="s">
         <v>15</v>
@@ -2571,8 +2620,8 @@
       <c r="D22" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>237</v>
+      <c r="E22" s="59" t="s">
+        <v>253</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>15</v>
@@ -2649,8 +2698,8 @@
       <c r="D24" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>254</v>
+      <c r="E24" s="59" t="s">
+        <v>258</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>15</v>
@@ -2767,7 +2816,7 @@
         <v>181</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>15</v>
@@ -2805,8 +2854,8 @@
       <c r="D28" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="73" t="s">
-        <v>240</v>
+      <c r="E28" s="76" t="s">
+        <v>254</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>15</v>
@@ -2845,7 +2894,7 @@
         <v>193</v>
       </c>
       <c r="E29" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" s="76" t="s">
         <v>15</v>
@@ -2884,7 +2933,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>15</v>
@@ -2922,8 +2971,8 @@
       <c r="D31" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="74" t="s">
-        <v>243</v>
+      <c r="E31" s="77" t="s">
+        <v>255</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>15</v>
@@ -2962,7 +3011,7 @@
         <v>221</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F32" s="77" t="s">
         <v>15</v>
@@ -3001,7 +3050,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F33" s="77" t="s">
         <v>15</v>
@@ -3040,7 +3089,7 @@
         <v>220</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>15</v>
@@ -3078,8 +3127,8 @@
       <c r="D35" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="67" t="s">
-        <v>245</v>
+      <c r="E35" s="68" t="s">
+        <v>256</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>15</v>
@@ -3118,7 +3167,7 @@
         <v>219</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>15</v>
@@ -3157,7 +3206,7 @@
         <v>213</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37" s="68" t="s">
         <v>15</v>
@@ -3196,7 +3245,7 @@
         <v>196</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>114</v>
@@ -3235,7 +3284,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3274,7 +3323,7 @@
         <v>228</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3313,7 +3362,7 @@
         <v>230</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>15</v>
@@ -3352,7 +3401,7 @@
         <v>231</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>15</v>
@@ -3391,7 +3440,7 @@
         <v>232</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -7276,8 +7325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3290,7 +3290,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="46">
-        <v>12523</v>
+        <v>12538</v>
       </c>
       <c r="H39" s="46" t="b">
         <v>1</v>
@@ -3329,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="46">
-        <v>12519</v>
+        <v>12539</v>
       </c>
       <c r="H40" s="46" t="b">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="46">
-        <v>12527</v>
+        <v>12540</v>
       </c>
       <c r="H41" s="46" t="b">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="46">
-        <v>12530</v>
+        <v>12541</v>
       </c>
       <c r="H42" s="46" t="b">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="46">
-        <v>12534</v>
+        <v>12542</v>
       </c>
       <c r="H43" s="46" t="b">
         <v>1</v>
@@ -4240,7 +4240,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7326,7 +7326,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="B58" sqref="B58:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$90</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="284">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1071,6 +1071,97 @@
       <t>_2</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006,2007,2008,2009,2010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hammer_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金200万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1277,7 +1374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1493,6 +1590,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1771,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3481,103 +3590,391 @@
       </c>
       <c r="M43" s="46"/>
     </row>
-    <row r="44" spans="1:13" s="15" customFormat="1">
-      <c r="A44" s="42">
+    <row r="44" spans="1:13" s="39" customFormat="1">
+      <c r="A44" s="46">
+        <v>12600</v>
+      </c>
+      <c r="B44" s="46">
+        <v>1</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="46">
+        <v>12560</v>
+      </c>
+      <c r="H44" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="46">
+        <v>1</v>
+      </c>
+      <c r="J44" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K44" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L44" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="1:13" s="39" customFormat="1">
+      <c r="A45" s="46">
+        <v>12601</v>
+      </c>
+      <c r="B45" s="46">
+        <v>1</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="46">
+        <v>12561</v>
+      </c>
+      <c r="H45" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="46">
+        <v>1</v>
+      </c>
+      <c r="J45" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K45" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L45" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="46"/>
+    </row>
+    <row r="46" spans="1:13" s="39" customFormat="1">
+      <c r="A46" s="46">
+        <v>12602</v>
+      </c>
+      <c r="B46" s="46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="46">
+        <v>12562</v>
+      </c>
+      <c r="H46" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K46" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L46" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="46"/>
+    </row>
+    <row r="47" spans="1:13" s="39" customFormat="1">
+      <c r="A47" s="46">
+        <v>12603</v>
+      </c>
+      <c r="B47" s="46">
+        <v>1</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="46">
+        <v>12563</v>
+      </c>
+      <c r="H47" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="46">
+        <v>1</v>
+      </c>
+      <c r="J47" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K47" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L47" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="46"/>
+    </row>
+    <row r="48" spans="1:13" s="39" customFormat="1">
+      <c r="A48" s="46">
+        <v>12604</v>
+      </c>
+      <c r="B48" s="46">
+        <v>1</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="46">
+        <v>12564</v>
+      </c>
+      <c r="H48" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="46">
+        <v>1</v>
+      </c>
+      <c r="J48" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K48" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L48" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="46"/>
+    </row>
+    <row r="49" spans="1:13" s="39" customFormat="1">
+      <c r="A49" s="46">
+        <v>12605</v>
+      </c>
+      <c r="B49" s="46">
+        <v>1</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="46">
+        <v>12565</v>
+      </c>
+      <c r="H49" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="46">
+        <v>1</v>
+      </c>
+      <c r="J49" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K49" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L49" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="46"/>
+    </row>
+    <row r="50" spans="1:13" s="39" customFormat="1">
+      <c r="A50" s="46">
+        <v>12606</v>
+      </c>
+      <c r="B50" s="46">
+        <v>1</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="46">
+        <v>12566</v>
+      </c>
+      <c r="H50" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="46">
+        <v>1</v>
+      </c>
+      <c r="J50" s="46">
+        <v>946656000</v>
+      </c>
+      <c r="K50" s="46">
+        <v>32503651200</v>
+      </c>
+      <c r="L50" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="46"/>
+    </row>
+    <row r="51" spans="1:13" s="15" customFormat="1">
+      <c r="A51" s="42">
         <v>13000</v>
       </c>
-      <c r="B44" s="42">
-        <v>1</v>
-      </c>
-      <c r="C44" s="43" t="s">
+      <c r="B51" s="42">
+        <v>1</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D51" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="42" t="s">
+      <c r="E51" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G51" s="42">
         <v>13000</v>
       </c>
-      <c r="H44" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="42">
-        <v>1</v>
-      </c>
-      <c r="J44" s="42">
+      <c r="H51" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="42">
+        <v>1</v>
+      </c>
+      <c r="J51" s="42">
         <v>946656000</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K51" s="42">
         <v>32503651200</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L51" s="42">
         <v>-1</v>
       </c>
-      <c r="M44" s="42"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="7:7">
+      <c r="M51" s="42"/>
+    </row>
+    <row r="52" spans="1:13" s="15" customFormat="1">
+      <c r="A52" s="42">
+        <v>13001</v>
+      </c>
+      <c r="B52" s="42">
+        <v>1</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="42">
+        <v>13001</v>
+      </c>
+      <c r="H52" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="42">
+        <v>1</v>
+      </c>
+      <c r="J52" s="42">
+        <v>946656000</v>
+      </c>
+      <c r="K52" s="42">
+        <v>32503651200</v>
+      </c>
+      <c r="L52" s="42">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="42"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="1:13">
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="1:13">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="1:13">
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="1:13">
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="1:13">
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="1:13">
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="1:13">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="1:13">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="1:13">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="1:13">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="1:13">
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="3:7">
@@ -3599,38 +3996,24 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="3:7">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="3:7">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="3:7">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="3:7">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="3:7">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="3:7">
@@ -4242,6 +4625,41 @@
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="3:7">
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="3:7">
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="3:7">
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="3:7">
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="3:7">
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="3:7">
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="G206" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4252,11 +4670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5306,91 +5724,241 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="29" customFormat="1">
-      <c r="A44" s="51">
+    <row r="44" spans="1:8" s="50" customFormat="1">
+      <c r="A44" s="55">
         <v>43</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="47">
+        <v>12560</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
+        <v>36</v>
+      </c>
+      <c r="E44" s="47">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="47">
+        <v>1034</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="1:8" s="50" customFormat="1">
+      <c r="A45" s="55">
+        <v>44</v>
+      </c>
+      <c r="B45" s="47">
+        <v>12561</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55">
+        <v>36</v>
+      </c>
+      <c r="E45" s="47">
+        <v>50000</v>
+      </c>
+      <c r="F45" s="47">
+        <v>1035</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="47"/>
+    </row>
+    <row r="46" spans="1:8" s="50" customFormat="1">
+      <c r="A46" s="55">
+        <v>45</v>
+      </c>
+      <c r="B46" s="47">
+        <v>12562</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55">
+        <v>36</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="47">
+        <v>1036</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="47"/>
+    </row>
+    <row r="47" spans="1:8" s="50" customFormat="1">
+      <c r="A47" s="55">
+        <v>46</v>
+      </c>
+      <c r="B47" s="47">
+        <v>12563</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55">
+        <v>36</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="47">
+        <v>1037</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" spans="1:8" s="50" customFormat="1">
+      <c r="A48" s="55">
+        <v>47</v>
+      </c>
+      <c r="B48" s="47">
+        <v>12564</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55">
+        <v>36</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="47">
+        <v>1038</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:8" s="50" customFormat="1">
+      <c r="A49" s="55">
+        <v>48</v>
+      </c>
+      <c r="B49" s="47">
+        <v>12565</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55">
+        <v>36</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="47">
+        <v>1039</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" spans="1:8" s="50" customFormat="1">
+      <c r="A50" s="55">
+        <v>49</v>
+      </c>
+      <c r="B50" s="47">
+        <v>12566</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55">
+        <v>36</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="47">
+        <v>1040</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="47"/>
+    </row>
+    <row r="51" spans="1:8" s="29" customFormat="1">
+      <c r="A51" s="55">
+        <v>53</v>
+      </c>
+      <c r="B51" s="43">
         <v>13000</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="56" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F51" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="G51" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="H51" s="58" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="F47" s="6"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="6:8">
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="6:8">
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="6"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="6:8">
+    <row r="52" spans="1:8" s="29" customFormat="1">
+      <c r="A52" s="55">
+        <v>54</v>
+      </c>
+      <c r="B52" s="43">
+        <v>13001</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="6:8">
+    <row r="54" spans="1:8">
       <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="6:8">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="F55" s="6"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="6:8">
+    </row>
+    <row r="56" spans="1:8">
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="1:8">
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="1:8">
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="1:8">
       <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="6:8">
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="F60" s="6"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="6:8">
+    </row>
+    <row r="61" spans="1:8">
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="6:8">
+    <row r="62" spans="1:8">
       <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="6:8">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="F63" s="6"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="6:8">
+    </row>
+    <row r="64" spans="1:8">
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="6:8">
@@ -5401,20 +5969,20 @@
     </row>
     <row r="67" spans="6:8">
       <c r="F67" s="6"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="6:8">
       <c r="F68" s="6"/>
-      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="6:8">
       <c r="F70" s="6"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="6:8">
       <c r="F71" s="6"/>
-      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="6:8">
       <c r="F72" s="6"/>
@@ -5427,20 +5995,20 @@
     </row>
     <row r="75" spans="6:8">
       <c r="F75" s="6"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="6:8">
       <c r="F76" s="6"/>
-      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="6:8">
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="6:8">
       <c r="F78" s="6"/>
+      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="6:8">
       <c r="F79" s="6"/>
-      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="6:8">
       <c r="F80" s="6"/>
@@ -5453,20 +6021,20 @@
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="6"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8">
       <c r="F84" s="6"/>
-      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="6"/>
+      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="6"/>
-      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="6:8">
       <c r="F88" s="6"/>
@@ -5479,20 +6047,20 @@
     </row>
     <row r="91" spans="6:8">
       <c r="F91" s="6"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8">
       <c r="F92" s="6"/>
-      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8">
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="6:8">
       <c r="F94" s="6"/>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="6:8">
       <c r="F95" s="6"/>
-      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8">
       <c r="F96" s="6"/>
@@ -5512,10 +6080,10 @@
     </row>
     <row r="101" spans="6:8">
       <c r="F101" s="6"/>
-      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="6:8">
       <c r="F102" s="6"/>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="6:8">
       <c r="F103" s="6"/>
@@ -5535,10 +6103,10 @@
     </row>
     <row r="108" spans="6:8">
       <c r="F108" s="6"/>
+      <c r="H108" s="1"/>
     </row>
     <row r="109" spans="6:8">
       <c r="F109" s="6"/>
-      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="6:8">
       <c r="F110" s="6"/>
@@ -5551,15 +6119,13 @@
     </row>
     <row r="113" spans="6:8">
       <c r="F113" s="6"/>
-      <c r="H113" s="1"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="6:8">
       <c r="F114" s="6"/>
-      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="6:8">
       <c r="F115" s="6"/>
-      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="6:8">
       <c r="F116" s="6"/>
@@ -5567,15 +6133,12 @@
     </row>
     <row r="117" spans="6:8">
       <c r="F117" s="6"/>
-      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="6:8">
       <c r="F118" s="6"/>
-      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="6:8">
       <c r="F119" s="6"/>
-      <c r="H119" s="1"/>
     </row>
     <row r="120" spans="6:8">
       <c r="F120" s="6"/>
@@ -5820,6 +6383,34 @@
     <row r="180" spans="6:8">
       <c r="F180" s="6"/>
       <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="6:8">
+      <c r="F181" s="6"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="6:8">
+      <c r="F182" s="6"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="6:8">
+      <c r="F183" s="6"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="6:8">
+      <c r="F184" s="6"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="6:8">
+      <c r="F185" s="6"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="6:8">
+      <c r="F186" s="6"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="6:8">
+      <c r="F187" s="6"/>
+      <c r="H187" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5830,10 +6421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6866,12 +7457,96 @@
         <v>72</v>
       </c>
       <c r="B73" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>158</v>
       </c>
       <c r="D73" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="24">
+        <v>73</v>
+      </c>
+      <c r="B74" s="33">
+        <v>36</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="24">
+        <v>74</v>
+      </c>
+      <c r="B75" s="33">
+        <v>36</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="24">
+        <v>75</v>
+      </c>
+      <c r="B76" s="33">
+        <v>36</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="24">
+        <v>76</v>
+      </c>
+      <c r="B77" s="33">
+        <v>36</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="24">
+        <v>77</v>
+      </c>
+      <c r="B78" s="33">
+        <v>36</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="24">
+        <v>78</v>
+      </c>
+      <c r="B79" s="33">
+        <v>36</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7339,10 +8014,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:E59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C81" activeCellId="6" sqref="C69:D69 C71:D71 C73:D73 C75:D75 C77:D77 C79:D79 C81:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8526,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="15" customFormat="1">
+    <row r="65" spans="1:5" s="15" customFormat="1">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -8543,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="15" customFormat="1">
+    <row r="66" spans="1:5" s="15" customFormat="1">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -8560,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="15" customFormat="1">
+    <row r="67" spans="1:5" s="15" customFormat="1">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -8577,197 +9252,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="15">
+    <row r="68" spans="1:5" s="15" customFormat="1">
+      <c r="A68" s="80">
         <v>67</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="80">
+        <v>1034</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="80">
+        <v>1</v>
+      </c>
+      <c r="E68" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="15" customFormat="1">
+      <c r="A69" s="80">
+        <v>68</v>
+      </c>
+      <c r="B69" s="80">
+        <v>1034</v>
+      </c>
+      <c r="C69" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="80">
+        <v>10</v>
+      </c>
+      <c r="E69" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="15" customFormat="1">
+      <c r="A70" s="80">
+        <v>69</v>
+      </c>
+      <c r="B70" s="80">
+        <f>B68+1</f>
+        <v>1035</v>
+      </c>
+      <c r="C70" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="80">
+        <v>5</v>
+      </c>
+      <c r="E70" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="15" customFormat="1">
+      <c r="A71" s="80">
+        <v>70</v>
+      </c>
+      <c r="B71" s="80">
+        <f t="shared" ref="B71:B81" si="1">B69+1</f>
+        <v>1035</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="80">
+        <v>10</v>
+      </c>
+      <c r="E71" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="15" customFormat="1">
+      <c r="A72" s="80">
+        <v>71</v>
+      </c>
+      <c r="B72" s="80">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="C72" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="80">
+        <v>10</v>
+      </c>
+      <c r="E72" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="15" customFormat="1">
+      <c r="A73" s="80">
+        <v>72</v>
+      </c>
+      <c r="B73" s="80">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="C73" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="80">
+        <v>20</v>
+      </c>
+      <c r="E73" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="15" customFormat="1">
+      <c r="A74" s="80">
+        <v>73</v>
+      </c>
+      <c r="B74" s="80">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="80">
+        <v>30</v>
+      </c>
+      <c r="E74" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="15" customFormat="1">
+      <c r="A75" s="80">
+        <v>74</v>
+      </c>
+      <c r="B75" s="80">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="C75" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="80">
+        <v>20</v>
+      </c>
+      <c r="E75" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="15" customFormat="1">
+      <c r="A76" s="80">
+        <v>75</v>
+      </c>
+      <c r="B76" s="80">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="80">
+        <v>60</v>
+      </c>
+      <c r="E76" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="15" customFormat="1">
+      <c r="A77" s="80">
+        <v>76</v>
+      </c>
+      <c r="B77" s="80">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="C77" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="80">
+        <v>30</v>
+      </c>
+      <c r="E77" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="15" customFormat="1">
+      <c r="A78" s="80">
+        <v>77</v>
+      </c>
+      <c r="B78" s="80">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="80">
+        <v>150</v>
+      </c>
+      <c r="E78" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="15" customFormat="1">
+      <c r="A79" s="80">
+        <v>78</v>
+      </c>
+      <c r="B79" s="80">
+        <f t="shared" si="1"/>
+        <v>1039</v>
+      </c>
+      <c r="C79" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="80">
+        <v>30</v>
+      </c>
+      <c r="E79" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="15" customFormat="1">
+      <c r="A80" s="80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="80">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="80">
+        <v>300</v>
+      </c>
+      <c r="E80" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="15" customFormat="1">
+      <c r="A81" s="80">
+        <v>80</v>
+      </c>
+      <c r="B81" s="80">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="C81" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="80">
+        <v>50</v>
+      </c>
+      <c r="E81" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="80">
+        <v>81</v>
+      </c>
+      <c r="B82" s="21">
         <v>2001</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D82" s="21">
         <v>5000</v>
       </c>
-      <c r="E68" s="21">
-        <v>1</v>
-      </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="15">
-        <v>68</v>
-      </c>
-      <c r="B69" s="21">
+      <c r="E82" s="21">
+        <v>1</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="80">
+        <v>82</v>
+      </c>
+      <c r="B83" s="21">
         <v>2001</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C83" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D83" s="21">
         <v>2</v>
       </c>
-      <c r="E69" s="21">
-        <v>1</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="15">
-        <v>69</v>
-      </c>
-      <c r="B70" s="21">
+      <c r="E83" s="21">
+        <v>1</v>
+      </c>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="80">
+        <v>83</v>
+      </c>
+      <c r="B84" s="21">
         <v>2002</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D84" s="21">
         <v>10000</v>
       </c>
-      <c r="E70" s="21">
-        <v>1</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="15">
-        <v>70</v>
-      </c>
-      <c r="B71" s="21">
+      <c r="E84" s="21">
+        <v>1</v>
+      </c>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="80">
+        <v>84</v>
+      </c>
+      <c r="B85" s="21">
         <v>2002</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C85" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="21">
-        <v>1</v>
-      </c>
-      <c r="E71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="15">
-        <v>71</v>
-      </c>
-      <c r="B72" s="21">
+      <c r="D85" s="21">
+        <v>1</v>
+      </c>
+      <c r="E85" s="21">
+        <v>1</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="80">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21">
         <v>2003</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C86" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D86" s="21">
         <v>10000</v>
       </c>
-      <c r="E72" s="21">
-        <v>1</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="15">
-        <v>72</v>
-      </c>
-      <c r="B73" s="21">
+      <c r="E86" s="21">
+        <v>1</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="80">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21">
         <v>2003</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C87" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D87" s="21">
         <v>10000</v>
       </c>
-      <c r="E73" s="21">
-        <v>1</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="15">
-        <v>73</v>
-      </c>
-      <c r="B74" s="21">
+      <c r="E87" s="21">
+        <v>1</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="80">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21">
         <v>2004</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C88" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D88" s="21">
         <v>10000</v>
       </c>
-      <c r="E74" s="21">
-        <v>1</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="15">
-        <v>74</v>
-      </c>
-      <c r="B75" s="21">
+      <c r="E88" s="21">
+        <v>1</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="80">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21">
         <v>2004</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C89" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D89" s="21">
         <v>10000</v>
       </c>
-      <c r="E75" s="21">
-        <v>1</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="15">
-        <v>75</v>
-      </c>
-      <c r="B76" s="21">
+      <c r="E89" s="21">
+        <v>1</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="80">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21">
         <v>2005</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C90" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D90" s="21">
         <v>60000</v>
       </c>
-      <c r="E76" s="21">
-        <v>1</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="E90" s="21">
+        <v>1</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="80">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21">
+        <v>2006</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="21">
+        <v>5000</v>
+      </c>
+      <c r="E91" s="21">
+        <v>1</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="80">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92" s="21">
+        <v>1</v>
+      </c>
+      <c r="E92" s="21">
+        <v>1</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="80">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E93" s="21">
+        <v>1</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="80">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D94" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E94" s="21">
+        <v>1</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="80">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E95" s="21">
+        <v>1</v>
+      </c>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="80">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E96" s="21">
+        <v>1</v>
+      </c>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="80">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E97" s="21">
+        <v>1</v>
+      </c>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="80">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="21">
+        <v>50000</v>
+      </c>
+      <c r="E98" s="21">
+        <v>1</v>
+      </c>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C76"/>
+  <autoFilter ref="C1:C90"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1073,10 +1073,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2006,2007,2008,2009,2010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1141,14 +1137,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>500000</t>
   </si>
   <si>
@@ -1162,6 +1150,18 @@
   </si>
   <si>
     <t>10000000</t>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3564,7 +3564,7 @@
       <c r="D43" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="46" t="s">
         <v>246</v>
       </c>
       <c r="F43" s="46" t="s">
@@ -3598,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="46" t="s">
-        <v>270</v>
-      </c>
       <c r="E44" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>15</v>
@@ -3637,13 +3637,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>15</v>
@@ -3676,13 +3676,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F46" s="46" t="s">
         <v>15</v>
@@ -3715,13 +3715,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F47" s="46" t="s">
         <v>15</v>
@@ -3754,13 +3754,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>15</v>
@@ -3793,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F49" s="46" t="s">
         <v>15</v>
@@ -3832,13 +3832,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F50" s="46" t="s">
         <v>15</v>
@@ -3877,7 +3877,7 @@
         <v>34</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>15</v>
@@ -3916,7 +3916,7 @@
         <v>34</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>15</v>
@@ -5780,7 +5780,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F46" s="47">
         <v>1036</v>
@@ -5802,7 +5802,7 @@
         <v>36</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F47" s="47">
         <v>1037</v>
@@ -5824,7 +5824,7 @@
         <v>36</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F48" s="47">
         <v>1038</v>
@@ -5846,7 +5846,7 @@
         <v>36</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F49" s="47">
         <v>1039</v>
@@ -5868,7 +5868,7 @@
         <v>36</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F50" s="47">
         <v>1040</v>
@@ -5913,7 +5913,7 @@
         <v>41</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G52" s="53" t="s">
         <v>40</v>
@@ -8016,8 +8016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C81" activeCellId="6" sqref="C69:D69 C71:D71 C73:D73 C75:D75 C77:D77 C79:D79 C81:D81"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9699,7 +9699,7 @@
         <v>2006</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="21">
         <v>5000</v>
@@ -9720,7 +9720,7 @@
         <v>2007</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="21">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>2007</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="21">
         <v>10000</v>
@@ -9762,7 +9762,7 @@
         <v>2008</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="21">
         <v>10000</v>
@@ -9783,7 +9783,7 @@
         <v>2008</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="21">
         <v>10000</v>
@@ -9804,7 +9804,7 @@
         <v>2009</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="21">
         <v>20000</v>
@@ -9825,7 +9825,7 @@
         <v>2009</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="21">
         <v>20000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4672,9 +4672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="51" spans="1:8" s="29" customFormat="1">
       <c r="A51" s="55">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="43">
         <v>13000</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="52" spans="1:8" s="29" customFormat="1">
       <c r="A52" s="55">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="43">
         <v>13001</v>
@@ -8016,7 +8016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4672,7 +4672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A39" sqref="A39:A52"/>
     </sheetView>
@@ -6424,7 +6424,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A48" sqref="A48:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7562,7 +7562,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7842,7 +7842,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1">
-      <c r="A16" s="15">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="15">
@@ -7861,7 +7861,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="29" customFormat="1">
-      <c r="A17" s="15">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="15">
@@ -7880,7 +7880,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1">
-      <c r="A18" s="21">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="24">
@@ -7898,7 +7898,7 @@
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1">
-      <c r="A19" s="21">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="21">
@@ -7916,7 +7916,7 @@
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:7" s="29" customFormat="1">
-      <c r="A20" s="21">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="15">
@@ -7934,7 +7934,7 @@
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="29" customFormat="1">
-      <c r="A21" s="21">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="15">
@@ -7952,7 +7952,7 @@
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="29" customFormat="1">
-      <c r="A22" s="21">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="15">
@@ -7970,7 +7970,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="29" customFormat="1">
-      <c r="A23" s="21">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="15">
@@ -7989,8 +7989,8 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21">
-        <v>24</v>
+      <c r="A24" s="6">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1023</v>
@@ -8017,7 +8017,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="A68" sqref="A68:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="288">
   <si>
     <t>id|任务id</t>
   </si>
@@ -969,10 +969,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_5_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_1_2_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1029,6 +1025,133 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>p_task_fish_daily_1_2_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_task_fish_daily_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006,2007,2008,2009,2010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hammer_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金200万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>p_task_fish_daily_5</t>
     </r>
@@ -1045,122 +1168,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_1_2_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p_task_fish_daily_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006,2007,2008,2009,2010</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_hammer_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计赢金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金10万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金50万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金1000万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金500万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包场累计赢金100万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl_cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cpl_cjj</t>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1374,7 +1390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,9 +1615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2239,7 +2252,7 @@
         <v>188</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>15</v>
@@ -2512,7 +2525,7 @@
         <v>226</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>115</v>
@@ -2668,7 +2681,7 @@
         <v>112</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>115</v>
@@ -2746,7 +2759,7 @@
         <v>171</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>15</v>
@@ -2785,7 +2798,7 @@
         <v>168</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>15</v>
@@ -2824,7 +2837,7 @@
         <v>169</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>15</v>
@@ -2863,7 +2876,7 @@
         <v>177</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F25" s="71" t="s">
         <v>15</v>
@@ -2980,7 +2993,7 @@
         <v>184</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>15</v>
@@ -3097,7 +3110,7 @@
         <v>189</v>
       </c>
       <c r="E31" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>15</v>
@@ -3214,7 +3227,7 @@
         <v>220</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>15</v>
@@ -3253,7 +3266,7 @@
         <v>191</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>15</v>
@@ -3291,8 +3304,8 @@
       <c r="D36" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="67" t="s">
-        <v>241</v>
+      <c r="E36" s="68" t="s">
+        <v>283</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>15</v>
@@ -3409,7 +3422,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3448,7 +3461,7 @@
         <v>228</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3565,7 +3578,7 @@
         <v>232</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3598,13 +3611,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>15</v>
@@ -3637,13 +3650,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="46" t="s">
-        <v>270</v>
-      </c>
       <c r="E45" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>15</v>
@@ -3676,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F46" s="46" t="s">
         <v>15</v>
@@ -3715,13 +3728,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F47" s="46" t="s">
         <v>15</v>
@@ -3754,13 +3767,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>15</v>
@@ -3793,13 +3806,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F49" s="46" t="s">
         <v>15</v>
@@ -3832,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F50" s="46" t="s">
         <v>15</v>
@@ -3877,7 +3890,7 @@
         <v>34</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>15</v>
@@ -3916,7 +3929,7 @@
         <v>34</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>15</v>
@@ -4674,7 +4687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A52"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5780,7 +5793,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F46" s="47">
         <v>1036</v>
@@ -5802,7 +5815,7 @@
         <v>36</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F47" s="47">
         <v>1037</v>
@@ -5824,7 +5837,7 @@
         <v>36</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F48" s="47">
         <v>1038</v>
@@ -5846,7 +5859,7 @@
         <v>36</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" s="47">
         <v>1039</v>
@@ -5868,7 +5881,7 @@
         <v>36</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F50" s="47">
         <v>1040</v>
@@ -5913,7 +5926,7 @@
         <v>41</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G52" s="53" t="s">
         <v>40</v>
@@ -8016,8 +8029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A98"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9276,8 +9289,8 @@
       <c r="B69" s="80">
         <v>1034</v>
       </c>
-      <c r="C69" s="82" t="s">
-        <v>123</v>
+      <c r="C69" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="D69" s="80">
         <v>10</v>
@@ -9312,8 +9325,8 @@
         <f t="shared" ref="B71:B81" si="1">B69+1</f>
         <v>1035</v>
       </c>
-      <c r="C71" s="82" t="s">
-        <v>123</v>
+      <c r="C71" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="D71" s="80">
         <v>10</v>
@@ -9348,8 +9361,8 @@
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
-      <c r="C73" s="82" t="s">
-        <v>123</v>
+      <c r="C73" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="D73" s="80">
         <v>20</v>
@@ -9384,8 +9397,8 @@
         <f t="shared" si="1"/>
         <v>1037</v>
       </c>
-      <c r="C75" s="82" t="s">
-        <v>123</v>
+      <c r="C75" s="81" t="s">
+        <v>286</v>
       </c>
       <c r="D75" s="80">
         <v>20</v>
@@ -9420,8 +9433,8 @@
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
-      <c r="C77" s="82" t="s">
-        <v>123</v>
+      <c r="C77" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="D77" s="80">
         <v>30</v>
@@ -9456,8 +9469,8 @@
         <f t="shared" si="1"/>
         <v>1039</v>
       </c>
-      <c r="C79" s="82" t="s">
-        <v>123</v>
+      <c r="C79" s="81" t="s">
+        <v>287</v>
       </c>
       <c r="D79" s="80">
         <v>30</v>
@@ -9492,8 +9505,8 @@
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="C81" s="82" t="s">
-        <v>123</v>
+      <c r="C81" s="81" t="s">
+        <v>285</v>
       </c>
       <c r="D81" s="80">
         <v>50</v>
@@ -9699,7 +9712,7 @@
         <v>2006</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="21">
         <v>5000</v>
@@ -9720,7 +9733,7 @@
         <v>2007</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="21">
         <v>1</v>
@@ -9741,7 +9754,7 @@
         <v>2007</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="21">
         <v>10000</v>
@@ -9762,7 +9775,7 @@
         <v>2008</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="21">
         <v>10000</v>
@@ -9783,7 +9796,7 @@
         <v>2008</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="21">
         <v>10000</v>
@@ -9804,7 +9817,7 @@
         <v>2009</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="21">
         <v>20000</v>
@@ -9825,7 +9838,7 @@
         <v>2009</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D97" s="21">
         <v>20000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1177,6 +1177,10 @@
   </si>
   <si>
     <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1895,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD50"/>
     </sheetView>
   </sheetViews>
@@ -4687,7 +4691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD50"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="A44:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6436,8 +6440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7470,10 +7474,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8029,8 +8033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -4689,9 +4689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="A44:E50"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5753,7 +5753,7 @@
         <v>36</v>
       </c>
       <c r="E44" s="47">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F44" s="47">
         <v>1034</v>
@@ -5775,7 +5775,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="47">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F45" s="47">
         <v>1035</v>
@@ -6440,7 +6440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:C79"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="303">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1117,18 +1117,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
     <t>10000000</t>
   </si>
   <si>
@@ -1181,6 +1169,75 @@
   </si>
   <si>
     <t>jykp_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金500万</t>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1000万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,6 +1411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1394,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1619,6 +1682,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD50"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3270,7 +3339,7 @@
         <v>191</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F35" s="68" t="s">
         <v>15</v>
@@ -3309,7 +3378,7 @@
         <v>219</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F36" s="68" t="s">
         <v>15</v>
@@ -3582,7 +3651,7 @@
         <v>232</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3621,13 +3690,13 @@
         <v>267</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="46">
-        <v>12560</v>
+        <v>12600</v>
       </c>
       <c r="H44" s="46" t="b">
         <v>1</v>
@@ -3660,13 +3729,13 @@
         <v>268</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="46">
-        <v>12561</v>
+        <v>12601</v>
       </c>
       <c r="H45" s="46" t="b">
         <v>1</v>
@@ -3699,13 +3768,13 @@
         <v>269</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F46" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="46">
-        <v>12562</v>
+        <v>12602</v>
       </c>
       <c r="H46" s="46" t="b">
         <v>1</v>
@@ -3738,13 +3807,13 @@
         <v>273</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F47" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="46">
-        <v>12563</v>
+        <v>12603</v>
       </c>
       <c r="H47" s="46" t="b">
         <v>1</v>
@@ -3777,13 +3846,13 @@
         <v>272</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="46">
-        <v>12564</v>
+        <v>12604</v>
       </c>
       <c r="H48" s="46" t="b">
         <v>1</v>
@@ -3816,13 +3885,13 @@
         <v>271</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F49" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="46">
-        <v>12565</v>
+        <v>12605</v>
       </c>
       <c r="H49" s="46" t="b">
         <v>1</v>
@@ -3855,13 +3924,13 @@
         <v>270</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F50" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="46">
-        <v>12566</v>
+        <v>12606</v>
       </c>
       <c r="H50" s="46" t="b">
         <v>1</v>
@@ -3880,104 +3949,356 @@
       </c>
       <c r="M50" s="46"/>
     </row>
-    <row r="51" spans="1:13" s="15" customFormat="1">
-      <c r="A51" s="42">
+    <row r="51" spans="1:13" s="83" customFormat="1">
+      <c r="A51" s="46">
+        <v>12607</v>
+      </c>
+      <c r="B51" s="82">
+        <v>1</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="46">
+        <v>12607</v>
+      </c>
+      <c r="H51" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="82">
+        <v>1</v>
+      </c>
+      <c r="J51" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K51" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L51" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="82"/>
+    </row>
+    <row r="52" spans="1:13" s="83" customFormat="1">
+      <c r="A52" s="46">
+        <v>12608</v>
+      </c>
+      <c r="B52" s="82">
+        <v>1</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="46">
+        <v>12608</v>
+      </c>
+      <c r="H52" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="82">
+        <v>1</v>
+      </c>
+      <c r="J52" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K52" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L52" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="82"/>
+    </row>
+    <row r="53" spans="1:13" s="83" customFormat="1">
+      <c r="A53" s="46">
+        <v>12609</v>
+      </c>
+      <c r="B53" s="82">
+        <v>1</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="46">
+        <v>12609</v>
+      </c>
+      <c r="H53" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="82">
+        <v>1</v>
+      </c>
+      <c r="J53" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K53" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L53" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="82"/>
+    </row>
+    <row r="54" spans="1:13" s="83" customFormat="1">
+      <c r="A54" s="46">
+        <v>12610</v>
+      </c>
+      <c r="B54" s="82">
+        <v>1</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F54" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="46">
+        <v>12610</v>
+      </c>
+      <c r="H54" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="82">
+        <v>1</v>
+      </c>
+      <c r="J54" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K54" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L54" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="82"/>
+    </row>
+    <row r="55" spans="1:13" s="83" customFormat="1">
+      <c r="A55" s="46">
+        <v>12611</v>
+      </c>
+      <c r="B55" s="82">
+        <v>1</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F55" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="46">
+        <v>12611</v>
+      </c>
+      <c r="H55" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="82">
+        <v>1</v>
+      </c>
+      <c r="J55" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K55" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L55" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="82"/>
+    </row>
+    <row r="56" spans="1:13" s="83" customFormat="1">
+      <c r="A56" s="46">
+        <v>12612</v>
+      </c>
+      <c r="B56" s="82">
+        <v>1</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F56" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="46">
+        <v>12612</v>
+      </c>
+      <c r="H56" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="82">
+        <v>1</v>
+      </c>
+      <c r="J56" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K56" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L56" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="82"/>
+    </row>
+    <row r="57" spans="1:13" s="83" customFormat="1">
+      <c r="A57" s="46">
+        <v>12613</v>
+      </c>
+      <c r="B57" s="82">
+        <v>1</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="46">
+        <v>12613</v>
+      </c>
+      <c r="H57" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="82">
+        <v>1</v>
+      </c>
+      <c r="J57" s="82">
+        <v>946656000</v>
+      </c>
+      <c r="K57" s="82">
+        <v>32503651200</v>
+      </c>
+      <c r="L57" s="82">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="82"/>
+    </row>
+    <row r="58" spans="1:13" s="15" customFormat="1">
+      <c r="A58" s="42">
         <v>13000</v>
       </c>
-      <c r="B51" s="42">
-        <v>1</v>
-      </c>
-      <c r="C51" s="43" t="s">
+      <c r="B58" s="42">
+        <v>1</v>
+      </c>
+      <c r="C58" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D58" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="42" t="s">
+      <c r="E58" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="42">
+      <c r="G58" s="42">
         <v>13000</v>
       </c>
-      <c r="H51" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="42">
-        <v>1</v>
-      </c>
-      <c r="J51" s="42">
+      <c r="H58" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="42">
+        <v>1</v>
+      </c>
+      <c r="J58" s="42">
         <v>946656000</v>
       </c>
-      <c r="K51" s="42">
+      <c r="K58" s="42">
         <v>32503651200</v>
       </c>
-      <c r="L51" s="42">
+      <c r="L58" s="42">
         <v>-1</v>
       </c>
-      <c r="M51" s="42"/>
-    </row>
-    <row r="52" spans="1:13" s="15" customFormat="1">
-      <c r="A52" s="42">
+      <c r="M58" s="42"/>
+    </row>
+    <row r="59" spans="1:13" s="15" customFormat="1">
+      <c r="A59" s="42">
         <v>13001</v>
       </c>
-      <c r="B52" s="42">
-        <v>1</v>
-      </c>
-      <c r="C52" s="43" t="s">
+      <c r="B59" s="42">
+        <v>1</v>
+      </c>
+      <c r="C59" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D59" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="F52" s="42" t="s">
+      <c r="E59" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G59" s="42">
         <v>13001</v>
       </c>
-      <c r="H52" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="42">
-        <v>1</v>
-      </c>
-      <c r="J52" s="42">
+      <c r="H59" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="42">
+        <v>1</v>
+      </c>
+      <c r="J59" s="42">
         <v>946656000</v>
       </c>
-      <c r="K52" s="42">
+      <c r="K59" s="42">
         <v>32503651200</v>
       </c>
-      <c r="L52" s="42">
+      <c r="L59" s="42">
         <v>-1</v>
       </c>
-      <c r="M52" s="42"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="G59" s="1"/>
+      <c r="M59" s="42"/>
     </row>
     <row r="60" spans="1:13">
       <c r="G60" s="1"/>
@@ -3994,78 +4315,64 @@
     <row r="64" spans="1:13">
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="7:7">
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="7:7">
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="7:7">
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="7:7">
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="7:7">
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="3:7">
+    <row r="70" spans="7:7">
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="3:7">
+    <row r="71" spans="7:7">
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="3:7">
+    <row r="72" spans="7:7">
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="7:7">
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="7:7">
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="3:7">
+    <row r="75" spans="7:7">
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="7:7">
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="3:7">
+    <row r="77" spans="7:7">
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+    <row r="78" spans="7:7">
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+    <row r="79" spans="7:7">
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+    <row r="80" spans="7:7">
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="3:7">
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="3:7">
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="3:7">
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="3:7">
@@ -4677,6 +4984,41 @@
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="3:7">
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="3:7">
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="3:7">
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="3:7">
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="3:7">
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="3:7">
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="3:7">
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="G213" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4687,11 +5029,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5746,14 +6088,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="47">
-        <v>12560</v>
+        <v>12600</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55">
         <v>36</v>
       </c>
       <c r="E44" s="47">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F44" s="47">
         <v>1034</v>
@@ -5761,21 +6103,23 @@
       <c r="G44" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="47"/>
+      <c r="H44" s="46" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="45" spans="1:8" s="50" customFormat="1">
       <c r="A45" s="55">
         <v>44</v>
       </c>
       <c r="B45" s="47">
-        <v>12561</v>
+        <v>12601</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55">
         <v>36</v>
       </c>
       <c r="E45" s="47">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F45" s="47">
         <v>1035</v>
@@ -5783,21 +6127,23 @@
       <c r="G45" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="47"/>
+      <c r="H45" s="46" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="46" spans="1:8" s="50" customFormat="1">
       <c r="A46" s="55">
         <v>45</v>
       </c>
       <c r="B46" s="47">
-        <v>12562</v>
+        <v>12602</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55">
         <v>36</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>274</v>
+      <c r="E46" s="47">
+        <v>100000</v>
       </c>
       <c r="F46" s="47">
         <v>1036</v>
@@ -5805,21 +6151,23 @@
       <c r="G46" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="47"/>
+      <c r="H46" s="46" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="47" spans="1:8" s="50" customFormat="1">
       <c r="A47" s="55">
         <v>46</v>
       </c>
       <c r="B47" s="47">
-        <v>12563</v>
+        <v>12603</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55">
         <v>36</v>
       </c>
-      <c r="E47" s="47" t="s">
-        <v>275</v>
+      <c r="E47" s="47">
+        <v>500000</v>
       </c>
       <c r="F47" s="47">
         <v>1037</v>
@@ -5827,21 +6175,23 @@
       <c r="G47" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="47"/>
+      <c r="H47" s="46" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48" spans="1:8" s="50" customFormat="1">
       <c r="A48" s="55">
         <v>47</v>
       </c>
       <c r="B48" s="47">
-        <v>12564</v>
+        <v>12604</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55">
         <v>36</v>
       </c>
-      <c r="E48" s="47" t="s">
-        <v>276</v>
+      <c r="E48" s="47">
+        <v>1000000</v>
       </c>
       <c r="F48" s="47">
         <v>1038</v>
@@ -5849,21 +6199,23 @@
       <c r="G48" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="47"/>
+      <c r="H48" s="46" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="49" spans="1:8" s="50" customFormat="1">
       <c r="A49" s="55">
         <v>48</v>
       </c>
       <c r="B49" s="47">
-        <v>12565</v>
+        <v>12605</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55">
         <v>36</v>
       </c>
-      <c r="E49" s="47" t="s">
-        <v>277</v>
+      <c r="E49" s="47">
+        <v>5000000</v>
       </c>
       <c r="F49" s="47">
         <v>1039</v>
@@ -5871,21 +6223,23 @@
       <c r="G49" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="47"/>
+      <c r="H49" s="46" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="50" spans="1:8" s="50" customFormat="1">
       <c r="A50" s="55">
         <v>49</v>
       </c>
       <c r="B50" s="47">
-        <v>12566</v>
+        <v>12606</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55">
         <v>36</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F50" s="47">
         <v>1040</v>
@@ -5893,84 +6247,231 @@
       <c r="G50" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="47"/>
-    </row>
-    <row r="51" spans="1:8" s="29" customFormat="1">
+      <c r="H50" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="50" customFormat="1">
       <c r="A51" s="55">
         <v>50</v>
       </c>
-      <c r="B51" s="43">
-        <v>13000</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" s="53" t="s">
+      <c r="B51" s="47">
+        <v>12607</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55">
+        <v>37</v>
+      </c>
+      <c r="E51" s="47">
+        <v>10000</v>
+      </c>
+      <c r="F51" s="47">
+        <v>1041</v>
+      </c>
+      <c r="G51" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="58" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="29" customFormat="1">
+      <c r="H51" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="50" customFormat="1">
       <c r="A52" s="55">
         <v>51</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="47">
+        <v>12608</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55">
+        <v>37</v>
+      </c>
+      <c r="E52" s="47">
+        <v>50000</v>
+      </c>
+      <c r="F52" s="47">
+        <v>1042</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="50" customFormat="1">
+      <c r="A53" s="55">
+        <v>52</v>
+      </c>
+      <c r="B53" s="47">
+        <v>12609</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55">
+        <v>37</v>
+      </c>
+      <c r="E53" s="47">
+        <v>100000</v>
+      </c>
+      <c r="F53" s="47">
+        <v>1043</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="50" customFormat="1">
+      <c r="A54" s="55">
+        <v>53</v>
+      </c>
+      <c r="B54" s="47">
+        <v>12610</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55">
+        <v>37</v>
+      </c>
+      <c r="E54" s="47">
+        <v>500000</v>
+      </c>
+      <c r="F54" s="47">
+        <v>1044</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="50" customFormat="1">
+      <c r="A55" s="55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="47">
+        <v>12611</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55">
+        <v>37</v>
+      </c>
+      <c r="E55" s="47">
+        <v>1000000</v>
+      </c>
+      <c r="F55" s="47">
+        <v>1045</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="50" customFormat="1">
+      <c r="A56" s="55">
+        <v>55</v>
+      </c>
+      <c r="B56" s="47">
+        <v>12612</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55">
+        <v>37</v>
+      </c>
+      <c r="E56" s="47">
+        <v>5000000</v>
+      </c>
+      <c r="F56" s="47">
+        <v>1046</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="50" customFormat="1">
+      <c r="A57" s="55">
+        <v>56</v>
+      </c>
+      <c r="B57" s="47">
+        <v>12613</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55">
+        <v>37</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="47">
+        <v>1047</v>
+      </c>
+      <c r="G57" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="29" customFormat="1">
+      <c r="A58" s="55">
+        <v>57</v>
+      </c>
+      <c r="B58" s="43">
+        <v>13000</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="29" customFormat="1">
+      <c r="A59" s="55">
+        <v>58</v>
+      </c>
+      <c r="B59" s="43">
         <v>13001</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="56" t="s">
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="79" t="s">
+      <c r="F59" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="G52" s="53" t="s">
+      <c r="G59" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H52" s="58" t="s">
+      <c r="H59" s="58" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="F54" s="6"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="F59" s="6"/>
-      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:8">
       <c r="F61" s="6"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8">
       <c r="F62" s="6"/>
-      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8">
       <c r="F63" s="6"/>
@@ -5983,20 +6484,20 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="6"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="6:8">
       <c r="F67" s="6"/>
-      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="6:8">
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="6:8">
       <c r="F69" s="6"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="6:8">
       <c r="F70" s="6"/>
-      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="6:8">
       <c r="F71" s="6"/>
@@ -6009,20 +6510,20 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" s="6"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="6:8">
       <c r="F75" s="6"/>
-      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="6:8">
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="6:8">
       <c r="F77" s="6"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="6:8">
       <c r="F78" s="6"/>
-      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="6:8">
       <c r="F79" s="6"/>
@@ -6035,20 +6536,20 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" s="6"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="6"/>
-      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8">
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="6"/>
+      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="6"/>
-      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="6"/>
@@ -6061,20 +6562,20 @@
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="6"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="6:8">
       <c r="F91" s="6"/>
-      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8">
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="6:8">
       <c r="F93" s="6"/>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="6:8">
       <c r="F94" s="6"/>
-      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="6:8">
       <c r="F95" s="6"/>
@@ -6087,20 +6588,20 @@
     </row>
     <row r="98" spans="6:8">
       <c r="F98" s="6"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="6:8">
       <c r="F99" s="6"/>
-      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8">
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="6:8">
       <c r="F101" s="6"/>
+      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="6:8">
       <c r="F102" s="6"/>
-      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="6:8">
       <c r="F103" s="6"/>
@@ -6120,10 +6621,10 @@
     </row>
     <row r="108" spans="6:8">
       <c r="F108" s="6"/>
-      <c r="H108" s="1"/>
     </row>
     <row r="109" spans="6:8">
       <c r="F109" s="6"/>
+      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="6:8">
       <c r="F110" s="6"/>
@@ -6143,10 +6644,10 @@
     </row>
     <row r="115" spans="6:8">
       <c r="F115" s="6"/>
+      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="6:8">
       <c r="F116" s="6"/>
-      <c r="H116" s="1"/>
     </row>
     <row r="117" spans="6:8">
       <c r="F117" s="6"/>
@@ -6159,15 +6660,13 @@
     </row>
     <row r="120" spans="6:8">
       <c r="F120" s="6"/>
-      <c r="H120" s="1"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="6:8">
       <c r="F121" s="6"/>
-      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="6:8">
       <c r="F122" s="6"/>
-      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="6:8">
       <c r="F123" s="6"/>
@@ -6175,15 +6674,12 @@
     </row>
     <row r="124" spans="6:8">
       <c r="F124" s="6"/>
-      <c r="H124" s="1"/>
     </row>
     <row r="125" spans="6:8">
       <c r="F125" s="6"/>
-      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="6:8">
       <c r="F126" s="6"/>
-      <c r="H126" s="1"/>
     </row>
     <row r="127" spans="6:8">
       <c r="F127" s="6"/>
@@ -6428,6 +6924,34 @@
     <row r="187" spans="6:8">
       <c r="F187" s="6"/>
       <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="6:8">
+      <c r="F188" s="6"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="6:8">
+      <c r="F189" s="6"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="6:8">
+      <c r="F190" s="6"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="6:8">
+      <c r="F191" s="6"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="6:8">
+      <c r="F192" s="6"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="6:8">
+      <c r="F193" s="6"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="6:8">
+      <c r="F194" s="6"/>
+      <c r="H194" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6438,10 +6962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:C79"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7477,7 +8001,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -7491,7 +8015,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -7502,10 +8026,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D75" s="35">
         <v>0</v>
@@ -7516,10 +8040,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D76" s="35">
         <v>0</v>
@@ -7530,10 +8054,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" s="35">
         <v>0</v>
@@ -7544,10 +8068,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="35">
         <v>0</v>
@@ -7558,12 +8082,26 @@
         <v>78</v>
       </c>
       <c r="B79" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="24">
+        <v>79</v>
+      </c>
+      <c r="B80" s="33">
+        <v>37</v>
+      </c>
+      <c r="C80" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D80" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8031,10 +8569,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9277,10 +9815,10 @@
         <v>1034</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="D68" s="80">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E68" s="80">
         <v>1</v>
@@ -9294,10 +9832,10 @@
         <v>1034</v>
       </c>
       <c r="C69" s="81" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D69" s="80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E69" s="80">
         <v>1</v>
@@ -9312,10 +9850,10 @@
         <v>1035</v>
       </c>
       <c r="C70" s="81" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="D70" s="80">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="80">
         <v>1</v>
@@ -9326,14 +9864,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="80">
-        <f t="shared" ref="B71:B81" si="1">B69+1</f>
+        <f t="shared" ref="B71:B95" si="1">B69+1</f>
         <v>1035</v>
       </c>
       <c r="C71" s="81" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D71" s="80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E71" s="80">
         <v>1</v>
@@ -9348,10 +9886,10 @@
         <v>1036</v>
       </c>
       <c r="C72" s="81" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="D72" s="80">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="E72" s="80">
         <v>1</v>
@@ -9366,10 +9904,10 @@
         <v>1036</v>
       </c>
       <c r="C73" s="81" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D73" s="80">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73" s="80">
         <v>1</v>
@@ -9384,10 +9922,10 @@
         <v>1037</v>
       </c>
       <c r="C74" s="81" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="D74" s="80">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="E74" s="80">
         <v>1</v>
@@ -9402,10 +9940,10 @@
         <v>1037</v>
       </c>
       <c r="C75" s="81" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D75" s="80">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E75" s="80">
         <v>1</v>
@@ -9420,10 +9958,10 @@
         <v>1038</v>
       </c>
       <c r="C76" s="81" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="D76" s="80">
-        <v>60</v>
+        <v>20000</v>
       </c>
       <c r="E76" s="80">
         <v>1</v>
@@ -9438,10 +9976,10 @@
         <v>1038</v>
       </c>
       <c r="C77" s="81" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D77" s="80">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E77" s="80">
         <v>1</v>
@@ -9456,10 +9994,10 @@
         <v>1039</v>
       </c>
       <c r="C78" s="81" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="D78" s="80">
-        <v>150</v>
+        <v>100000</v>
       </c>
       <c r="E78" s="80">
         <v>1</v>
@@ -9474,10 +10012,10 @@
         <v>1039</v>
       </c>
       <c r="C79" s="81" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D79" s="80">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E79" s="80">
         <v>1</v>
@@ -9492,10 +10030,10 @@
         <v>1040</v>
       </c>
       <c r="C80" s="81" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="D80" s="80">
-        <v>300</v>
+        <v>200000</v>
       </c>
       <c r="E80" s="80">
         <v>1</v>
@@ -9510,321 +10048,279 @@
         <v>1040</v>
       </c>
       <c r="C81" s="81" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D81" s="80">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E81" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" s="15" customFormat="1">
       <c r="A82" s="80">
         <v>81</v>
       </c>
-      <c r="B82" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E82" s="21">
-        <v>1</v>
-      </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="B82" s="80">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="80">
+        <v>200</v>
+      </c>
+      <c r="E82" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="15" customFormat="1">
       <c r="A83" s="80">
         <v>82</v>
       </c>
-      <c r="B83" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="21">
-        <v>2</v>
-      </c>
-      <c r="E83" s="21">
-        <v>1</v>
-      </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="B83" s="80">
+        <f t="shared" si="1"/>
+        <v>1041</v>
+      </c>
+      <c r="C83" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="80">
+        <v>5</v>
+      </c>
+      <c r="E83" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="15" customFormat="1">
       <c r="A84" s="80">
         <v>83</v>
       </c>
-      <c r="B84" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E84" s="21">
-        <v>1</v>
-      </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="B84" s="80">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="C84" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="80">
+        <v>1000</v>
+      </c>
+      <c r="E84" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="15" customFormat="1">
       <c r="A85" s="80">
         <v>84</v>
       </c>
-      <c r="B85" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="21">
-        <v>1</v>
-      </c>
-      <c r="E85" s="21">
-        <v>1</v>
-      </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="B85" s="80">
+        <f t="shared" si="1"/>
+        <v>1042</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="80">
+        <v>5</v>
+      </c>
+      <c r="E85" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="15" customFormat="1">
       <c r="A86" s="80">
         <v>85</v>
       </c>
-      <c r="B86" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E86" s="21">
-        <v>1</v>
-      </c>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="B86" s="80">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="80">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="15" customFormat="1">
       <c r="A87" s="80">
         <v>86</v>
       </c>
-      <c r="B87" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E87" s="21">
-        <v>1</v>
-      </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="B87" s="80">
+        <f t="shared" si="1"/>
+        <v>1043</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87" s="80">
+        <v>10</v>
+      </c>
+      <c r="E87" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="15" customFormat="1">
       <c r="A88" s="80">
         <v>87</v>
       </c>
-      <c r="B88" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="21">
+      <c r="B88" s="80">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="80">
         <v>10000</v>
       </c>
-      <c r="E88" s="21">
-        <v>1</v>
-      </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="E88" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="15" customFormat="1">
       <c r="A89" s="80">
         <v>88</v>
       </c>
-      <c r="B89" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E89" s="21">
-        <v>1</v>
-      </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="B89" s="80">
+        <f t="shared" si="1"/>
+        <v>1044</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" s="80">
+        <v>10</v>
+      </c>
+      <c r="E89" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="15" customFormat="1">
       <c r="A90" s="80">
         <v>89</v>
       </c>
-      <c r="B90" s="21">
-        <v>2005</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" s="21">
-        <v>60000</v>
-      </c>
-      <c r="E90" s="21">
-        <v>1</v>
-      </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="B90" s="80">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="80">
+        <v>20000</v>
+      </c>
+      <c r="E90" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="15" customFormat="1">
       <c r="A91" s="80">
         <v>90</v>
       </c>
-      <c r="B91" s="21">
-        <v>2006</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E91" s="21">
-        <v>1</v>
-      </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="B91" s="80">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="C91" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="80">
+        <v>10</v>
+      </c>
+      <c r="E91" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="15" customFormat="1">
       <c r="A92" s="80">
         <v>91</v>
       </c>
-      <c r="B92" s="21">
-        <v>2007</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D92" s="21">
-        <v>1</v>
-      </c>
-      <c r="E92" s="21">
-        <v>1</v>
-      </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="B92" s="80">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="C92" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="80">
+        <v>100000</v>
+      </c>
+      <c r="E92" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="15" customFormat="1">
       <c r="A93" s="80">
         <v>92</v>
       </c>
-      <c r="B93" s="21">
-        <v>2007</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E93" s="21">
-        <v>1</v>
-      </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="B93" s="80">
+        <f t="shared" si="1"/>
+        <v>1046</v>
+      </c>
+      <c r="C93" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="80">
+        <v>20</v>
+      </c>
+      <c r="E93" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="15" customFormat="1">
       <c r="A94" s="80">
         <v>93</v>
       </c>
-      <c r="B94" s="21">
-        <v>2008</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E94" s="21">
-        <v>1</v>
-      </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="B94" s="80">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="C94" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="80">
+        <v>200000</v>
+      </c>
+      <c r="E94" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="15" customFormat="1">
       <c r="A95" s="80">
         <v>94</v>
       </c>
-      <c r="B95" s="21">
-        <v>2008</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" s="21">
-        <v>10000</v>
-      </c>
-      <c r="E95" s="21">
-        <v>1</v>
-      </c>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
+      <c r="B95" s="80">
+        <f t="shared" si="1"/>
+        <v>1047</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="80">
+        <v>30</v>
+      </c>
+      <c r="E95" s="80">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="80">
         <v>95</v>
       </c>
       <c r="B96" s="21">
-        <v>2009</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>260</v>
+        <v>2001</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="D96" s="21">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E96" s="21">
         <v>1</v>
@@ -9839,13 +10335,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="21">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="D97" s="21">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="E97" s="21">
         <v>1</v>
@@ -9860,13 +10356,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="21">
-        <v>2010</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>161</v>
+        <v>2002</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="D98" s="21">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E98" s="21">
         <v>1</v>
@@ -9876,8 +10372,302 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="80">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21">
+        <v>2002</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="21">
+        <v>1</v>
+      </c>
+      <c r="E99" s="21">
+        <v>1</v>
+      </c>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="80">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21">
+        <v>2003</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="21">
+        <v>1</v>
+      </c>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="80">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21">
+        <v>2003</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="21">
+        <v>1</v>
+      </c>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="80">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21">
+        <v>2004</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E102" s="21">
+        <v>1</v>
+      </c>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="80">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21">
+        <v>2004</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E103" s="21">
+        <v>1</v>
+      </c>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="80">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21">
+        <v>2005</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="21">
+        <v>60000</v>
+      </c>
+      <c r="E104" s="21">
+        <v>1</v>
+      </c>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="80">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21">
+        <v>2006</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="21">
+        <v>5000</v>
+      </c>
+      <c r="E105" s="21">
+        <v>1</v>
+      </c>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="80">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="21">
+        <v>1</v>
+      </c>
+      <c r="E106" s="21">
+        <v>1</v>
+      </c>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="80">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E107" s="21">
+        <v>1</v>
+      </c>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="80">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E108" s="21">
+        <v>1</v>
+      </c>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="80">
+        <v>108</v>
+      </c>
+      <c r="B109" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E109" s="21">
+        <v>1</v>
+      </c>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="80">
+        <v>109</v>
+      </c>
+      <c r="B110" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E110" s="21">
+        <v>1</v>
+      </c>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="80">
+        <v>110</v>
+      </c>
+      <c r="B111" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D111" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E111" s="21">
+        <v>1</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="80">
+        <v>111</v>
+      </c>
+      <c r="B112" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="21">
+        <v>50000</v>
+      </c>
+      <c r="E112" s="21">
+        <v>1</v>
+      </c>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C90"/>
+  <autoFilter ref="C1:C104"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="318">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1309,6 +1309,22 @@
   </si>
   <si>
     <t>xxl_lucky_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30,30,30,30,30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1534,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1784,6 +1800,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2064,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5106,9 +5125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6526,8 +6545,8 @@
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
-      <c r="E59" s="56" t="s">
-        <v>41</v>
+      <c r="E59" s="91" t="s">
+        <v>317</v>
       </c>
       <c r="F59" s="79" t="s">
         <v>258</v>
@@ -8834,7 +8853,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D80" activeCellId="6" sqref="D68 D70 D72 D74 D76 D78 D80"/>
+      <selection activeCell="D81" activeCellId="6" sqref="D69 D71 D73 D75 D77 D79 D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>nor</t>
-  </si>
-  <si>
-    <t>30,30,30,30,30</t>
   </si>
   <si>
     <t>id</t>
@@ -1313,7 +1310,7 @@
   </si>
   <si>
     <r>
-      <t>30,30,30,30,30</t>
+      <t>30,30,30,30,</t>
     </r>
     <r>
       <rPr>
@@ -1323,8 +1320,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,30</t>
+      <t>100</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,30,30,30,1000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1550,7 +1561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,9 +1710,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2151,1450 +2159,1450 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="64" customFormat="1">
-      <c r="A2" s="62">
+    <row r="2" spans="1:13" s="63" customFormat="1">
+      <c r="A2" s="61">
         <v>12501</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="61">
+        <v>12501</v>
+      </c>
+      <c r="H2" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="61">
+        <v>1</v>
+      </c>
+      <c r="J2" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K2" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L2" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="63" customFormat="1">
+      <c r="A3" s="61">
+        <v>12502</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="61">
+        <v>12502</v>
+      </c>
+      <c r="H3" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="61">
+        <v>1</v>
+      </c>
+      <c r="J3" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K3" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L3" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" spans="1:13" s="63" customFormat="1">
+      <c r="A4" s="61">
+        <v>12503</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="63" t="s">
+      <c r="D4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="62">
-        <v>12501</v>
-      </c>
-      <c r="H2" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="62">
-        <v>1</v>
-      </c>
-      <c r="J2" s="62">
+      <c r="G4" s="61">
+        <v>12503</v>
+      </c>
+      <c r="H4" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="61">
+        <v>1</v>
+      </c>
+      <c r="J4" s="61">
         <v>946656000</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K4" s="61">
         <v>32503651200</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L4" s="61">
         <v>-1</v>
       </c>
-      <c r="M2" s="62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="64" customFormat="1">
-      <c r="A3" s="62">
-        <v>12502</v>
-      </c>
-      <c r="B3" s="62">
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="1:13" s="63" customFormat="1">
+      <c r="A5" s="61">
+        <v>12504</v>
+      </c>
+      <c r="B5" s="61">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C5" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="61">
+        <v>12504</v>
+      </c>
+      <c r="H5" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K5" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L5" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="1:13" s="63" customFormat="1">
+      <c r="A6" s="61">
+        <v>12505</v>
+      </c>
+      <c r="B6" s="61">
+        <v>0</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="61">
+        <v>12505</v>
+      </c>
+      <c r="H6" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="61">
+        <v>1</v>
+      </c>
+      <c r="J6" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K6" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L6" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="1:13" s="63" customFormat="1">
+      <c r="A7" s="61">
+        <v>12506</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="61">
+        <v>12506</v>
+      </c>
+      <c r="H7" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="61">
+        <v>1</v>
+      </c>
+      <c r="J7" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K7" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L7" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" s="63" customFormat="1">
+      <c r="A8" s="61">
+        <v>12507</v>
+      </c>
+      <c r="B8" s="61">
+        <v>0</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="61">
+        <v>12507</v>
+      </c>
+      <c r="H8" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="61">
+        <v>1</v>
+      </c>
+      <c r="J8" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K8" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L8" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" s="48" customFormat="1">
+      <c r="A9" s="72">
+        <v>12508</v>
+      </c>
+      <c r="B9" s="72">
+        <v>1</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="72">
+        <v>12508</v>
+      </c>
+      <c r="H9" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="72">
+        <v>1</v>
+      </c>
+      <c r="J9" s="72">
+        <v>946656000</v>
+      </c>
+      <c r="K9" s="72">
+        <v>32503651200</v>
+      </c>
+      <c r="L9" s="72">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="72"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1">
+      <c r="A10" s="61">
+        <v>12509</v>
+      </c>
+      <c r="B10" s="61">
+        <v>0</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="61">
+        <v>12509</v>
+      </c>
+      <c r="H10" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="61">
+        <v>1</v>
+      </c>
+      <c r="J10" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K10" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L10" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1">
+      <c r="A11" s="61">
+        <v>12510</v>
+      </c>
+      <c r="B11" s="61">
+        <v>0</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="61">
+        <v>12510</v>
+      </c>
+      <c r="H11" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="61">
+        <v>1</v>
+      </c>
+      <c r="J11" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K11" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L11" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="1:13" s="74" customFormat="1">
+      <c r="A12" s="73">
+        <v>12511</v>
+      </c>
+      <c r="B12" s="73">
+        <v>1</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="73">
+        <v>12511</v>
+      </c>
+      <c r="H12" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="73">
+        <v>1</v>
+      </c>
+      <c r="J12" s="73">
+        <v>946656000</v>
+      </c>
+      <c r="K12" s="73">
+        <v>32503651200</v>
+      </c>
+      <c r="L12" s="73">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" s="60" customFormat="1">
+      <c r="A13" s="58">
+        <v>12512</v>
+      </c>
+      <c r="B13" s="58">
+        <v>1</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="58">
+        <v>12512</v>
+      </c>
+      <c r="H13" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="58">
+        <v>1</v>
+      </c>
+      <c r="J13" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K13" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L13" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="1:13" s="63" customFormat="1">
+      <c r="A14" s="61">
+        <v>12513</v>
+      </c>
+      <c r="B14" s="61">
+        <v>0</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="61">
+        <v>12513</v>
+      </c>
+      <c r="H14" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="61">
+        <v>1</v>
+      </c>
+      <c r="J14" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K14" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L14" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="1:13" s="63" customFormat="1">
+      <c r="A15" s="61">
+        <v>12514</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="61">
+        <v>12514</v>
+      </c>
+      <c r="H15" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="61">
+        <v>1</v>
+      </c>
+      <c r="J15" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K15" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L15" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="61"/>
+    </row>
+    <row r="16" spans="1:13" s="63" customFormat="1">
+      <c r="A16" s="61">
+        <v>12515</v>
+      </c>
+      <c r="B16" s="61">
+        <v>0</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="61">
+        <v>12515</v>
+      </c>
+      <c r="H16" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="61">
+        <v>1</v>
+      </c>
+      <c r="J16" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K16" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L16" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="1:13" s="60" customFormat="1">
+      <c r="A17" s="58">
+        <v>12516</v>
+      </c>
+      <c r="B17" s="58">
+        <v>1</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="58">
+        <v>12516</v>
+      </c>
+      <c r="H17" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58">
+        <v>1</v>
+      </c>
+      <c r="J17" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K17" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L17" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13" s="74" customFormat="1">
+      <c r="A18" s="73">
+        <v>12517</v>
+      </c>
+      <c r="B18" s="73">
+        <v>1</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="73">
+        <v>12517</v>
+      </c>
+      <c r="H18" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="73">
+        <v>1</v>
+      </c>
+      <c r="J18" s="73">
+        <v>946656000</v>
+      </c>
+      <c r="K18" s="73">
+        <v>32503651200</v>
+      </c>
+      <c r="L18" s="73">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="73"/>
+    </row>
+    <row r="19" spans="1:13" s="63" customFormat="1">
+      <c r="A19" s="61">
+        <v>12518</v>
+      </c>
+      <c r="B19" s="61">
+        <v>0</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="61">
+        <v>12518</v>
+      </c>
+      <c r="H19" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="61">
+        <v>1</v>
+      </c>
+      <c r="J19" s="61">
+        <v>946656000</v>
+      </c>
+      <c r="K19" s="61">
+        <v>32503651200</v>
+      </c>
+      <c r="L19" s="61">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="61"/>
+    </row>
+    <row r="20" spans="1:13" s="60" customFormat="1">
+      <c r="A20" s="58">
+        <v>12519</v>
+      </c>
+      <c r="B20" s="58">
+        <v>1</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="58">
+        <v>12519</v>
+      </c>
+      <c r="H20" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="58">
+        <v>1</v>
+      </c>
+      <c r="J20" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K20" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L20" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="1:13" s="60" customFormat="1">
+      <c r="A21" s="58">
+        <v>12520</v>
+      </c>
+      <c r="B21" s="58">
+        <v>1</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="62" t="s">
+      <c r="D21" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="62">
-        <v>12502</v>
-      </c>
-      <c r="H3" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="62">
-        <v>1</v>
-      </c>
-      <c r="J3" s="62">
+      <c r="G21" s="58">
+        <v>12520</v>
+      </c>
+      <c r="H21" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="58">
+        <v>1</v>
+      </c>
+      <c r="J21" s="58">
         <v>946656000</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K21" s="58">
         <v>32503651200</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L21" s="58">
         <v>-1</v>
       </c>
-      <c r="M3" s="62"/>
-    </row>
-    <row r="4" spans="1:13" s="64" customFormat="1">
-      <c r="A4" s="62">
-        <v>12503</v>
-      </c>
-      <c r="B4" s="62">
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" spans="1:13" s="60" customFormat="1">
+      <c r="A22" s="58">
+        <v>12521</v>
+      </c>
+      <c r="B22" s="58">
+        <v>1</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="58">
+        <v>12521</v>
+      </c>
+      <c r="H22" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="58">
+        <v>1</v>
+      </c>
+      <c r="J22" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K22" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L22" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="1:13" s="60" customFormat="1">
+      <c r="A23" s="58">
+        <v>12522</v>
+      </c>
+      <c r="B23" s="58">
+        <v>1</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="58">
+        <v>12522</v>
+      </c>
+      <c r="H23" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="58">
+        <v>1</v>
+      </c>
+      <c r="J23" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K23" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L23" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="1:13" s="60" customFormat="1">
+      <c r="A24" s="58">
+        <v>12523</v>
+      </c>
+      <c r="B24" s="58">
+        <v>1</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="58">
+        <v>12523</v>
+      </c>
+      <c r="H24" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="58">
+        <v>1</v>
+      </c>
+      <c r="J24" s="58">
+        <v>946656000</v>
+      </c>
+      <c r="K24" s="58">
+        <v>32503651200</v>
+      </c>
+      <c r="L24" s="58">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" spans="1:13" s="71" customFormat="1">
+      <c r="A25" s="69">
+        <v>12524</v>
+      </c>
+      <c r="B25" s="69">
+        <v>1</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="69">
+        <v>12524</v>
+      </c>
+      <c r="H25" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="70">
+        <v>1</v>
+      </c>
+      <c r="J25" s="70">
+        <v>946656000</v>
+      </c>
+      <c r="K25" s="70">
+        <v>32503651200</v>
+      </c>
+      <c r="L25" s="70">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:13" s="71" customFormat="1">
+      <c r="A26" s="69">
+        <v>12525</v>
+      </c>
+      <c r="B26" s="69">
+        <v>1</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="69">
+        <v>12525</v>
+      </c>
+      <c r="H26" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="70">
+        <v>1</v>
+      </c>
+      <c r="J26" s="70">
+        <v>946656000</v>
+      </c>
+      <c r="K26" s="70">
+        <v>32503651200</v>
+      </c>
+      <c r="L26" s="70">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="69"/>
+    </row>
+    <row r="27" spans="1:13" s="48" customFormat="1">
+      <c r="A27" s="72">
+        <v>12526</v>
+      </c>
+      <c r="B27" s="72">
+        <v>1</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="72">
+        <v>12526</v>
+      </c>
+      <c r="H27" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="75">
+        <v>1</v>
+      </c>
+      <c r="J27" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K27" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L27" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:13" s="48" customFormat="1">
+      <c r="A28" s="72">
+        <v>12527</v>
+      </c>
+      <c r="B28" s="72">
+        <v>1</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="72">
+        <v>12527</v>
+      </c>
+      <c r="H28" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75">
+        <v>1</v>
+      </c>
+      <c r="J28" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K28" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L28" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="1:13" s="48" customFormat="1">
+      <c r="A29" s="72">
+        <v>12528</v>
+      </c>
+      <c r="B29" s="72">
+        <v>1</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="72">
+        <v>12528</v>
+      </c>
+      <c r="H29" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75">
+        <v>1</v>
+      </c>
+      <c r="J29" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K29" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L29" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:13" s="48" customFormat="1">
+      <c r="A30" s="72">
+        <v>12529</v>
+      </c>
+      <c r="B30" s="72">
+        <v>1</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="72">
+        <v>12529</v>
+      </c>
+      <c r="H30" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="75">
+        <v>1</v>
+      </c>
+      <c r="J30" s="75">
+        <v>946656000</v>
+      </c>
+      <c r="K30" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="L30" s="75">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="1:13" s="74" customFormat="1">
+      <c r="A31" s="73">
+        <v>12530</v>
+      </c>
+      <c r="B31" s="73">
+        <v>1</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="73">
+        <v>12530</v>
+      </c>
+      <c r="H31" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
+      <c r="J31" s="76">
+        <v>946656000</v>
+      </c>
+      <c r="K31" s="76">
+        <v>32503651200</v>
+      </c>
+      <c r="L31" s="76">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="73"/>
+    </row>
+    <row r="32" spans="1:13" s="74" customFormat="1">
+      <c r="A32" s="73">
+        <v>12531</v>
+      </c>
+      <c r="B32" s="73">
+        <v>1</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="73">
+        <v>12531</v>
+      </c>
+      <c r="H32" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="76">
+        <v>1</v>
+      </c>
+      <c r="J32" s="76">
+        <v>946656000</v>
+      </c>
+      <c r="K32" s="76">
+        <v>32503651200</v>
+      </c>
+      <c r="L32" s="76">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="73"/>
+    </row>
+    <row r="33" spans="1:13" s="74" customFormat="1">
+      <c r="A33" s="73">
+        <v>12532</v>
+      </c>
+      <c r="B33" s="73">
+        <v>1</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="73">
+        <v>12532</v>
+      </c>
+      <c r="H33" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="76">
+        <v>1</v>
+      </c>
+      <c r="J33" s="76">
+        <v>946656000</v>
+      </c>
+      <c r="K33" s="76">
+        <v>32503651200</v>
+      </c>
+      <c r="L33" s="76">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="73"/>
+    </row>
+    <row r="34" spans="1:13" s="77" customFormat="1">
+      <c r="A34" s="65">
+        <v>12533</v>
+      </c>
+      <c r="B34" s="65">
         <v>0</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="62" t="s">
+      <c r="C34" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="62">
-        <v>12503</v>
-      </c>
-      <c r="H4" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="62">
-        <v>1</v>
-      </c>
-      <c r="J4" s="62">
+      <c r="G34" s="65">
+        <v>12533</v>
+      </c>
+      <c r="H34" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="64">
+        <v>1</v>
+      </c>
+      <c r="J34" s="64">
         <v>946656000</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K34" s="64">
         <v>32503651200</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L34" s="64">
         <v>-1</v>
       </c>
-      <c r="M4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" s="64" customFormat="1">
-      <c r="A5" s="62">
-        <v>12504</v>
-      </c>
-      <c r="B5" s="62">
-        <v>0</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="M34" s="65"/>
+    </row>
+    <row r="35" spans="1:13" s="68" customFormat="1">
+      <c r="A35" s="66">
+        <v>12534</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="62">
-        <v>12504</v>
-      </c>
-      <c r="H5" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="62">
-        <v>1</v>
-      </c>
-      <c r="J5" s="62">
+      <c r="G35" s="66">
+        <v>12534</v>
+      </c>
+      <c r="H35" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="67">
+        <v>1</v>
+      </c>
+      <c r="J35" s="67">
         <v>946656000</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K35" s="67">
         <v>32503651200</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L35" s="67">
         <v>-1</v>
       </c>
-      <c r="M5" s="62"/>
-    </row>
-    <row r="6" spans="1:13" s="64" customFormat="1">
-      <c r="A6" s="62">
-        <v>12505</v>
-      </c>
-      <c r="B6" s="62">
-        <v>0</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="62" t="s">
+      <c r="M35" s="66"/>
+    </row>
+    <row r="36" spans="1:13" s="68" customFormat="1">
+      <c r="A36" s="66">
+        <v>12535</v>
+      </c>
+      <c r="B36" s="66">
+        <v>1</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="62">
-        <v>12505</v>
-      </c>
-      <c r="H6" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="62">
-        <v>1</v>
-      </c>
-      <c r="J6" s="62">
+      <c r="G36" s="66">
+        <v>12535</v>
+      </c>
+      <c r="H36" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="67">
+        <v>1</v>
+      </c>
+      <c r="J36" s="67">
         <v>946656000</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K36" s="67">
         <v>32503651200</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L36" s="67">
         <v>-1</v>
       </c>
-      <c r="M6" s="62"/>
-    </row>
-    <row r="7" spans="1:13" s="64" customFormat="1">
-      <c r="A7" s="62">
-        <v>12506</v>
-      </c>
-      <c r="B7" s="62">
-        <v>0</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="62" t="s">
+      <c r="M36" s="66"/>
+    </row>
+    <row r="37" spans="1:13" s="68" customFormat="1">
+      <c r="A37" s="66">
+        <v>12536</v>
+      </c>
+      <c r="B37" s="66">
+        <v>1</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="62">
-        <v>12506</v>
-      </c>
-      <c r="H7" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="62">
-        <v>1</v>
-      </c>
-      <c r="J7" s="62">
+      <c r="G37" s="66">
+        <v>12536</v>
+      </c>
+      <c r="H37" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="67">
+        <v>1</v>
+      </c>
+      <c r="J37" s="67">
         <v>946656000</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K37" s="67">
         <v>32503651200</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L37" s="67">
         <v>-1</v>
       </c>
-      <c r="M7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" s="64" customFormat="1">
-      <c r="A8" s="62">
-        <v>12507</v>
-      </c>
-      <c r="B8" s="62">
-        <v>0</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="62">
-        <v>12507</v>
-      </c>
-      <c r="H8" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="62">
-        <v>1</v>
-      </c>
-      <c r="J8" s="62">
+      <c r="M37" s="66"/>
+    </row>
+    <row r="38" spans="1:13" s="68" customFormat="1">
+      <c r="A38" s="66">
+        <v>12537</v>
+      </c>
+      <c r="B38" s="66">
+        <v>1</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="66">
+        <v>12537</v>
+      </c>
+      <c r="H38" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="66">
+        <v>1</v>
+      </c>
+      <c r="J38" s="66">
         <v>946656000</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K38" s="66">
         <v>32503651200</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L38" s="66">
         <v>-1</v>
       </c>
-      <c r="M8" s="62"/>
-    </row>
-    <row r="9" spans="1:13" s="48" customFormat="1">
-      <c r="A9" s="73">
-        <v>12508</v>
-      </c>
-      <c r="B9" s="73">
-        <v>1</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="73">
-        <v>12508</v>
-      </c>
-      <c r="H9" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="73">
-        <v>1</v>
-      </c>
-      <c r="J9" s="73">
-        <v>946656000</v>
-      </c>
-      <c r="K9" s="73">
-        <v>32503651200</v>
-      </c>
-      <c r="L9" s="73">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="73"/>
-    </row>
-    <row r="10" spans="1:13" s="64" customFormat="1">
-      <c r="A10" s="62">
-        <v>12509</v>
-      </c>
-      <c r="B10" s="62">
-        <v>0</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="62">
-        <v>12509</v>
-      </c>
-      <c r="H10" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="62">
-        <v>1</v>
-      </c>
-      <c r="J10" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K10" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L10" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" s="64" customFormat="1">
-      <c r="A11" s="62">
-        <v>12510</v>
-      </c>
-      <c r="B11" s="62">
-        <v>0</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="62">
-        <v>12510</v>
-      </c>
-      <c r="H11" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="62">
-        <v>1</v>
-      </c>
-      <c r="J11" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K11" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L11" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" s="75" customFormat="1">
-      <c r="A12" s="74">
-        <v>12511</v>
-      </c>
-      <c r="B12" s="74">
-        <v>1</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="74">
-        <v>12511</v>
-      </c>
-      <c r="H12" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="74">
-        <v>1</v>
-      </c>
-      <c r="J12" s="74">
-        <v>946656000</v>
-      </c>
-      <c r="K12" s="74">
-        <v>32503651200</v>
-      </c>
-      <c r="L12" s="74">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="61" customFormat="1">
-      <c r="A13" s="59">
-        <v>12512</v>
-      </c>
-      <c r="B13" s="59">
-        <v>1</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="59">
-        <v>12512</v>
-      </c>
-      <c r="H13" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="59">
-        <v>1</v>
-      </c>
-      <c r="J13" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K13" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L13" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="59"/>
-    </row>
-    <row r="14" spans="1:13" s="64" customFormat="1">
-      <c r="A14" s="62">
-        <v>12513</v>
-      </c>
-      <c r="B14" s="62">
-        <v>0</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="62">
-        <v>12513</v>
-      </c>
-      <c r="H14" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="62">
-        <v>1</v>
-      </c>
-      <c r="J14" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K14" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L14" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" s="64" customFormat="1">
-      <c r="A15" s="62">
-        <v>12514</v>
-      </c>
-      <c r="B15" s="62">
-        <v>0</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="62">
-        <v>12514</v>
-      </c>
-      <c r="H15" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="62">
-        <v>1</v>
-      </c>
-      <c r="J15" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K15" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L15" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" s="64" customFormat="1">
-      <c r="A16" s="62">
-        <v>12515</v>
-      </c>
-      <c r="B16" s="62">
-        <v>0</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="62">
-        <v>12515</v>
-      </c>
-      <c r="H16" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="62">
-        <v>1</v>
-      </c>
-      <c r="J16" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K16" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L16" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" s="61" customFormat="1">
-      <c r="A17" s="59">
-        <v>12516</v>
-      </c>
-      <c r="B17" s="59">
-        <v>1</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="59">
-        <v>12516</v>
-      </c>
-      <c r="H17" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="59">
-        <v>1</v>
-      </c>
-      <c r="J17" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K17" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L17" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="59"/>
-    </row>
-    <row r="18" spans="1:13" s="75" customFormat="1">
-      <c r="A18" s="74">
-        <v>12517</v>
-      </c>
-      <c r="B18" s="74">
-        <v>1</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G18" s="74">
-        <v>12517</v>
-      </c>
-      <c r="H18" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="74">
-        <v>1</v>
-      </c>
-      <c r="J18" s="74">
-        <v>946656000</v>
-      </c>
-      <c r="K18" s="74">
-        <v>32503651200</v>
-      </c>
-      <c r="L18" s="74">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="74"/>
-    </row>
-    <row r="19" spans="1:13" s="64" customFormat="1">
-      <c r="A19" s="62">
-        <v>12518</v>
-      </c>
-      <c r="B19" s="62">
-        <v>0</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="62">
-        <v>12518</v>
-      </c>
-      <c r="H19" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="62">
-        <v>1</v>
-      </c>
-      <c r="J19" s="62">
-        <v>946656000</v>
-      </c>
-      <c r="K19" s="62">
-        <v>32503651200</v>
-      </c>
-      <c r="L19" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="1:13" s="61" customFormat="1">
-      <c r="A20" s="59">
-        <v>12519</v>
-      </c>
-      <c r="B20" s="59">
-        <v>1</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="59">
-        <v>12519</v>
-      </c>
-      <c r="H20" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="59">
-        <v>1</v>
-      </c>
-      <c r="J20" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K20" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L20" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="59"/>
-    </row>
-    <row r="21" spans="1:13" s="61" customFormat="1">
-      <c r="A21" s="59">
-        <v>12520</v>
-      </c>
-      <c r="B21" s="59">
-        <v>1</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="59">
-        <v>12520</v>
-      </c>
-      <c r="H21" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="59">
-        <v>1</v>
-      </c>
-      <c r="J21" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K21" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L21" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="59"/>
-    </row>
-    <row r="22" spans="1:13" s="61" customFormat="1">
-      <c r="A22" s="59">
-        <v>12521</v>
-      </c>
-      <c r="B22" s="59">
-        <v>1</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="59">
-        <v>12521</v>
-      </c>
-      <c r="H22" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="59">
-        <v>1</v>
-      </c>
-      <c r="J22" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K22" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L22" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M22" s="59"/>
-    </row>
-    <row r="23" spans="1:13" s="61" customFormat="1">
-      <c r="A23" s="59">
-        <v>12522</v>
-      </c>
-      <c r="B23" s="59">
-        <v>1</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="59">
-        <v>12522</v>
-      </c>
-      <c r="H23" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="59">
-        <v>1</v>
-      </c>
-      <c r="J23" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K23" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L23" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="59"/>
-    </row>
-    <row r="24" spans="1:13" s="61" customFormat="1">
-      <c r="A24" s="59">
-        <v>12523</v>
-      </c>
-      <c r="B24" s="59">
-        <v>1</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="59">
-        <v>12523</v>
-      </c>
-      <c r="H24" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="59">
-        <v>1</v>
-      </c>
-      <c r="J24" s="59">
-        <v>946656000</v>
-      </c>
-      <c r="K24" s="59">
-        <v>32503651200</v>
-      </c>
-      <c r="L24" s="59">
-        <v>-1</v>
-      </c>
-      <c r="M24" s="59"/>
-    </row>
-    <row r="25" spans="1:13" s="72" customFormat="1">
-      <c r="A25" s="70">
-        <v>12524</v>
-      </c>
-      <c r="B25" s="70">
-        <v>1</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="70">
-        <v>12524</v>
-      </c>
-      <c r="H25" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="71">
-        <v>1</v>
-      </c>
-      <c r="J25" s="71">
-        <v>946656000</v>
-      </c>
-      <c r="K25" s="71">
-        <v>32503651200</v>
-      </c>
-      <c r="L25" s="71">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="70"/>
-    </row>
-    <row r="26" spans="1:13" s="72" customFormat="1">
-      <c r="A26" s="70">
-        <v>12525</v>
-      </c>
-      <c r="B26" s="70">
-        <v>1</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="70">
-        <v>12525</v>
-      </c>
-      <c r="H26" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="71">
-        <v>1</v>
-      </c>
-      <c r="J26" s="71">
-        <v>946656000</v>
-      </c>
-      <c r="K26" s="71">
-        <v>32503651200</v>
-      </c>
-      <c r="L26" s="71">
-        <v>-1</v>
-      </c>
-      <c r="M26" s="70"/>
-    </row>
-    <row r="27" spans="1:13" s="48" customFormat="1">
-      <c r="A27" s="73">
-        <v>12526</v>
-      </c>
-      <c r="B27" s="73">
-        <v>1</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="73">
-        <v>12526</v>
-      </c>
-      <c r="H27" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="76">
-        <v>1</v>
-      </c>
-      <c r="J27" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K27" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L27" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="73"/>
-    </row>
-    <row r="28" spans="1:13" s="48" customFormat="1">
-      <c r="A28" s="73">
-        <v>12527</v>
-      </c>
-      <c r="B28" s="73">
-        <v>1</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="73">
-        <v>12527</v>
-      </c>
-      <c r="H28" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="76">
-        <v>1</v>
-      </c>
-      <c r="J28" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K28" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L28" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M28" s="73"/>
-    </row>
-    <row r="29" spans="1:13" s="48" customFormat="1">
-      <c r="A29" s="73">
-        <v>12528</v>
-      </c>
-      <c r="B29" s="73">
-        <v>1</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="73">
-        <v>12528</v>
-      </c>
-      <c r="H29" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="76">
-        <v>1</v>
-      </c>
-      <c r="J29" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K29" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L29" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M29" s="73"/>
-    </row>
-    <row r="30" spans="1:13" s="48" customFormat="1">
-      <c r="A30" s="73">
-        <v>12529</v>
-      </c>
-      <c r="B30" s="73">
-        <v>1</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="73">
-        <v>12529</v>
-      </c>
-      <c r="H30" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="76">
-        <v>1</v>
-      </c>
-      <c r="J30" s="76">
-        <v>946656000</v>
-      </c>
-      <c r="K30" s="76">
-        <v>32503651200</v>
-      </c>
-      <c r="L30" s="76">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="73"/>
-    </row>
-    <row r="31" spans="1:13" s="75" customFormat="1">
-      <c r="A31" s="74">
-        <v>12530</v>
-      </c>
-      <c r="B31" s="74">
-        <v>1</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="74">
-        <v>12530</v>
-      </c>
-      <c r="H31" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="77">
-        <v>1</v>
-      </c>
-      <c r="J31" s="77">
-        <v>946656000</v>
-      </c>
-      <c r="K31" s="77">
-        <v>32503651200</v>
-      </c>
-      <c r="L31" s="77">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="74"/>
-    </row>
-    <row r="32" spans="1:13" s="75" customFormat="1">
-      <c r="A32" s="74">
-        <v>12531</v>
-      </c>
-      <c r="B32" s="74">
-        <v>1</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="74">
-        <v>12531</v>
-      </c>
-      <c r="H32" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="77">
-        <v>1</v>
-      </c>
-      <c r="J32" s="77">
-        <v>946656000</v>
-      </c>
-      <c r="K32" s="77">
-        <v>32503651200</v>
-      </c>
-      <c r="L32" s="77">
-        <v>-1</v>
-      </c>
-      <c r="M32" s="74"/>
-    </row>
-    <row r="33" spans="1:13" s="75" customFormat="1">
-      <c r="A33" s="74">
-        <v>12532</v>
-      </c>
-      <c r="B33" s="74">
-        <v>1</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="74">
-        <v>12532</v>
-      </c>
-      <c r="H33" s="77" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="77">
-        <v>1</v>
-      </c>
-      <c r="J33" s="77">
-        <v>946656000</v>
-      </c>
-      <c r="K33" s="77">
-        <v>32503651200</v>
-      </c>
-      <c r="L33" s="77">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="74"/>
-    </row>
-    <row r="34" spans="1:13" s="78" customFormat="1">
-      <c r="A34" s="66">
-        <v>12533</v>
-      </c>
-      <c r="B34" s="66">
-        <v>0</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="66">
-        <v>12533</v>
-      </c>
-      <c r="H34" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="65">
-        <v>1</v>
-      </c>
-      <c r="J34" s="65">
-        <v>946656000</v>
-      </c>
-      <c r="K34" s="65">
-        <v>32503651200</v>
-      </c>
-      <c r="L34" s="65">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="66"/>
-    </row>
-    <row r="35" spans="1:13" s="69" customFormat="1">
-      <c r="A35" s="67">
-        <v>12534</v>
-      </c>
-      <c r="B35" s="67">
-        <v>1</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="67">
-        <v>12534</v>
-      </c>
-      <c r="H35" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="68">
-        <v>1</v>
-      </c>
-      <c r="J35" s="68">
-        <v>946656000</v>
-      </c>
-      <c r="K35" s="68">
-        <v>32503651200</v>
-      </c>
-      <c r="L35" s="68">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="67"/>
-    </row>
-    <row r="36" spans="1:13" s="69" customFormat="1">
-      <c r="A36" s="67">
-        <v>12535</v>
-      </c>
-      <c r="B36" s="67">
-        <v>1</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="67">
-        <v>12535</v>
-      </c>
-      <c r="H36" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="68">
-        <v>1</v>
-      </c>
-      <c r="J36" s="68">
-        <v>946656000</v>
-      </c>
-      <c r="K36" s="68">
-        <v>32503651200</v>
-      </c>
-      <c r="L36" s="68">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="67"/>
-    </row>
-    <row r="37" spans="1:13" s="69" customFormat="1">
-      <c r="A37" s="67">
-        <v>12536</v>
-      </c>
-      <c r="B37" s="67">
-        <v>1</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="67">
-        <v>12536</v>
-      </c>
-      <c r="H37" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="68">
-        <v>1</v>
-      </c>
-      <c r="J37" s="68">
-        <v>946656000</v>
-      </c>
-      <c r="K37" s="68">
-        <v>32503651200</v>
-      </c>
-      <c r="L37" s="68">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="67"/>
-    </row>
-    <row r="38" spans="1:13" s="69" customFormat="1">
-      <c r="A38" s="67">
-        <v>12537</v>
-      </c>
-      <c r="B38" s="67">
-        <v>1</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="67">
-        <v>12537</v>
-      </c>
-      <c r="H38" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="67">
-        <v>1</v>
-      </c>
-      <c r="J38" s="67">
-        <v>946656000</v>
-      </c>
-      <c r="K38" s="67">
-        <v>32503651200</v>
-      </c>
-      <c r="L38" s="67">
-        <v>-1</v>
-      </c>
-      <c r="M38" s="67"/>
+      <c r="M38" s="66"/>
     </row>
     <row r="39" spans="1:13" s="39" customFormat="1">
       <c r="A39" s="46">
@@ -3607,10 +3615,10 @@
         <v>20</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3643,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>228</v>
-      </c>
       <c r="E40" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3682,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>230</v>
-      </c>
       <c r="E41" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>15</v>
@@ -3721,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>15</v>
@@ -3760,13 +3768,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3791,551 +3799,551 @@
       </c>
       <c r="M43" s="46"/>
     </row>
-    <row r="44" spans="1:13" s="85" customFormat="1">
-      <c r="A44" s="84">
+    <row r="44" spans="1:13" s="84" customFormat="1">
+      <c r="A44" s="83">
         <v>12600</v>
       </c>
-      <c r="B44" s="84">
-        <v>1</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F44" s="84" t="s">
+      <c r="B44" s="83">
+        <v>1</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="83">
         <v>12600</v>
       </c>
-      <c r="H44" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="84">
-        <v>1</v>
-      </c>
-      <c r="J44" s="84">
+      <c r="H44" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="83">
+        <v>1</v>
+      </c>
+      <c r="J44" s="83">
         <v>946656000</v>
       </c>
-      <c r="K44" s="84">
+      <c r="K44" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L44" s="84">
+      <c r="L44" s="83">
         <v>-1</v>
       </c>
-      <c r="M44" s="84"/>
-    </row>
-    <row r="45" spans="1:13" s="85" customFormat="1">
-      <c r="A45" s="84">
+      <c r="M44" s="83"/>
+    </row>
+    <row r="45" spans="1:13" s="84" customFormat="1">
+      <c r="A45" s="83">
         <v>12601</v>
       </c>
-      <c r="B45" s="84">
-        <v>1</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="84" t="s">
+      <c r="B45" s="83">
+        <v>1</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="E45" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="83">
+        <v>12601</v>
+      </c>
+      <c r="H45" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="83">
+        <v>1</v>
+      </c>
+      <c r="J45" s="83">
+        <v>946656000</v>
+      </c>
+      <c r="K45" s="83">
+        <v>32503651200</v>
+      </c>
+      <c r="L45" s="83">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="83"/>
+    </row>
+    <row r="46" spans="1:13" s="84" customFormat="1">
+      <c r="A46" s="83">
+        <v>12602</v>
+      </c>
+      <c r="B46" s="83">
+        <v>1</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="83">
+        <v>12602</v>
+      </c>
+      <c r="H46" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="83">
+        <v>1</v>
+      </c>
+      <c r="J46" s="83">
+        <v>946656000</v>
+      </c>
+      <c r="K46" s="83">
+        <v>32503651200</v>
+      </c>
+      <c r="L46" s="83">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="83"/>
+    </row>
+    <row r="47" spans="1:13" s="84" customFormat="1">
+      <c r="A47" s="83">
+        <v>12603</v>
+      </c>
+      <c r="B47" s="83">
+        <v>1</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="E45" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="84" t="s">
+      <c r="E47" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="84">
-        <v>12601</v>
-      </c>
-      <c r="H45" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="84">
-        <v>1</v>
-      </c>
-      <c r="J45" s="84">
+      <c r="G47" s="83">
+        <v>12603</v>
+      </c>
+      <c r="H47" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="83">
+        <v>1</v>
+      </c>
+      <c r="J47" s="83">
         <v>946656000</v>
       </c>
-      <c r="K45" s="84">
+      <c r="K47" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L45" s="84">
+      <c r="L47" s="83">
         <v>-1</v>
       </c>
-      <c r="M45" s="84"/>
-    </row>
-    <row r="46" spans="1:13" s="85" customFormat="1">
-      <c r="A46" s="84">
-        <v>12602</v>
-      </c>
-      <c r="B46" s="84">
-        <v>1</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>299</v>
-      </c>
-      <c r="E46" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F46" s="84" t="s">
+      <c r="M47" s="83"/>
+    </row>
+    <row r="48" spans="1:13" s="84" customFormat="1">
+      <c r="A48" s="83">
+        <v>12604</v>
+      </c>
+      <c r="B48" s="83">
+        <v>1</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="84">
-        <v>12602</v>
-      </c>
-      <c r="H46" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="84">
-        <v>1</v>
-      </c>
-      <c r="J46" s="84">
+      <c r="G48" s="83">
+        <v>12604</v>
+      </c>
+      <c r="H48" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="83">
+        <v>1</v>
+      </c>
+      <c r="J48" s="83">
         <v>946656000</v>
       </c>
-      <c r="K46" s="84">
+      <c r="K48" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L46" s="84">
+      <c r="L48" s="83">
         <v>-1</v>
       </c>
-      <c r="M46" s="84"/>
-    </row>
-    <row r="47" spans="1:13" s="85" customFormat="1">
-      <c r="A47" s="84">
-        <v>12603</v>
-      </c>
-      <c r="B47" s="84">
-        <v>1</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="84" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F47" s="84" t="s">
+      <c r="M48" s="83"/>
+    </row>
+    <row r="49" spans="1:13" s="84" customFormat="1">
+      <c r="A49" s="83">
+        <v>12605</v>
+      </c>
+      <c r="B49" s="83">
+        <v>1</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="84">
-        <v>12603</v>
-      </c>
-      <c r="H47" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="84">
-        <v>1</v>
-      </c>
-      <c r="J47" s="84">
+      <c r="G49" s="83">
+        <v>12605</v>
+      </c>
+      <c r="H49" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="83">
+        <v>1</v>
+      </c>
+      <c r="J49" s="83">
         <v>946656000</v>
       </c>
-      <c r="K47" s="84">
+      <c r="K49" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L47" s="84">
+      <c r="L49" s="83">
         <v>-1</v>
       </c>
-      <c r="M47" s="84"/>
-    </row>
-    <row r="48" spans="1:13" s="85" customFormat="1">
-      <c r="A48" s="84">
-        <v>12604</v>
-      </c>
-      <c r="B48" s="84">
-        <v>1</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="E48" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="84" t="s">
+      <c r="M49" s="83"/>
+    </row>
+    <row r="50" spans="1:13" s="84" customFormat="1">
+      <c r="A50" s="83">
+        <v>12606</v>
+      </c>
+      <c r="B50" s="83">
+        <v>1</v>
+      </c>
+      <c r="C50" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F50" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="84">
-        <v>12604</v>
-      </c>
-      <c r="H48" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="84">
-        <v>1</v>
-      </c>
-      <c r="J48" s="84">
+      <c r="G50" s="83">
+        <v>12606</v>
+      </c>
+      <c r="H50" s="83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="83">
+        <v>1</v>
+      </c>
+      <c r="J50" s="83">
         <v>946656000</v>
       </c>
-      <c r="K48" s="84">
+      <c r="K50" s="83">
         <v>32503651200</v>
       </c>
-      <c r="L48" s="84">
+      <c r="L50" s="83">
         <v>-1</v>
       </c>
-      <c r="M48" s="84"/>
-    </row>
-    <row r="49" spans="1:13" s="85" customFormat="1">
-      <c r="A49" s="84">
-        <v>12605</v>
-      </c>
-      <c r="B49" s="84">
-        <v>1</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F49" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="84">
-        <v>12605</v>
-      </c>
-      <c r="H49" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="84">
-        <v>1</v>
-      </c>
-      <c r="J49" s="84">
-        <v>946656000</v>
-      </c>
-      <c r="K49" s="84">
-        <v>32503651200</v>
-      </c>
-      <c r="L49" s="84">
-        <v>-1</v>
-      </c>
-      <c r="M49" s="84"/>
-    </row>
-    <row r="50" spans="1:13" s="85" customFormat="1">
-      <c r="A50" s="84">
-        <v>12606</v>
-      </c>
-      <c r="B50" s="84">
-        <v>1</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="F50" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="84">
-        <v>12606</v>
-      </c>
-      <c r="H50" s="84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="84">
-        <v>1</v>
-      </c>
-      <c r="J50" s="84">
-        <v>946656000</v>
-      </c>
-      <c r="K50" s="84">
-        <v>32503651200</v>
-      </c>
-      <c r="L50" s="84">
-        <v>-1</v>
-      </c>
-      <c r="M50" s="84"/>
-    </row>
-    <row r="51" spans="1:13" s="83" customFormat="1">
+      <c r="M50" s="83"/>
+    </row>
+    <row r="51" spans="1:13" s="82" customFormat="1">
       <c r="A51" s="46">
         <v>12607</v>
       </c>
-      <c r="B51" s="82">
-        <v>1</v>
-      </c>
-      <c r="C51" s="82" t="s">
+      <c r="B51" s="81">
+        <v>1</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F51" s="82" t="s">
+      <c r="E51" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="46">
         <v>12607</v>
       </c>
-      <c r="H51" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="82">
-        <v>1</v>
-      </c>
-      <c r="J51" s="82">
+      <c r="H51" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="81">
+        <v>1</v>
+      </c>
+      <c r="J51" s="81">
         <v>946656000</v>
       </c>
-      <c r="K51" s="82">
+      <c r="K51" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L51" s="82">
+      <c r="L51" s="81">
         <v>-1</v>
       </c>
-      <c r="M51" s="82"/>
-    </row>
-    <row r="52" spans="1:13" s="83" customFormat="1">
+      <c r="M51" s="81"/>
+    </row>
+    <row r="52" spans="1:13" s="82" customFormat="1">
       <c r="A52" s="46">
         <v>12608</v>
       </c>
-      <c r="B52" s="82">
-        <v>1</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="E52" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F52" s="82" t="s">
+      <c r="B52" s="81">
+        <v>1</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="46">
         <v>12608</v>
       </c>
-      <c r="H52" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="82">
-        <v>1</v>
-      </c>
-      <c r="J52" s="82">
+      <c r="H52" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="81">
+        <v>1</v>
+      </c>
+      <c r="J52" s="81">
         <v>946656000</v>
       </c>
-      <c r="K52" s="82">
+      <c r="K52" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L52" s="82">
+      <c r="L52" s="81">
         <v>-1</v>
       </c>
-      <c r="M52" s="82"/>
-    </row>
-    <row r="53" spans="1:13" s="83" customFormat="1">
+      <c r="M52" s="81"/>
+    </row>
+    <row r="53" spans="1:13" s="82" customFormat="1">
       <c r="A53" s="46">
         <v>12609</v>
       </c>
-      <c r="B53" s="82">
-        <v>1</v>
-      </c>
-      <c r="C53" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>269</v>
-      </c>
-      <c r="E53" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F53" s="82" t="s">
+      <c r="B53" s="81">
+        <v>1</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="46">
         <v>12609</v>
       </c>
-      <c r="H53" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="82">
-        <v>1</v>
-      </c>
-      <c r="J53" s="82">
+      <c r="H53" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="81">
+        <v>1</v>
+      </c>
+      <c r="J53" s="81">
         <v>946656000</v>
       </c>
-      <c r="K53" s="82">
+      <c r="K53" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L53" s="82">
+      <c r="L53" s="81">
         <v>-1</v>
       </c>
-      <c r="M53" s="82"/>
-    </row>
-    <row r="54" spans="1:13" s="83" customFormat="1">
+      <c r="M53" s="81"/>
+    </row>
+    <row r="54" spans="1:13" s="82" customFormat="1">
       <c r="A54" s="46">
         <v>12610</v>
       </c>
-      <c r="B54" s="82">
-        <v>1</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" s="82" t="s">
+      <c r="B54" s="81">
+        <v>1</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="46">
         <v>12610</v>
       </c>
-      <c r="H54" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="82">
-        <v>1</v>
-      </c>
-      <c r="J54" s="82">
+      <c r="H54" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="81">
+        <v>1</v>
+      </c>
+      <c r="J54" s="81">
         <v>946656000</v>
       </c>
-      <c r="K54" s="82">
+      <c r="K54" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L54" s="82">
+      <c r="L54" s="81">
         <v>-1</v>
       </c>
-      <c r="M54" s="82"/>
-    </row>
-    <row r="55" spans="1:13" s="83" customFormat="1">
+      <c r="M54" s="81"/>
+    </row>
+    <row r="55" spans="1:13" s="82" customFormat="1">
       <c r="A55" s="46">
         <v>12611</v>
       </c>
-      <c r="B55" s="82">
-        <v>1</v>
-      </c>
-      <c r="C55" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F55" s="82" t="s">
+      <c r="B55" s="81">
+        <v>1</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="46">
         <v>12611</v>
       </c>
-      <c r="H55" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="82">
-        <v>1</v>
-      </c>
-      <c r="J55" s="82">
+      <c r="H55" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="81">
+        <v>1</v>
+      </c>
+      <c r="J55" s="81">
         <v>946656000</v>
       </c>
-      <c r="K55" s="82">
+      <c r="K55" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L55" s="82">
+      <c r="L55" s="81">
         <v>-1</v>
       </c>
-      <c r="M55" s="82"/>
-    </row>
-    <row r="56" spans="1:13" s="83" customFormat="1">
+      <c r="M55" s="81"/>
+    </row>
+    <row r="56" spans="1:13" s="82" customFormat="1">
       <c r="A56" s="46">
         <v>12612</v>
       </c>
-      <c r="B56" s="82">
-        <v>1</v>
-      </c>
-      <c r="C56" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E56" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F56" s="82" t="s">
+      <c r="B56" s="81">
+        <v>1</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="46">
         <v>12612</v>
       </c>
-      <c r="H56" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="82">
-        <v>1</v>
-      </c>
-      <c r="J56" s="82">
+      <c r="H56" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="81">
+        <v>1</v>
+      </c>
+      <c r="J56" s="81">
         <v>946656000</v>
       </c>
-      <c r="K56" s="82">
+      <c r="K56" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L56" s="82">
+      <c r="L56" s="81">
         <v>-1</v>
       </c>
-      <c r="M56" s="82"/>
-    </row>
-    <row r="57" spans="1:13" s="83" customFormat="1">
+      <c r="M56" s="81"/>
+    </row>
+    <row r="57" spans="1:13" s="82" customFormat="1">
       <c r="A57" s="46">
         <v>12613</v>
       </c>
-      <c r="B57" s="82">
-        <v>1</v>
-      </c>
-      <c r="C57" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="F57" s="82" t="s">
+      <c r="B57" s="81">
+        <v>1</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="46">
         <v>12613</v>
       </c>
-      <c r="H57" s="82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="82">
-        <v>1</v>
-      </c>
-      <c r="J57" s="82">
+      <c r="H57" s="81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="81">
+        <v>1</v>
+      </c>
+      <c r="J57" s="81">
         <v>946656000</v>
       </c>
-      <c r="K57" s="82">
+      <c r="K57" s="81">
         <v>32503651200</v>
       </c>
-      <c r="L57" s="82">
+      <c r="L57" s="81">
         <v>-1</v>
       </c>
-      <c r="M57" s="82"/>
+      <c r="M57" s="81"/>
     </row>
     <row r="58" spans="1:13" s="15" customFormat="1">
       <c r="A58" s="42">
@@ -4351,7 +4359,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>15</v>
@@ -4390,7 +4398,7 @@
         <v>34</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>15</v>
@@ -5151,7 +5159,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>36</v>
@@ -5166,7 +5174,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -5455,7 +5463,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="25" customFormat="1">
@@ -5479,7 +5487,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="25" customFormat="1">
@@ -5503,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="25" customFormat="1">
@@ -5527,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="29" customFormat="1">
@@ -5551,7 +5559,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="36" customFormat="1">
@@ -5575,7 +5583,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="25" customFormat="1">
@@ -5599,7 +5607,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1">
@@ -5623,7 +5631,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1">
@@ -5647,7 +5655,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1">
@@ -5671,7 +5679,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="29" customFormat="1">
@@ -5695,7 +5703,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="29" customFormat="1">
@@ -5719,7 +5727,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1">
@@ -5743,7 +5751,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1">
@@ -5767,7 +5775,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="38" customFormat="1">
@@ -5791,7 +5799,7 @@
         <v>40</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1">
@@ -5815,7 +5823,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="38" customFormat="1">
@@ -5839,7 +5847,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="38" customFormat="1">
@@ -5863,7 +5871,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="38" customFormat="1">
@@ -5887,7 +5895,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="38" customFormat="1">
@@ -5911,7 +5919,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="38" customFormat="1">
@@ -5935,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="38" customFormat="1">
@@ -5959,7 +5967,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1">
@@ -5983,7 +5991,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="38" customFormat="1">
@@ -6007,7 +6015,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="38" customFormat="1">
@@ -6031,7 +6039,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="36" customFormat="1">
@@ -6055,7 +6063,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="49" customFormat="1">
@@ -6079,7 +6087,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="49" customFormat="1">
@@ -6103,7 +6111,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="50" customFormat="1">
@@ -6127,7 +6135,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="50" customFormat="1">
@@ -6151,7 +6159,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="50" customFormat="1">
@@ -6175,175 +6183,175 @@
         <v>40</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="89" customFormat="1">
-      <c r="A44" s="87">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="88" customFormat="1">
+      <c r="A44" s="86">
         <v>43</v>
       </c>
-      <c r="B44" s="88">
+      <c r="B44" s="87">
         <v>12600</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="87">
+      <c r="C44" s="89"/>
+      <c r="D44" s="86">
         <v>36</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <v>50</v>
       </c>
-      <c r="F44" s="88">
+      <c r="F44" s="87">
         <v>1034</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="84" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="89" customFormat="1">
-      <c r="A45" s="87">
+      <c r="H44" s="83" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="88" customFormat="1">
+      <c r="A45" s="86">
         <v>44</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="87">
         <v>12601</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87">
+      <c r="C45" s="86"/>
+      <c r="D45" s="86">
         <v>38</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <v>200</v>
       </c>
-      <c r="F45" s="88">
+      <c r="F45" s="87">
         <v>1035</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G45" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="84" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="89" customFormat="1">
-      <c r="A46" s="87">
+      <c r="H45" s="83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="88" customFormat="1">
+      <c r="A46" s="86">
         <v>45</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="87">
         <v>12602</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87">
+      <c r="C46" s="86"/>
+      <c r="D46" s="86">
         <v>39</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <v>200</v>
       </c>
-      <c r="F46" s="88">
+      <c r="F46" s="87">
         <v>1036</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="84" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="89" customFormat="1">
-      <c r="A47" s="87">
+      <c r="H46" s="83" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="88" customFormat="1">
+      <c r="A47" s="86">
         <v>46</v>
       </c>
-      <c r="B47" s="88">
+      <c r="B47" s="87">
         <v>12603</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87">
+      <c r="C47" s="86"/>
+      <c r="D47" s="86">
         <v>40</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <v>200</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="87">
         <v>1037</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="84" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="89" customFormat="1">
-      <c r="A48" s="87">
+      <c r="H47" s="83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="88" customFormat="1">
+      <c r="A48" s="86">
         <v>47</v>
       </c>
-      <c r="B48" s="88">
+      <c r="B48" s="87">
         <v>12604</v>
       </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87">
+      <c r="C48" s="86"/>
+      <c r="D48" s="86">
         <v>41</v>
       </c>
-      <c r="E48" s="88">
+      <c r="E48" s="87">
         <v>100</v>
       </c>
-      <c r="F48" s="88">
+      <c r="F48" s="87">
         <v>1038</v>
       </c>
-      <c r="G48" s="87" t="s">
+      <c r="G48" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="84" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="89" customFormat="1">
-      <c r="A49" s="87">
+      <c r="H48" s="83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="88" customFormat="1">
+      <c r="A49" s="86">
         <v>48</v>
       </c>
-      <c r="B49" s="88">
+      <c r="B49" s="87">
         <v>12605</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87">
+      <c r="C49" s="86"/>
+      <c r="D49" s="86">
         <v>42</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <v>1000000</v>
       </c>
-      <c r="F49" s="88">
+      <c r="F49" s="87">
         <v>1039</v>
       </c>
-      <c r="G49" s="87" t="s">
+      <c r="G49" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="84" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="89" customFormat="1">
-      <c r="A50" s="87">
+      <c r="H49" s="83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="88" customFormat="1">
+      <c r="A50" s="86">
         <v>49</v>
       </c>
-      <c r="B50" s="88">
+      <c r="B50" s="87">
         <v>12606</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87">
+      <c r="C50" s="86"/>
+      <c r="D50" s="86">
         <v>43</v>
       </c>
-      <c r="E50" s="88">
-        <v>1</v>
-      </c>
-      <c r="F50" s="88">
+      <c r="E50" s="87">
+        <v>1</v>
+      </c>
+      <c r="F50" s="87">
         <v>1040</v>
       </c>
-      <c r="G50" s="87" t="s">
+      <c r="G50" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="84" t="s">
-        <v>307</v>
+      <c r="H50" s="83" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="50" customFormat="1">
@@ -6367,7 +6375,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="50" customFormat="1">
@@ -6391,7 +6399,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="50" customFormat="1">
@@ -6415,7 +6423,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="50" customFormat="1">
@@ -6439,7 +6447,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="50" customFormat="1">
@@ -6463,7 +6471,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="50" customFormat="1">
@@ -6487,7 +6495,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="50" customFormat="1">
@@ -6502,7 +6510,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F57" s="47">
         <v>1047</v>
@@ -6511,7 +6519,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1">
@@ -6523,17 +6531,17 @@
       </c>
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
-      <c r="E58" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="57" t="s">
-        <v>234</v>
+      <c r="E58" s="90" t="s">
+        <v>316</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="G58" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="58" t="s">
-        <v>174</v>
+      <c r="H58" s="57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="29" customFormat="1">
@@ -6545,17 +6553,17 @@
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
-      <c r="E59" s="91" t="s">
+      <c r="E59" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="F59" s="79" t="s">
-        <v>258</v>
+      <c r="F59" s="78" t="s">
+        <v>257</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="58" t="s">
-        <v>174</v>
+      <c r="H59" s="57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7072,22 +7080,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7101,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="7">
         <v>1001</v>
@@ -7115,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7">
         <v>1002</v>
@@ -7129,7 +7137,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
         <v>1003</v>
@@ -7143,7 +7151,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
         <v>1004</v>
@@ -7157,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -7171,7 +7179,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -7185,7 +7193,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
         <v>1005</v>
@@ -7199,7 +7207,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
         <v>1006</v>
@@ -7213,7 +7221,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
         <v>1007</v>
@@ -7227,7 +7235,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
         <v>1008</v>
@@ -7241,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -7255,7 +7263,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -7269,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
         <v>1009</v>
@@ -7283,7 +7291,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
         <v>1010</v>
@@ -7297,7 +7305,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
         <v>1011</v>
@@ -7311,7 +7319,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
         <v>1012</v>
@@ -7325,7 +7333,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
         <v>1013</v>
@@ -7339,7 +7347,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
         <v>1014</v>
@@ -7353,7 +7361,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="15">
         <v>1015</v>
@@ -7367,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="15">
         <v>1015</v>
@@ -7381,7 +7389,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="21">
         <v>0</v>
@@ -7395,7 +7403,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
@@ -7409,7 +7417,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="21">
         <v>0</v>
@@ -7423,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="21">
         <v>0</v>
@@ -7437,7 +7445,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="21">
         <v>0</v>
@@ -7451,7 +7459,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="21">
         <v>0</v>
@@ -7465,7 +7473,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -7479,7 +7487,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -7493,7 +7501,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="15">
         <v>1016</v>
@@ -7507,7 +7515,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="24">
         <v>1017</v>
@@ -7521,7 +7529,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="21">
         <v>1018</v>
@@ -7535,7 +7543,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -7550,7 +7558,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="24">
         <v>0</v>
@@ -7564,7 +7572,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="24">
         <v>0</v>
@@ -7578,7 +7586,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="24">
         <v>0</v>
@@ -7592,7 +7600,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="24">
         <v>0</v>
@@ -7606,7 +7614,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="24">
         <v>0</v>
@@ -7620,7 +7628,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="24">
         <v>0</v>
@@ -7634,7 +7642,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="24">
         <v>0</v>
@@ -7648,7 +7656,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="24">
         <v>0</v>
@@ -7662,7 +7670,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="21">
         <v>0</v>
@@ -7676,7 +7684,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="14">
         <v>1019</v>
@@ -7690,7 +7698,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="19">
         <v>1020</v>
@@ -7704,7 +7712,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -7718,7 +7726,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="19">
         <v>1021</v>
@@ -7732,7 +7740,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="19">
         <v>1022</v>
@@ -7746,7 +7754,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="33">
         <v>0</v>
@@ -7760,7 +7768,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="35">
         <v>0</v>
@@ -7774,7 +7782,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="34">
         <v>1018</v>
@@ -7788,7 +7796,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="35">
         <v>0</v>
@@ -7802,7 +7810,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="35">
         <v>0</v>
@@ -7816,7 +7824,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="35">
         <v>1023</v>
@@ -7830,7 +7838,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" s="35">
         <v>0</v>
@@ -7844,7 +7852,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="35">
         <v>0</v>
@@ -7858,7 +7866,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="35">
         <v>0</v>
@@ -7872,7 +7880,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="35">
         <v>0</v>
@@ -7886,7 +7894,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" s="35">
         <v>0</v>
@@ -7900,7 +7908,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59" s="35">
         <v>0</v>
@@ -7914,7 +7922,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D60" s="35">
         <v>0</v>
@@ -7928,7 +7936,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" s="35">
         <v>0</v>
@@ -7942,7 +7950,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="35">
         <v>0</v>
@@ -7956,7 +7964,7 @@
         <v>32</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="35">
         <v>1010</v>
@@ -7970,7 +7978,7 @@
         <v>33</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="34">
         <v>1018</v>
@@ -7984,7 +7992,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="35">
         <v>0</v>
@@ -7998,7 +8006,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="35">
         <v>0</v>
@@ -8012,7 +8020,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" s="35">
         <v>0</v>
@@ -8026,7 +8034,7 @@
         <v>35</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" s="35">
         <v>0</v>
@@ -8040,7 +8048,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" s="35">
         <v>0</v>
@@ -8054,7 +8062,7 @@
         <v>35</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="35">
         <v>0</v>
@@ -8068,7 +8076,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D71" s="35">
         <v>0</v>
@@ -8082,7 +8090,7 @@
         <v>35</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="35">
         <v>0</v>
@@ -8096,7 +8104,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8110,7 +8118,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -8124,7 +8132,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="35">
         <v>0</v>
@@ -8138,7 +8146,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" s="35">
         <v>0</v>
@@ -8152,7 +8160,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D77" s="35">
         <v>0</v>
@@ -8166,7 +8174,7 @@
         <v>37</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="35">
         <v>0</v>
@@ -8180,7 +8188,7 @@
         <v>37</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="35">
         <v>0</v>
@@ -8194,7 +8202,7 @@
         <v>37</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80" s="35">
         <v>0</v>
@@ -8208,7 +8216,7 @@
         <v>38</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D81" s="35">
         <v>1024</v>
@@ -8222,7 +8230,7 @@
         <v>39</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D82" s="35">
         <v>1025</v>
@@ -8236,7 +8244,7 @@
         <v>40</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D83" s="35">
         <v>1026</v>
@@ -8250,7 +8258,7 @@
         <v>41</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" s="35">
         <v>1027</v>
@@ -8264,7 +8272,7 @@
         <v>42</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="35">
         <v>1028</v>
@@ -8278,7 +8286,7 @@
         <v>43</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D86" s="35">
         <v>1029</v>
@@ -8311,22 +8319,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="66.95" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8337,10 +8345,10 @@
         <v>1001</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -8354,10 +8362,10 @@
         <v>1002</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -8371,10 +8379,10 @@
         <v>1003</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -8388,10 +8396,10 @@
         <v>1004</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -8405,10 +8413,10 @@
         <v>1005</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8422,10 +8430,10 @@
         <v>1006</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -8439,10 +8447,10 @@
         <v>1007</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -8457,10 +8465,10 @@
         <v>1008</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -8475,10 +8483,10 @@
         <v>1009</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -8493,10 +8501,10 @@
         <v>1010</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -8511,10 +8519,10 @@
         <v>1011</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -8529,10 +8537,10 @@
         <v>1012</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8547,10 +8555,10 @@
         <v>1013</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -8565,10 +8573,10 @@
         <v>1014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -8583,10 +8591,10 @@
         <v>1015</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="14">
         <v>2</v>
@@ -8602,10 +8610,10 @@
         <v>1016</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="E17" s="14">
         <v>2</v>
@@ -8621,10 +8629,10 @@
         <v>1017</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="24">
         <v>2</v>
@@ -8639,10 +8647,10 @@
         <v>1018</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" s="24">
         <v>2</v>
@@ -8657,7 +8665,7 @@
         <v>1019</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="14">
         <v>600</v>
@@ -8675,10 +8683,10 @@
         <v>1020</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
@@ -8693,10 +8701,10 @@
         <v>1021</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="14">
         <v>2</v>
@@ -8711,10 +8719,10 @@
         <v>1022</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
@@ -8730,10 +8738,10 @@
         <v>1023</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>206</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -8747,7 +8755,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -8764,7 +8772,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8781,7 +8789,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -8798,7 +8806,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -8815,10 +8823,10 @@
         <v>1028</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>313</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>314</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -8832,10 +8840,10 @@
         <v>1029</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -8872,28 +8880,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1">
@@ -8904,7 +8912,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="15">
         <v>100</v>
@@ -8913,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1">
@@ -8924,7 +8932,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="15">
         <v>10</v>
@@ -8941,7 +8949,7 @@
         <v>1002</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="21">
         <v>2500</v>
@@ -8951,7 +8959,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -8963,7 +8971,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="21">
         <v>30</v>
@@ -8973,10 +8981,10 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1">
@@ -8987,7 +8995,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="21">
         <v>10000</v>
@@ -8996,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -9008,7 +9016,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21">
         <v>30</v>
@@ -9017,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9028,7 +9036,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="21">
         <v>2000</v>
@@ -9048,7 +9056,7 @@
         <v>1004</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="21">
         <v>30</v>
@@ -9068,7 +9076,7 @@
         <v>1005</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15">
         <v>10000</v>
@@ -9085,7 +9093,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15">
         <v>30</v>
@@ -9102,7 +9110,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="34">
         <v>10000</v>
@@ -9122,7 +9130,7 @@
         <v>1006</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="34">
         <v>30</v>
@@ -9142,7 +9150,7 @@
         <v>1007</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="21">
         <v>2500</v>
@@ -9162,7 +9170,7 @@
         <v>1007</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="21">
         <v>30</v>
@@ -9182,7 +9190,7 @@
         <v>1008</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="15">
         <v>30000</v>
@@ -9199,7 +9207,7 @@
         <v>1008</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="15">
         <v>50</v>
@@ -9216,7 +9224,7 @@
         <v>1009</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="15">
         <v>5000</v>
@@ -9233,7 +9241,7 @@
         <v>1009</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="15">
         <v>20</v>
@@ -9250,7 +9258,7 @@
         <v>1010</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -9264,7 +9272,7 @@
         <v>1010</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="15">
         <v>20</v>
@@ -9281,7 +9289,7 @@
         <v>1011</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="15">
         <v>10000</v>
@@ -9298,7 +9306,7 @@
         <v>1011</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="15">
         <v>30</v>
@@ -9315,7 +9323,7 @@
         <v>1012</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="15">
         <v>30000</v>
@@ -9332,7 +9340,7 @@
         <v>1012</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="15">
         <v>30</v>
@@ -9349,7 +9357,7 @@
         <v>1013</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="15">
         <v>5000</v>
@@ -9366,7 +9374,7 @@
         <v>1013</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="15">
         <v>20</v>
@@ -9384,7 +9392,7 @@
         <v>1014</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="15">
         <v>10000</v>
@@ -9402,7 +9410,7 @@
         <v>1014</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="15">
         <v>30</v>
@@ -9420,7 +9428,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="15">
         <v>15000</v>
@@ -9438,7 +9446,7 @@
         <v>1015</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="15">
         <v>30</v>
@@ -9456,7 +9464,7 @@
         <v>1016</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="15">
         <v>50000</v>
@@ -9474,7 +9482,7 @@
         <v>1016</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" s="15">
         <v>50</v>
@@ -9492,7 +9500,7 @@
         <v>1017</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="15">
         <v>15000</v>
@@ -9510,7 +9518,7 @@
         <v>1017</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" s="15">
         <v>20</v>
@@ -9528,7 +9536,7 @@
         <v>1018</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -9543,7 +9551,7 @@
         <v>1018</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="15">
         <v>20</v>
@@ -9561,7 +9569,7 @@
         <v>1019</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="15">
         <v>150000</v>
@@ -9579,7 +9587,7 @@
         <v>1019</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="15">
         <v>50</v>
@@ -9597,7 +9605,7 @@
         <v>1020</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="15">
         <v>20000</v>
@@ -9615,7 +9623,7 @@
         <v>1020</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="15">
         <v>20</v>
@@ -9633,7 +9641,7 @@
         <v>1021</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D42" s="15">
         <v>50000</v>
@@ -9651,7 +9659,7 @@
         <v>1021</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="15">
         <v>20</v>
@@ -9669,7 +9677,7 @@
         <v>1022</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="15">
         <v>15000</v>
@@ -9687,7 +9695,7 @@
         <v>1022</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="15">
         <v>30</v>
@@ -9705,7 +9713,7 @@
         <v>1023</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="15">
         <v>500000</v>
@@ -9723,7 +9731,7 @@
         <v>1023</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D47" s="15">
         <v>50</v>
@@ -9741,7 +9749,7 @@
         <v>1024</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="15">
         <v>50000</v>
@@ -9759,7 +9767,7 @@
         <v>1024</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="15">
         <v>30</v>
@@ -9777,7 +9785,7 @@
         <v>1025</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="15">
         <v>80000</v>
@@ -9795,7 +9803,7 @@
         <v>1025</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="15">
         <v>20</v>
@@ -9813,7 +9821,7 @@
         <v>1026</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="15">
         <v>10000</v>
@@ -9831,7 +9839,7 @@
         <v>1026</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="15">
         <v>30</v>
@@ -9849,7 +9857,7 @@
         <v>1027</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="15">
         <v>1</v>
@@ -9864,7 +9872,7 @@
         <v>1027</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" s="15">
         <v>30</v>
@@ -9882,7 +9890,7 @@
         <v>1028</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="15">
         <v>1</v>
@@ -9897,7 +9905,7 @@
         <v>1028</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="15">
         <v>20</v>
@@ -9914,7 +9922,7 @@
         <v>1029</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="15">
         <v>30</v>
@@ -9931,7 +9939,7 @@
         <v>1029</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" s="15">
         <v>30</v>
@@ -9948,7 +9956,7 @@
         <v>1030</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="15">
         <v>30</v>
@@ -9965,7 +9973,7 @@
         <v>1030</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="15">
         <v>50</v>
@@ -9982,7 +9990,7 @@
         <v>1031</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="15">
         <v>50</v>
@@ -9999,7 +10007,7 @@
         <v>1031</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" s="15">
         <v>50</v>
@@ -10016,7 +10024,7 @@
         <v>1032</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="15">
         <v>150</v>
@@ -10033,7 +10041,7 @@
         <v>1032</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="15">
         <v>50</v>
@@ -10050,7 +10058,7 @@
         <v>1033</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="15">
         <v>500</v>
@@ -10067,7 +10075,7 @@
         <v>1033</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="15">
         <v>50</v>
@@ -10076,517 +10084,517 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="85" customFormat="1">
-      <c r="A68" s="85">
+    <row r="68" spans="1:5" s="84" customFormat="1">
+      <c r="A68" s="84">
         <v>67</v>
       </c>
-      <c r="B68" s="85">
+      <c r="B68" s="84">
         <v>1034</v>
       </c>
-      <c r="C68" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="85">
+      <c r="C68" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="84">
         <v>2000</v>
       </c>
-      <c r="E68" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="85" customFormat="1">
-      <c r="A69" s="85">
+      <c r="E68" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="84" customFormat="1">
+      <c r="A69" s="84">
         <v>68</v>
       </c>
-      <c r="B69" s="85">
+      <c r="B69" s="84">
         <v>1034</v>
       </c>
-      <c r="C69" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="85">
+      <c r="C69" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="84">
         <v>5</v>
       </c>
-      <c r="E69" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="85" customFormat="1">
-      <c r="A70" s="85">
+      <c r="E69" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="84" customFormat="1">
+      <c r="A70" s="84">
         <v>69</v>
       </c>
-      <c r="B70" s="85">
+      <c r="B70" s="84">
         <f>B68+1</f>
         <v>1035</v>
       </c>
-      <c r="C70" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="D70" s="85">
+      <c r="C70" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="84">
         <v>5000</v>
       </c>
-      <c r="E70" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="85" customFormat="1">
-      <c r="A71" s="85">
+      <c r="E70" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="84" customFormat="1">
+      <c r="A71" s="84">
         <v>70</v>
       </c>
-      <c r="B71" s="85">
+      <c r="B71" s="84">
         <f t="shared" ref="B71:B95" si="1">B69+1</f>
         <v>1035</v>
       </c>
-      <c r="C71" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D71" s="85">
+      <c r="C71" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="84">
         <v>5</v>
       </c>
-      <c r="E71" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="85" customFormat="1">
-      <c r="A72" s="85">
+      <c r="E71" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="84" customFormat="1">
+      <c r="A72" s="84">
         <v>71</v>
       </c>
-      <c r="B72" s="85">
+      <c r="B72" s="84">
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
-      <c r="C72" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="85">
+      <c r="C72" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D72" s="84">
         <v>10000</v>
       </c>
-      <c r="E72" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="85" customFormat="1">
-      <c r="A73" s="85">
+      <c r="E72" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="84" customFormat="1">
+      <c r="A73" s="84">
         <v>72</v>
       </c>
-      <c r="B73" s="85">
+      <c r="B73" s="84">
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
-      <c r="C73" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="85">
+      <c r="C73" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="84">
         <v>10</v>
       </c>
-      <c r="E73" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="85" customFormat="1">
-      <c r="A74" s="85">
+      <c r="E73" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="84" customFormat="1">
+      <c r="A74" s="84">
         <v>73</v>
       </c>
-      <c r="B74" s="85">
+      <c r="B74" s="84">
         <f t="shared" si="1"/>
         <v>1037</v>
       </c>
-      <c r="C74" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="D74" s="85">
+      <c r="C74" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" s="84">
         <v>20000</v>
       </c>
-      <c r="E74" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="85" customFormat="1">
-      <c r="A75" s="85">
+      <c r="E74" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="84" customFormat="1">
+      <c r="A75" s="84">
         <v>74</v>
       </c>
-      <c r="B75" s="85">
+      <c r="B75" s="84">
         <f t="shared" si="1"/>
         <v>1037</v>
       </c>
-      <c r="C75" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="85">
+      <c r="C75" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" s="84">
         <v>10</v>
       </c>
-      <c r="E75" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="85" customFormat="1">
-      <c r="A76" s="85">
+      <c r="E75" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="84" customFormat="1">
+      <c r="A76" s="84">
         <v>75</v>
       </c>
-      <c r="B76" s="85">
+      <c r="B76" s="84">
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
-      <c r="C76" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D76" s="85">
+      <c r="C76" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" s="84">
         <v>30000</v>
       </c>
-      <c r="E76" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="85" customFormat="1">
-      <c r="A77" s="85">
+      <c r="E76" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="84" customFormat="1">
+      <c r="A77" s="84">
         <v>76</v>
       </c>
-      <c r="B77" s="85">
+      <c r="B77" s="84">
         <f t="shared" si="1"/>
         <v>1038</v>
       </c>
-      <c r="C77" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D77" s="85">
+      <c r="C77" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="84">
         <v>10</v>
       </c>
-      <c r="E77" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="85" customFormat="1">
-      <c r="A78" s="85">
+      <c r="E77" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="84" customFormat="1">
+      <c r="A78" s="84">
         <v>77</v>
       </c>
-      <c r="B78" s="85">
+      <c r="B78" s="84">
         <f t="shared" si="1"/>
         <v>1039</v>
       </c>
-      <c r="C78" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D78" s="85">
+      <c r="C78" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="84">
         <v>20000</v>
       </c>
-      <c r="E78" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="85" customFormat="1">
-      <c r="A79" s="85">
+      <c r="E78" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="84" customFormat="1">
+      <c r="A79" s="84">
         <v>78</v>
       </c>
-      <c r="B79" s="85">
+      <c r="B79" s="84">
         <f t="shared" si="1"/>
         <v>1039</v>
       </c>
-      <c r="C79" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="85">
+      <c r="C79" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="84">
         <v>20</v>
       </c>
-      <c r="E79" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="85" customFormat="1">
-      <c r="A80" s="85">
+      <c r="E79" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="84" customFormat="1">
+      <c r="A80" s="84">
         <v>79</v>
       </c>
-      <c r="B80" s="85">
+      <c r="B80" s="84">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="C80" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="85">
+      <c r="C80" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="84">
         <v>30000</v>
       </c>
-      <c r="E80" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="85" customFormat="1">
-      <c r="A81" s="85">
+      <c r="E80" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="84" customFormat="1">
+      <c r="A81" s="84">
         <v>80</v>
       </c>
-      <c r="B81" s="85">
+      <c r="B81" s="84">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="C81" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="D81" s="85">
+      <c r="C81" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D81" s="84">
         <v>30</v>
       </c>
-      <c r="E81" s="85">
+      <c r="E81" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="15" customFormat="1">
-      <c r="A82" s="80">
+      <c r="A82" s="79">
         <v>81</v>
       </c>
-      <c r="B82" s="80">
+      <c r="B82" s="79">
         <f t="shared" si="1"/>
         <v>1041</v>
       </c>
-      <c r="C82" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="80">
+      <c r="C82" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="79">
         <v>200</v>
       </c>
-      <c r="E82" s="80">
+      <c r="E82" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="15" customFormat="1">
-      <c r="A83" s="80">
+      <c r="A83" s="79">
         <v>82</v>
       </c>
-      <c r="B83" s="80">
+      <c r="B83" s="79">
         <f t="shared" si="1"/>
         <v>1041</v>
       </c>
-      <c r="C83" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D83" s="80">
+      <c r="C83" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="79">
         <v>5</v>
       </c>
-      <c r="E83" s="80">
+      <c r="E83" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="15" customFormat="1">
-      <c r="A84" s="80">
+      <c r="A84" s="79">
         <v>83</v>
       </c>
-      <c r="B84" s="80">
+      <c r="B84" s="79">
         <f t="shared" si="1"/>
         <v>1042</v>
       </c>
-      <c r="C84" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" s="80">
+      <c r="C84" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" s="79">
         <v>1000</v>
       </c>
-      <c r="E84" s="80">
+      <c r="E84" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="15" customFormat="1">
-      <c r="A85" s="80">
+      <c r="A85" s="79">
         <v>84</v>
       </c>
-      <c r="B85" s="80">
+      <c r="B85" s="79">
         <f t="shared" si="1"/>
         <v>1042</v>
       </c>
-      <c r="C85" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D85" s="80">
+      <c r="C85" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" s="79">
         <v>5</v>
       </c>
-      <c r="E85" s="80">
+      <c r="E85" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="15" customFormat="1">
-      <c r="A86" s="80">
+      <c r="A86" s="79">
         <v>85</v>
       </c>
-      <c r="B86" s="80">
+      <c r="B86" s="79">
         <f t="shared" si="1"/>
         <v>1043</v>
       </c>
-      <c r="C86" s="81" t="s">
-        <v>293</v>
-      </c>
-      <c r="D86" s="80">
+      <c r="C86" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" s="79">
         <v>2000</v>
       </c>
-      <c r="E86" s="80">
+      <c r="E86" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="15" customFormat="1">
-      <c r="A87" s="80">
+      <c r="A87" s="79">
         <v>86</v>
       </c>
-      <c r="B87" s="80">
+      <c r="B87" s="79">
         <f t="shared" si="1"/>
         <v>1043</v>
       </c>
-      <c r="C87" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D87" s="80">
+      <c r="C87" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="79">
         <v>10</v>
       </c>
-      <c r="E87" s="80">
+      <c r="E87" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="15" customFormat="1">
-      <c r="A88" s="80">
+      <c r="A88" s="79">
         <v>87</v>
       </c>
-      <c r="B88" s="80">
+      <c r="B88" s="79">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
-      <c r="C88" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="80">
+      <c r="C88" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="79">
         <v>10000</v>
       </c>
-      <c r="E88" s="80">
+      <c r="E88" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="15" customFormat="1">
-      <c r="A89" s="80">
+      <c r="A89" s="79">
         <v>88</v>
       </c>
-      <c r="B89" s="80">
+      <c r="B89" s="79">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
-      <c r="C89" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="80">
+      <c r="C89" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="79">
         <v>10</v>
       </c>
-      <c r="E89" s="80">
+      <c r="E89" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="15" customFormat="1">
-      <c r="A90" s="80">
+      <c r="A90" s="79">
         <v>89</v>
       </c>
-      <c r="B90" s="80">
+      <c r="B90" s="79">
         <f t="shared" si="1"/>
         <v>1045</v>
       </c>
-      <c r="C90" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" s="80">
+      <c r="C90" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="79">
         <v>20000</v>
       </c>
-      <c r="E90" s="80">
+      <c r="E90" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="15" customFormat="1">
-      <c r="A91" s="80">
+      <c r="A91" s="79">
         <v>90</v>
       </c>
-      <c r="B91" s="80">
+      <c r="B91" s="79">
         <f t="shared" si="1"/>
         <v>1045</v>
       </c>
-      <c r="C91" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D91" s="80">
+      <c r="C91" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" s="79">
         <v>10</v>
       </c>
-      <c r="E91" s="80">
+      <c r="E91" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="15" customFormat="1">
-      <c r="A92" s="80">
+      <c r="A92" s="79">
         <v>91</v>
       </c>
-      <c r="B92" s="80">
+      <c r="B92" s="79">
         <f t="shared" si="1"/>
         <v>1046</v>
       </c>
-      <c r="C92" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="80">
+      <c r="C92" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="79">
         <v>100000</v>
       </c>
-      <c r="E92" s="80">
+      <c r="E92" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="15" customFormat="1">
-      <c r="A93" s="80">
+      <c r="A93" s="79">
         <v>92</v>
       </c>
-      <c r="B93" s="80">
+      <c r="B93" s="79">
         <f t="shared" si="1"/>
         <v>1046</v>
       </c>
-      <c r="C93" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D93" s="80">
+      <c r="C93" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" s="79">
         <v>20</v>
       </c>
-      <c r="E93" s="80">
+      <c r="E93" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="15" customFormat="1">
-      <c r="A94" s="80">
+      <c r="A94" s="79">
         <v>93</v>
       </c>
-      <c r="B94" s="80">
+      <c r="B94" s="79">
         <f t="shared" si="1"/>
         <v>1047</v>
       </c>
-      <c r="C94" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="D94" s="80">
+      <c r="C94" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="79">
         <v>200000</v>
       </c>
-      <c r="E94" s="80">
+      <c r="E94" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="15" customFormat="1">
-      <c r="A95" s="80">
+      <c r="A95" s="79">
         <v>94</v>
       </c>
-      <c r="B95" s="80">
+      <c r="B95" s="79">
         <f t="shared" si="1"/>
         <v>1047</v>
       </c>
-      <c r="C95" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="80">
+      <c r="C95" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="79">
         <v>30</v>
       </c>
-      <c r="E95" s="80">
+      <c r="E95" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="80">
+      <c r="A96" s="79">
         <v>95</v>
       </c>
       <c r="B96" s="21">
         <v>2001</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96" s="21">
         <v>5000</v>
@@ -10599,14 +10607,14 @@
       <c r="H96" s="21"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="80">
+      <c r="A97" s="79">
         <v>96</v>
       </c>
       <c r="B97" s="21">
         <v>2001</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="21">
         <v>2</v>
@@ -10619,14 +10627,14 @@
       <c r="H97" s="21"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="80">
+      <c r="A98" s="79">
         <v>97</v>
       </c>
       <c r="B98" s="21">
         <v>2002</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D98" s="21">
         <v>10000</v>
@@ -10639,14 +10647,14 @@
       <c r="H98" s="21"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="80">
+      <c r="A99" s="79">
         <v>98</v>
       </c>
       <c r="B99" s="21">
         <v>2002</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" s="21">
         <v>1</v>
@@ -10659,14 +10667,14 @@
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="80">
+      <c r="A100" s="79">
         <v>99</v>
       </c>
       <c r="B100" s="21">
         <v>2003</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="21">
         <v>10000</v>
@@ -10679,14 +10687,14 @@
       <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="80">
+      <c r="A101" s="79">
         <v>100</v>
       </c>
       <c r="B101" s="21">
         <v>2003</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D101" s="21">
         <v>10000</v>
@@ -10699,14 +10707,14 @@
       <c r="H101" s="21"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="80">
+      <c r="A102" s="79">
         <v>101</v>
       </c>
       <c r="B102" s="21">
         <v>2004</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102" s="21">
         <v>10000</v>
@@ -10719,14 +10727,14 @@
       <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="80">
+      <c r="A103" s="79">
         <v>102</v>
       </c>
       <c r="B103" s="21">
         <v>2004</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="21">
         <v>10000</v>
@@ -10739,14 +10747,14 @@
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="80">
+      <c r="A104" s="79">
         <v>103</v>
       </c>
       <c r="B104" s="21">
         <v>2005</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" s="21">
         <v>60000</v>
@@ -10759,14 +10767,14 @@
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="80">
+      <c r="A105" s="79">
         <v>104</v>
       </c>
       <c r="B105" s="21">
         <v>2006</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D105" s="21">
         <v>5000</v>
@@ -10779,14 +10787,14 @@
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="80">
+      <c r="A106" s="79">
         <v>105</v>
       </c>
       <c r="B106" s="21">
         <v>2007</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D106" s="21">
         <v>1</v>
@@ -10799,14 +10807,14 @@
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="80">
+      <c r="A107" s="79">
         <v>106</v>
       </c>
       <c r="B107" s="21">
         <v>2007</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="21">
         <v>10000</v>
@@ -10819,14 +10827,14 @@
       <c r="H107" s="21"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="80">
+      <c r="A108" s="79">
         <v>107</v>
       </c>
       <c r="B108" s="21">
         <v>2008</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D108" s="21">
         <v>10000</v>
@@ -10839,14 +10847,14 @@
       <c r="H108" s="21"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="80">
+      <c r="A109" s="79">
         <v>108</v>
       </c>
       <c r="B109" s="21">
         <v>2008</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109" s="21">
         <v>10000</v>
@@ -10859,14 +10867,14 @@
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="80">
+      <c r="A110" s="79">
         <v>109</v>
       </c>
       <c r="B110" s="21">
         <v>2009</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110" s="21">
         <v>20000</v>
@@ -10879,14 +10887,14 @@
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="80">
+      <c r="A111" s="79">
         <v>110</v>
       </c>
       <c r="B111" s="21">
         <v>2009</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" s="21">
         <v>20000</v>
@@ -10899,14 +10907,14 @@
       <c r="H111" s="21"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="80">
+      <c r="A112" s="79">
         <v>111</v>
       </c>
       <c r="B112" s="21">
         <v>2010</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D112" s="21">
         <v>50000</v>
@@ -10942,82 +10950,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -1309,29 +1309,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>30,30,30,30,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
+    <t>30,30,30,30,30,1000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6532,7 +6510,7 @@
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F58" s="56" t="s">
         <v>233</v>
@@ -6554,7 +6532,7 @@
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F59" s="78" t="s">
         <v>257</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$104</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="318">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1153,6 +1153,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>jykp_award</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1303,9 +1315,6 @@
   <si>
     <t>30,30,30,30,30,1000</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_12999</t>
   </si>
 </sst>
 </file>
@@ -2060,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3779,7 +3788,7 @@
         <v>265</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E44" s="83" t="s">
         <v>274</v>
@@ -3818,7 +3827,7 @@
         <v>265</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E45" s="83" t="s">
         <v>274</v>
@@ -3857,7 +3866,7 @@
         <v>265</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E46" s="83" t="s">
         <v>274</v>
@@ -3896,7 +3905,7 @@
         <v>265</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E47" s="83" t="s">
         <v>274</v>
@@ -3935,7 +3944,7 @@
         <v>265</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E48" s="83" t="s">
         <v>274</v>
@@ -3974,7 +3983,7 @@
         <v>265</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E49" s="83" t="s">
         <v>274</v>
@@ -4013,7 +4022,7 @@
         <v>265</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E50" s="83" t="s">
         <v>274</v>
@@ -4316,7 +4325,7 @@
     </row>
     <row r="58" spans="1:13" s="15" customFormat="1">
       <c r="A58" s="42">
-        <v>12999</v>
+        <v>13000</v>
       </c>
       <c r="B58" s="42">
         <v>1</v>
@@ -4328,13 +4337,13 @@
         <v>34</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="42">
-        <v>12999</v>
+        <v>13000</v>
       </c>
       <c r="H58" s="42" t="b">
         <v>1</v>
@@ -4355,7 +4364,7 @@
     </row>
     <row r="59" spans="1:13" s="15" customFormat="1">
       <c r="A59" s="42">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="B59" s="42">
         <v>1</v>
@@ -4367,13 +4376,13 @@
         <v>34</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="42">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="H59" s="42" t="b">
         <v>1</v>
@@ -5102,9 +5111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T58" sqref="T58"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6176,7 +6185,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="83" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="88" customFormat="1">
@@ -6200,7 +6209,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="83" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="88" customFormat="1">
@@ -6224,7 +6233,7 @@
         <v>40</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="88" customFormat="1">
@@ -6248,7 +6257,7 @@
         <v>40</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="88" customFormat="1">
@@ -6272,7 +6281,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="88" customFormat="1">
@@ -6296,7 +6305,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="88" customFormat="1">
@@ -6320,7 +6329,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="50" customFormat="1">
@@ -6344,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="50" customFormat="1">
@@ -6368,7 +6377,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="50" customFormat="1">
@@ -6392,7 +6401,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="50" customFormat="1">
@@ -6416,7 +6425,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="50" customFormat="1">
@@ -6440,7 +6449,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="50" customFormat="1">
@@ -6464,7 +6473,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="50" customFormat="1">
@@ -6488,7 +6497,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1">
@@ -6496,15 +6505,15 @@
         <v>57</v>
       </c>
       <c r="B58" s="43">
-        <v>12999</v>
+        <v>13000</v>
       </c>
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="90" t="s">
-        <v>313</v>
-      </c>
-      <c r="F58" s="78" t="s">
-        <v>257</v>
+        <v>317</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="G58" s="53" t="s">
         <v>40</v>
@@ -6518,15 +6527,15 @@
         <v>58</v>
       </c>
       <c r="B59" s="43">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="90" t="s">
-        <v>314</v>
-      </c>
-      <c r="F59" s="56" t="s">
-        <v>233</v>
+        <v>316</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>257</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>40</v>
@@ -7036,7 +7045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -8073,7 +8082,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8087,7 +8096,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -8171,7 +8180,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D80" s="35">
         <v>1024</v>
@@ -8185,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D81" s="35">
         <v>1025</v>
@@ -8199,7 +8208,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D82" s="35">
         <v>1026</v>
@@ -8213,7 +8222,7 @@
         <v>41</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D83" s="35">
         <v>1027</v>
@@ -8227,7 +8236,7 @@
         <v>42</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D84" s="35">
         <v>1028</v>
@@ -8241,7 +8250,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D85" s="35">
         <v>1029</v>
@@ -8710,7 +8719,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -8727,7 +8736,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8744,7 +8753,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -8761,7 +8770,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -8778,10 +8787,10 @@
         <v>1028</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -8795,10 +8804,10 @@
         <v>1029</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -8815,8 +8824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D81" activeCellId="6" sqref="D69 D71 D73 D75 D77 D79 D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10064,7 +10073,7 @@
         <v>1034</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D69" s="84">
         <v>5</v>
@@ -10082,7 +10091,7 @@
         <v>1035</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D70" s="84">
         <v>5000</v>
@@ -10100,7 +10109,7 @@
         <v>1035</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D71" s="84">
         <v>5</v>
@@ -10136,7 +10145,7 @@
         <v>1036</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D73" s="84">
         <v>10</v>
@@ -10154,7 +10163,7 @@
         <v>1037</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D74" s="84">
         <v>20000</v>
@@ -10172,7 +10181,7 @@
         <v>1037</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="D75" s="84">
         <v>10</v>
@@ -10208,7 +10217,7 @@
         <v>1038</v>
       </c>
       <c r="C77" s="85" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D77" s="84">
         <v>10</v>
@@ -10244,7 +10253,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D79" s="84">
         <v>20</v>
@@ -10280,7 +10289,7 @@
         <v>1040</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D81" s="84">
         <v>30</v>
@@ -10316,7 +10325,7 @@
         <v>1041</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D83" s="79">
         <v>5</v>
@@ -10352,7 +10361,7 @@
         <v>1042</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D85" s="79">
         <v>5</v>
@@ -10370,7 +10379,7 @@
         <v>1043</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D86" s="79">
         <v>2000</v>
@@ -10388,7 +10397,7 @@
         <v>1043</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D87" s="79">
         <v>10</v>
@@ -10424,7 +10433,7 @@
         <v>1044</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D89" s="79">
         <v>10</v>
@@ -10460,7 +10469,7 @@
         <v>1045</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D91" s="79">
         <v>10</v>
@@ -10496,7 +10505,7 @@
         <v>1046</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D93" s="79">
         <v>20</v>
@@ -10514,7 +10523,7 @@
         <v>1047</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D94" s="79">
         <v>200000</v>
@@ -10532,7 +10541,7 @@
         <v>1047</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="D95" s="79">
         <v>30</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$104</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -954,10 +954,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_3_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1314,6 +1310,10 @@
   </si>
   <si>
     <t>30,30,30,30,30,1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_1_2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,6 +1499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1539,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1790,6 +1796,15 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2069,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2426,7 +2441,7 @@
         <v>187</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="72" t="s">
         <v>15</v>
@@ -2699,7 +2714,7 @@
         <v>225</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F16" s="62" t="s">
         <v>114</v>
@@ -2855,7 +2870,7 @@
         <v>111</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="59" t="s">
         <v>114</v>
@@ -2894,7 +2909,7 @@
         <v>163</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>15</v>
@@ -2933,7 +2948,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F22" s="58" t="s">
         <v>15</v>
@@ -2972,7 +2987,7 @@
         <v>167</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F23" s="58" t="s">
         <v>15</v>
@@ -3011,7 +3026,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="58" t="s">
         <v>15</v>
@@ -3036,44 +3051,44 @@
       </c>
       <c r="M24" s="58"/>
     </row>
-    <row r="25" spans="1:13" s="71" customFormat="1">
-      <c r="A25" s="69">
+    <row r="25" spans="1:13" s="93" customFormat="1">
+      <c r="A25" s="91">
         <v>12524</v>
       </c>
-      <c r="B25" s="69">
-        <v>1</v>
-      </c>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="91">
+        <v>0</v>
+      </c>
+      <c r="C25" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="70" t="s">
+      <c r="E25" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="91">
         <v>12524</v>
       </c>
-      <c r="H25" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="70">
-        <v>1</v>
-      </c>
-      <c r="J25" s="70">
+      <c r="H25" s="92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="92">
+        <v>1</v>
+      </c>
+      <c r="J25" s="92">
         <v>946656000</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="92">
         <v>32503651200</v>
       </c>
-      <c r="L25" s="70">
+      <c r="L25" s="92">
         <v>-1</v>
       </c>
-      <c r="M25" s="69"/>
+      <c r="M25" s="91"/>
     </row>
     <row r="26" spans="1:13" s="71" customFormat="1">
       <c r="A26" s="69">
@@ -3167,7 +3182,7 @@
         <v>183</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F28" s="75" t="s">
         <v>15</v>
@@ -3244,7 +3259,7 @@
       <c r="D30" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="75" t="s">
         <v>236</v>
       </c>
       <c r="F30" s="75" t="s">
@@ -3284,7 +3299,7 @@
         <v>188</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" s="76" t="s">
         <v>15</v>
@@ -3401,7 +3416,7 @@
         <v>219</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F34" s="64" t="s">
         <v>15</v>
@@ -3440,7 +3455,7 @@
         <v>190</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>15</v>
@@ -3479,7 +3494,7 @@
         <v>218</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>15</v>
@@ -3596,7 +3611,7 @@
         <v>168</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F39" s="46" t="s">
         <v>15</v>
@@ -3635,7 +3650,7 @@
         <v>227</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F40" s="46" t="s">
         <v>15</v>
@@ -3674,7 +3689,7 @@
         <v>229</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>15</v>
@@ -3713,7 +3728,7 @@
         <v>230</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>15</v>
@@ -3752,7 +3767,7 @@
         <v>231</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>15</v>
@@ -3785,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F44" s="83" t="s">
         <v>15</v>
@@ -3824,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="83" t="s">
         <v>15</v>
@@ -3863,13 +3878,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F46" s="83" t="s">
         <v>15</v>
@@ -3902,13 +3917,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F47" s="83" t="s">
         <v>15</v>
@@ -3941,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F48" s="83" t="s">
         <v>15</v>
@@ -3980,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F49" s="83" t="s">
         <v>15</v>
@@ -4019,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F50" s="83" t="s">
         <v>15</v>
@@ -4058,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>266</v>
-      </c>
       <c r="E51" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F51" s="81" t="s">
         <v>15</v>
@@ -4097,13 +4112,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52" s="81" t="s">
         <v>15</v>
@@ -4136,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F53" s="81" t="s">
         <v>15</v>
@@ -4175,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D54" s="81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E54" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F54" s="81" t="s">
         <v>15</v>
@@ -4214,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D55" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F55" s="81" t="s">
         <v>15</v>
@@ -4253,13 +4268,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E56" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F56" s="81" t="s">
         <v>15</v>
@@ -4292,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D57" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E57" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F57" s="81" t="s">
         <v>15</v>
@@ -4337,7 +4352,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F58" s="42" t="s">
         <v>15</v>
@@ -4376,7 +4391,7 @@
         <v>34</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" s="42" t="s">
         <v>15</v>
@@ -6185,7 +6200,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="88" customFormat="1">
@@ -6209,7 +6224,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="88" customFormat="1">
@@ -6233,7 +6248,7 @@
         <v>40</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="88" customFormat="1">
@@ -6257,7 +6272,7 @@
         <v>40</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="88" customFormat="1">
@@ -6281,7 +6296,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="88" customFormat="1">
@@ -6305,7 +6320,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="88" customFormat="1">
@@ -6329,7 +6344,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="50" customFormat="1">
@@ -6353,7 +6368,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="50" customFormat="1">
@@ -6377,7 +6392,7 @@
         <v>40</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="50" customFormat="1">
@@ -6401,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="50" customFormat="1">
@@ -6425,7 +6440,7 @@
         <v>40</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="50" customFormat="1">
@@ -6449,7 +6464,7 @@
         <v>40</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="50" customFormat="1">
@@ -6473,7 +6488,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="50" customFormat="1">
@@ -6488,7 +6503,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F57" s="47">
         <v>1047</v>
@@ -6497,7 +6512,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1">
@@ -6510,7 +6525,7 @@
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F58" s="56" t="s">
         <v>233</v>
@@ -6532,10 +6547,10 @@
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F59" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>40</v>
@@ -7045,7 +7060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -8082,7 +8097,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D73" s="35">
         <v>0</v>
@@ -8096,7 +8111,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D74" s="35">
         <v>0</v>
@@ -8180,7 +8195,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D80" s="35">
         <v>1024</v>
@@ -8194,7 +8209,7 @@
         <v>39</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D81" s="35">
         <v>1025</v>
@@ -8208,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D82" s="35">
         <v>1026</v>
@@ -8222,7 +8237,7 @@
         <v>41</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D83" s="35">
         <v>1027</v>
@@ -8236,7 +8251,7 @@
         <v>42</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" s="35">
         <v>1028</v>
@@ -8250,7 +8265,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D85" s="35">
         <v>1029</v>
@@ -8719,7 +8734,7 @@
         <v>1024</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -8736,7 +8751,7 @@
         <v>1025</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8753,7 +8768,7 @@
         <v>1026</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -8770,7 +8785,7 @@
         <v>1027</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -8787,10 +8802,10 @@
         <v>1028</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>313</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -8804,10 +8819,10 @@
         <v>1029</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -10056,7 +10071,7 @@
         <v>1034</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D68" s="84">
         <v>2000</v>
@@ -10073,7 +10088,7 @@
         <v>1034</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D69" s="84">
         <v>5</v>
@@ -10091,7 +10106,7 @@
         <v>1035</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D70" s="84">
         <v>5000</v>
@@ -10109,7 +10124,7 @@
         <v>1035</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D71" s="84">
         <v>5</v>
@@ -10127,7 +10142,7 @@
         <v>1036</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" s="84">
         <v>10000</v>
@@ -10145,7 +10160,7 @@
         <v>1036</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D73" s="84">
         <v>10</v>
@@ -10163,7 +10178,7 @@
         <v>1037</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D74" s="84">
         <v>20000</v>
@@ -10181,7 +10196,7 @@
         <v>1037</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="84">
         <v>10</v>
@@ -10199,7 +10214,7 @@
         <v>1038</v>
       </c>
       <c r="C76" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D76" s="84">
         <v>30000</v>
@@ -10217,7 +10232,7 @@
         <v>1038</v>
       </c>
       <c r="C77" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D77" s="84">
         <v>10</v>
@@ -10235,7 +10250,7 @@
         <v>1039</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D78" s="84">
         <v>20000</v>
@@ -10253,7 +10268,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D79" s="84">
         <v>20</v>
@@ -10271,7 +10286,7 @@
         <v>1040</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D80" s="84">
         <v>30000</v>
@@ -10289,7 +10304,7 @@
         <v>1040</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D81" s="84">
         <v>30</v>
@@ -10307,7 +10322,7 @@
         <v>1041</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D82" s="79">
         <v>200</v>
@@ -10325,7 +10340,7 @@
         <v>1041</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D83" s="79">
         <v>5</v>
@@ -10343,7 +10358,7 @@
         <v>1042</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" s="79">
         <v>1000</v>
@@ -10361,7 +10376,7 @@
         <v>1042</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D85" s="79">
         <v>5</v>
@@ -10379,7 +10394,7 @@
         <v>1043</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D86" s="79">
         <v>2000</v>
@@ -10397,7 +10412,7 @@
         <v>1043</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D87" s="79">
         <v>10</v>
@@ -10415,7 +10430,7 @@
         <v>1044</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="79">
         <v>10000</v>
@@ -10433,7 +10448,7 @@
         <v>1044</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D89" s="79">
         <v>10</v>
@@ -10451,7 +10466,7 @@
         <v>1045</v>
       </c>
       <c r="C90" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="79">
         <v>20000</v>
@@ -10469,7 +10484,7 @@
         <v>1045</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D91" s="79">
         <v>10</v>
@@ -10487,7 +10502,7 @@
         <v>1046</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="79">
         <v>100000</v>
@@ -10505,7 +10520,7 @@
         <v>1046</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D93" s="79">
         <v>20</v>
@@ -10523,7 +10538,7 @@
         <v>1047</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D94" s="79">
         <v>200000</v>
@@ -10541,7 +10556,7 @@
         <v>1047</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="79">
         <v>30</v>
@@ -10738,7 +10753,7 @@
         <v>2006</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D105" s="21">
         <v>5000</v>
@@ -10758,7 +10773,7 @@
         <v>2007</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D106" s="21">
         <v>1</v>
@@ -10778,7 +10793,7 @@
         <v>2007</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D107" s="21">
         <v>10000</v>
@@ -10798,7 +10813,7 @@
         <v>2008</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D108" s="21">
         <v>10000</v>
@@ -10818,7 +10833,7 @@
         <v>2008</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D109" s="21">
         <v>10000</v>
@@ -10838,7 +10853,7 @@
         <v>2009</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D110" s="21">
         <v>20000</v>
@@ -10858,7 +10873,7 @@
         <v>2009</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="21">
         <v>20000</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -8839,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82:F95"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10074,7 +10074,7 @@
         <v>259</v>
       </c>
       <c r="D68" s="84">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E68" s="84">
         <v>1</v>
@@ -10109,7 +10109,7 @@
         <v>290</v>
       </c>
       <c r="D70" s="84">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="84">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>259</v>
       </c>
       <c r="D72" s="84">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E72" s="84">
         <v>1</v>
@@ -10181,7 +10181,7 @@
         <v>291</v>
       </c>
       <c r="D74" s="84">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="E74" s="84">
         <v>1</v>
@@ -10217,7 +10217,7 @@
         <v>259</v>
       </c>
       <c r="D76" s="84">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="84">
         <v>1</v>
@@ -10253,7 +10253,7 @@
         <v>259</v>
       </c>
       <c r="D78" s="84">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E78" s="84">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>259</v>
       </c>
       <c r="D80" s="84">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E80" s="84">
         <v>1</v>
@@ -10433,7 +10433,7 @@
         <v>259</v>
       </c>
       <c r="D88" s="79">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E88" s="79">
         <v>1</v>
@@ -10469,7 +10469,7 @@
         <v>259</v>
       </c>
       <c r="D90" s="79">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E90" s="79">
         <v>1</v>
@@ -10505,7 +10505,7 @@
         <v>259</v>
       </c>
       <c r="D92" s="79">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E92" s="79">
         <v>1</v>
@@ -10541,7 +10541,7 @@
         <v>292</v>
       </c>
       <c r="D94" s="79">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E94" s="79">
         <v>1</v>
@@ -10756,7 +10756,7 @@
         <v>260</v>
       </c>
       <c r="D105" s="21">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E105" s="21">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         <v>262</v>
       </c>
       <c r="D107" s="21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E107" s="21">
         <v>1</v>
@@ -10816,7 +10816,7 @@
         <v>261</v>
       </c>
       <c r="D108" s="21">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E108" s="21">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>257</v>
       </c>
       <c r="D109" s="21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E109" s="21">
         <v>1</v>
@@ -10856,7 +10856,7 @@
         <v>258</v>
       </c>
       <c r="D110" s="21">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E110" s="21">
         <v>1</v>
@@ -10876,7 +10876,7 @@
         <v>259</v>
       </c>
       <c r="D111" s="21">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E111" s="21">
         <v>1</v>
@@ -10896,7 +10896,7 @@
         <v>160</v>
       </c>
       <c r="D112" s="21">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E112" s="21">
         <v>1</v>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$136</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="337">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1332,18 +1332,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>p_task_fish_daily_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼100条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>p_task_fish_daily_official</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>task_13002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_summon_fish","prop_3d_fish_accelerate","prop_3d_fish_wild","prop_3d_fish_doubled"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>p_task_fish_daily_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>累计捕鱼100条</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>p_task_fish_daily_cps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1352,23 +1372,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_summon_fish","prop_3d_fish_accelerate","prop_3d_fish_wild","prop_3d_fish_doubled"</t>
+    <t>p_task_fish_daily_official</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_task_fish_daily_cpl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2114,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2629,7 +2637,7 @@
         <v>106</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>114</v>
@@ -2785,7 +2793,7 @@
         <v>178</v>
       </c>
       <c r="E17" s="79" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F17" s="78" t="s">
         <v>114</v>
@@ -2977,10 +2985,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F22" s="79" t="s">
         <v>15</v>
@@ -3058,7 +3066,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F24" s="79" t="s">
         <v>15</v>
@@ -4033,7 +4041,7 @@
         <v>226</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>15</v>
@@ -4072,7 +4080,7 @@
         <v>163</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" s="70" t="s">
         <v>15</v>
@@ -4111,7 +4119,7 @@
         <v>167</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="70" t="s">
         <v>15</v>
@@ -4150,7 +4158,7 @@
         <v>168</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F52" s="70" t="s">
         <v>15</v>
@@ -4189,7 +4197,7 @@
         <v>178</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F53" s="71" t="s">
         <v>114</v>
@@ -4214,165 +4222,165 @@
       </c>
       <c r="M53" s="70"/>
     </row>
-    <row r="54" spans="1:13" s="89" customFormat="1">
-      <c r="A54" s="88">
-        <v>12600</v>
-      </c>
-      <c r="B54" s="88">
-        <v>1</v>
-      </c>
-      <c r="C54" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="88" t="s">
-        <v>288</v>
-      </c>
-      <c r="E54" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" s="88" t="s">
+    <row r="54" spans="1:13" s="80" customFormat="1">
+      <c r="A54" s="79">
+        <v>12553</v>
+      </c>
+      <c r="B54" s="79">
+        <v>1</v>
+      </c>
+      <c r="C54" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="F54" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="79">
+        <v>12548</v>
+      </c>
+      <c r="H54" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="79">
+        <v>1</v>
+      </c>
+      <c r="J54" s="79">
+        <v>946656000</v>
+      </c>
+      <c r="K54" s="79">
+        <v>32503651200</v>
+      </c>
+      <c r="L54" s="79">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="79"/>
+    </row>
+    <row r="55" spans="1:13" s="80" customFormat="1">
+      <c r="A55" s="79">
+        <v>12554</v>
+      </c>
+      <c r="B55" s="79">
+        <v>1</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="88">
-        <v>12600</v>
-      </c>
-      <c r="H54" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="88">
-        <v>1</v>
-      </c>
-      <c r="J54" s="88">
+      <c r="G55" s="79">
+        <v>12549</v>
+      </c>
+      <c r="H55" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="79">
+        <v>1</v>
+      </c>
+      <c r="J55" s="79">
         <v>946656000</v>
       </c>
-      <c r="K54" s="88">
+      <c r="K55" s="79">
         <v>32503651200</v>
       </c>
-      <c r="L54" s="88">
+      <c r="L55" s="79">
         <v>-1</v>
       </c>
-      <c r="M54" s="88"/>
-    </row>
-    <row r="55" spans="1:13" s="89" customFormat="1">
-      <c r="A55" s="88">
-        <v>12601</v>
-      </c>
-      <c r="B55" s="88">
-        <v>1</v>
-      </c>
-      <c r="C55" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="E55" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" s="88" t="s">
+      <c r="M55" s="79"/>
+    </row>
+    <row r="56" spans="1:13" s="80" customFormat="1">
+      <c r="A56" s="79">
+        <v>12555</v>
+      </c>
+      <c r="B56" s="79">
+        <v>1</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="79">
+        <v>12512</v>
+      </c>
+      <c r="H56" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="79">
+        <v>1</v>
+      </c>
+      <c r="J56" s="79">
+        <v>946656000</v>
+      </c>
+      <c r="K56" s="79">
+        <v>32503651200</v>
+      </c>
+      <c r="L56" s="79">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="79"/>
+    </row>
+    <row r="57" spans="1:13" s="80" customFormat="1">
+      <c r="A57" s="79">
+        <v>12556</v>
+      </c>
+      <c r="B57" s="79">
+        <v>1</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E57" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="88">
-        <v>12601</v>
-      </c>
-      <c r="H55" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="88">
-        <v>1</v>
-      </c>
-      <c r="J55" s="88">
+      <c r="G57" s="79">
+        <v>12521</v>
+      </c>
+      <c r="H57" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="79">
+        <v>1</v>
+      </c>
+      <c r="J57" s="79">
         <v>946656000</v>
       </c>
-      <c r="K55" s="88">
+      <c r="K57" s="79">
         <v>32503651200</v>
       </c>
-      <c r="L55" s="88">
+      <c r="L57" s="79">
         <v>-1</v>
       </c>
-      <c r="M55" s="88"/>
-    </row>
-    <row r="56" spans="1:13" s="89" customFormat="1">
-      <c r="A56" s="88">
-        <v>12602</v>
-      </c>
-      <c r="B56" s="88">
-        <v>1</v>
-      </c>
-      <c r="C56" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="E56" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="88">
-        <v>12602</v>
-      </c>
-      <c r="H56" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="88">
-        <v>1</v>
-      </c>
-      <c r="J56" s="88">
-        <v>946656000</v>
-      </c>
-      <c r="K56" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L56" s="88">
-        <v>-1</v>
-      </c>
-      <c r="M56" s="88"/>
-    </row>
-    <row r="57" spans="1:13" s="89" customFormat="1">
-      <c r="A57" s="88">
-        <v>12603</v>
-      </c>
-      <c r="B57" s="88">
-        <v>1</v>
-      </c>
-      <c r="C57" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="E57" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F57" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="88">
-        <v>12603</v>
-      </c>
-      <c r="H57" s="88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="88">
-        <v>1</v>
-      </c>
-      <c r="J57" s="88">
-        <v>946656000</v>
-      </c>
-      <c r="K57" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L57" s="88">
-        <v>-1</v>
-      </c>
-      <c r="M57" s="88"/>
+      <c r="M57" s="79"/>
     </row>
     <row r="58" spans="1:13" s="89" customFormat="1">
       <c r="A58" s="88">
-        <v>12604</v>
+        <v>12600</v>
       </c>
       <c r="B58" s="88">
         <v>1</v>
@@ -4380,8 +4388,8 @@
       <c r="C58" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="D58" s="90" t="s">
-        <v>296</v>
+      <c r="D58" s="88" t="s">
+        <v>288</v>
       </c>
       <c r="E58" s="88" t="s">
         <v>267</v>
@@ -4390,7 +4398,7 @@
         <v>15</v>
       </c>
       <c r="G58" s="88">
-        <v>12604</v>
+        <v>12600</v>
       </c>
       <c r="H58" s="88" t="b">
         <v>1</v>
@@ -4411,7 +4419,7 @@
     </row>
     <row r="59" spans="1:13" s="89" customFormat="1">
       <c r="A59" s="88">
-        <v>12605</v>
+        <v>12601</v>
       </c>
       <c r="B59" s="88">
         <v>1</v>
@@ -4420,7 +4428,7 @@
         <v>258</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E59" s="88" t="s">
         <v>267</v>
@@ -4429,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="G59" s="88">
-        <v>12605</v>
+        <v>12601</v>
       </c>
       <c r="H59" s="88" t="b">
         <v>1</v>
@@ -4450,7 +4458,7 @@
     </row>
     <row r="60" spans="1:13" s="89" customFormat="1">
       <c r="A60" s="88">
-        <v>12606</v>
+        <v>12602</v>
       </c>
       <c r="B60" s="88">
         <v>1</v>
@@ -4459,7 +4467,7 @@
         <v>258</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E60" s="88" t="s">
         <v>267</v>
@@ -4468,7 +4476,7 @@
         <v>15</v>
       </c>
       <c r="G60" s="88">
-        <v>12606</v>
+        <v>12602</v>
       </c>
       <c r="H60" s="88" t="b">
         <v>1</v>
@@ -4489,7 +4497,7 @@
     </row>
     <row r="61" spans="1:13" s="89" customFormat="1">
       <c r="A61" s="88">
-        <v>12607</v>
+        <v>12603</v>
       </c>
       <c r="B61" s="88">
         <v>1</v>
@@ -4498,7 +4506,7 @@
         <v>258</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="E61" s="88" t="s">
         <v>267</v>
@@ -4507,7 +4515,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="88">
-        <v>12607</v>
+        <v>12603</v>
       </c>
       <c r="H61" s="88" t="b">
         <v>1</v>
@@ -4528,7 +4536,7 @@
     </row>
     <row r="62" spans="1:13" s="89" customFormat="1">
       <c r="A62" s="88">
-        <v>12608</v>
+        <v>12604</v>
       </c>
       <c r="B62" s="88">
         <v>1</v>
@@ -4536,8 +4544,8 @@
       <c r="C62" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="D62" s="88" t="s">
-        <v>260</v>
+      <c r="D62" s="90" t="s">
+        <v>296</v>
       </c>
       <c r="E62" s="88" t="s">
         <v>267</v>
@@ -4546,7 +4554,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="88">
-        <v>12608</v>
+        <v>12604</v>
       </c>
       <c r="H62" s="88" t="b">
         <v>1</v>
@@ -4567,7 +4575,7 @@
     </row>
     <row r="63" spans="1:13" s="89" customFormat="1">
       <c r="A63" s="88">
-        <v>12609</v>
+        <v>12605</v>
       </c>
       <c r="B63" s="88">
         <v>1</v>
@@ -4576,7 +4584,7 @@
         <v>258</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="E63" s="88" t="s">
         <v>267</v>
@@ -4585,7 +4593,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="88">
-        <v>12609</v>
+        <v>12605</v>
       </c>
       <c r="H63" s="88" t="b">
         <v>1</v>
@@ -4606,7 +4614,7 @@
     </row>
     <row r="64" spans="1:13" s="89" customFormat="1">
       <c r="A64" s="88">
-        <v>12610</v>
+        <v>12606</v>
       </c>
       <c r="B64" s="88">
         <v>1</v>
@@ -4615,7 +4623,7 @@
         <v>258</v>
       </c>
       <c r="D64" s="88" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="E64" s="88" t="s">
         <v>267</v>
@@ -4624,7 +4632,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="88">
-        <v>12610</v>
+        <v>12606</v>
       </c>
       <c r="H64" s="88" t="b">
         <v>1</v>
@@ -4645,7 +4653,7 @@
     </row>
     <row r="65" spans="1:13" s="89" customFormat="1">
       <c r="A65" s="88">
-        <v>12611</v>
+        <v>12607</v>
       </c>
       <c r="B65" s="88">
         <v>1</v>
@@ -4654,7 +4662,7 @@
         <v>258</v>
       </c>
       <c r="D65" s="88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E65" s="88" t="s">
         <v>267</v>
@@ -4663,7 +4671,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="88">
-        <v>12611</v>
+        <v>12607</v>
       </c>
       <c r="H65" s="88" t="b">
         <v>1</v>
@@ -4684,7 +4692,7 @@
     </row>
     <row r="66" spans="1:13" s="89" customFormat="1">
       <c r="A66" s="88">
-        <v>12612</v>
+        <v>12608</v>
       </c>
       <c r="B66" s="88">
         <v>1</v>
@@ -4693,7 +4701,7 @@
         <v>258</v>
       </c>
       <c r="D66" s="88" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E66" s="88" t="s">
         <v>267</v>
@@ -4702,7 +4710,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="88">
-        <v>12612</v>
+        <v>12608</v>
       </c>
       <c r="H66" s="88" t="b">
         <v>1</v>
@@ -4723,7 +4731,7 @@
     </row>
     <row r="67" spans="1:13" s="89" customFormat="1">
       <c r="A67" s="88">
-        <v>12613</v>
+        <v>12609</v>
       </c>
       <c r="B67" s="88">
         <v>1</v>
@@ -4732,7 +4740,7 @@
         <v>258</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E67" s="88" t="s">
         <v>267</v>
@@ -4741,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="88">
-        <v>12613</v>
+        <v>12609</v>
       </c>
       <c r="H67" s="88" t="b">
         <v>1</v>
@@ -4760,134 +4768,278 @@
       </c>
       <c r="M67" s="88"/>
     </row>
-    <row r="68" spans="1:13" s="15" customFormat="1">
-      <c r="A68" s="41">
+    <row r="68" spans="1:13" s="89" customFormat="1">
+      <c r="A68" s="88">
+        <v>12610</v>
+      </c>
+      <c r="B68" s="88">
+        <v>1</v>
+      </c>
+      <c r="C68" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="88">
+        <v>12610</v>
+      </c>
+      <c r="H68" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="88">
+        <v>1</v>
+      </c>
+      <c r="J68" s="88">
+        <v>946656000</v>
+      </c>
+      <c r="K68" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L68" s="88">
+        <v>-1</v>
+      </c>
+      <c r="M68" s="88"/>
+    </row>
+    <row r="69" spans="1:13" s="89" customFormat="1">
+      <c r="A69" s="88">
+        <v>12611</v>
+      </c>
+      <c r="B69" s="88">
+        <v>1</v>
+      </c>
+      <c r="C69" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="88">
+        <v>12611</v>
+      </c>
+      <c r="H69" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="88">
+        <v>1</v>
+      </c>
+      <c r="J69" s="88">
+        <v>946656000</v>
+      </c>
+      <c r="K69" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L69" s="88">
+        <v>-1</v>
+      </c>
+      <c r="M69" s="88"/>
+    </row>
+    <row r="70" spans="1:13" s="89" customFormat="1">
+      <c r="A70" s="88">
+        <v>12612</v>
+      </c>
+      <c r="B70" s="88">
+        <v>1</v>
+      </c>
+      <c r="C70" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="88">
+        <v>12612</v>
+      </c>
+      <c r="H70" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="88">
+        <v>1</v>
+      </c>
+      <c r="J70" s="88">
+        <v>946656000</v>
+      </c>
+      <c r="K70" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L70" s="88">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="88"/>
+    </row>
+    <row r="71" spans="1:13" s="89" customFormat="1">
+      <c r="A71" s="88">
+        <v>12613</v>
+      </c>
+      <c r="B71" s="88">
+        <v>1</v>
+      </c>
+      <c r="C71" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="88">
+        <v>12613</v>
+      </c>
+      <c r="H71" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="88">
+        <v>1</v>
+      </c>
+      <c r="J71" s="88">
+        <v>946656000</v>
+      </c>
+      <c r="K71" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L71" s="88">
+        <v>-1</v>
+      </c>
+      <c r="M71" s="88"/>
+    </row>
+    <row r="72" spans="1:13" s="15" customFormat="1">
+      <c r="A72" s="41">
         <v>13000</v>
       </c>
-      <c r="B68" s="41">
-        <v>1</v>
-      </c>
-      <c r="C68" s="42" t="s">
+      <c r="B72" s="41">
+        <v>1</v>
+      </c>
+      <c r="C72" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D72" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E72" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="41" t="s">
+      <c r="F72" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="41">
+      <c r="G72" s="41">
         <v>13000</v>
       </c>
-      <c r="H68" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" s="41">
-        <v>1</v>
-      </c>
-      <c r="J68" s="41">
+      <c r="H72" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="41">
+        <v>1</v>
+      </c>
+      <c r="J72" s="41">
         <v>946656000</v>
       </c>
-      <c r="K68" s="41">
+      <c r="K72" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L68" s="41">
+      <c r="L72" s="41">
         <v>-1</v>
       </c>
-      <c r="M68" s="41"/>
-    </row>
-    <row r="69" spans="1:13" s="15" customFormat="1">
-      <c r="A69" s="41">
+      <c r="M72" s="41"/>
+    </row>
+    <row r="73" spans="1:13" s="15" customFormat="1">
+      <c r="A73" s="41">
         <v>13001</v>
       </c>
-      <c r="B69" s="41">
-        <v>1</v>
-      </c>
-      <c r="C69" s="42" t="s">
+      <c r="B73" s="41">
+        <v>1</v>
+      </c>
+      <c r="C73" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D73" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E73" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F73" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="41">
+      <c r="G73" s="41">
         <v>13001</v>
       </c>
-      <c r="H69" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="41">
-        <v>1</v>
-      </c>
-      <c r="J69" s="41">
+      <c r="H73" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="41">
+        <v>1</v>
+      </c>
+      <c r="J73" s="41">
         <v>946656000</v>
       </c>
-      <c r="K69" s="41">
+      <c r="K73" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L69" s="41">
+      <c r="L73" s="41">
         <v>-1</v>
       </c>
-      <c r="M69" s="41"/>
-    </row>
-    <row r="70" spans="1:13" s="15" customFormat="1">
-      <c r="A70" s="41">
+      <c r="M73" s="41"/>
+    </row>
+    <row r="74" spans="1:13" s="15" customFormat="1">
+      <c r="A74" s="41">
         <v>13002</v>
       </c>
-      <c r="B70" s="41">
-        <v>1</v>
-      </c>
-      <c r="C70" s="42" t="s">
+      <c r="B74" s="41">
+        <v>1</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D74" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E74" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="F70" s="41" t="s">
+      <c r="F74" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="G70" s="41">
+      <c r="G74" s="41">
         <v>13002</v>
       </c>
-      <c r="H70" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="41">
-        <v>1</v>
-      </c>
-      <c r="J70" s="41">
+      <c r="H74" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="41">
+        <v>1</v>
+      </c>
+      <c r="J74" s="41">
         <v>946656000</v>
       </c>
-      <c r="K70" s="41">
+      <c r="K74" s="41">
         <v>32503651200</v>
       </c>
-      <c r="L70" s="41">
+      <c r="L74" s="41">
         <v>-1</v>
       </c>
-      <c r="M70" s="41"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="G74" s="1"/>
+      <c r="M74" s="41"/>
     </row>
     <row r="75" spans="1:13">
       <c r="G75" s="1"/>
@@ -4914,23 +5066,15 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="3:7">
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="3:7">
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="3:7">
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="3:7">
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="3:7">
@@ -5557,6 +5701,26 @@
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
       <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="3:7">
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="3:7">
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="3:7">
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="3:7">
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="G215" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5567,11 +5731,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6742,52 +6906,52 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="67" customFormat="1">
+    <row r="49" spans="1:8" s="29" customFormat="1">
       <c r="A49" s="53">
         <v>48</v>
       </c>
-      <c r="B49" s="66">
-        <v>12600</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="65">
-        <v>36</v>
-      </c>
-      <c r="E49" s="66">
-        <v>50</v>
-      </c>
-      <c r="F49" s="66">
-        <v>1034</v>
-      </c>
-      <c r="G49" s="65" t="s">
+      <c r="B49" s="42">
+        <v>12548</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51">
+        <v>12</v>
+      </c>
+      <c r="E49" s="51">
+        <v>1</v>
+      </c>
+      <c r="F49" s="42">
+        <v>1053</v>
+      </c>
+      <c r="G49" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="67" customFormat="1">
+      <c r="H49" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="29" customFormat="1">
       <c r="A50" s="53">
         <v>49</v>
       </c>
-      <c r="B50" s="66">
-        <v>12601</v>
-      </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65">
-        <v>38</v>
-      </c>
-      <c r="E50" s="66">
-        <v>200</v>
-      </c>
-      <c r="F50" s="66">
-        <v>1035</v>
-      </c>
-      <c r="G50" s="65" t="s">
+      <c r="B50" s="42">
+        <v>12549</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51">
+        <v>21</v>
+      </c>
+      <c r="E50" s="42">
+        <v>100</v>
+      </c>
+      <c r="F50" s="42">
+        <v>1054</v>
+      </c>
+      <c r="G50" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="62" t="s">
-        <v>292</v>
+      <c r="H50" s="42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="67" customFormat="1">
@@ -6795,23 +6959,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="66">
-        <v>12602</v>
-      </c>
-      <c r="C51" s="65"/>
+        <v>12600</v>
+      </c>
+      <c r="C51" s="68"/>
       <c r="D51" s="65">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E51" s="66">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F51" s="66">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G51" s="65" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="67" customFormat="1">
@@ -6819,23 +6983,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="66">
-        <v>12603</v>
+        <v>12601</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E52" s="66">
         <v>200</v>
       </c>
       <c r="F52" s="66">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G52" s="65" t="s">
         <v>40</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="67" customFormat="1">
@@ -6843,23 +7007,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="66">
-        <v>12604</v>
+        <v>12602</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="65">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53" s="66">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F53" s="66">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G53" s="65" t="s">
         <v>40</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="67" customFormat="1">
@@ -6867,23 +7031,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="66">
-        <v>12605</v>
+        <v>12603</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E54" s="66">
-        <v>1000000</v>
+        <v>200</v>
       </c>
       <c r="F54" s="66">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G54" s="65" t="s">
         <v>40</v>
       </c>
       <c r="H54" s="62" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="67" customFormat="1">
@@ -6891,71 +7055,71 @@
         <v>54</v>
       </c>
       <c r="B55" s="66">
-        <v>12606</v>
+        <v>12604</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E55" s="66">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F55" s="66">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G55" s="65" t="s">
         <v>40</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="48" customFormat="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="67" customFormat="1">
       <c r="A56" s="53">
         <v>55</v>
       </c>
-      <c r="B56" s="46">
-        <v>12607</v>
-      </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53">
-        <v>37</v>
-      </c>
-      <c r="E56" s="46">
-        <v>10000</v>
-      </c>
-      <c r="F56" s="46">
-        <v>1041</v>
-      </c>
-      <c r="G56" s="53" t="s">
+      <c r="B56" s="66">
+        <v>12605</v>
+      </c>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65">
+        <v>42</v>
+      </c>
+      <c r="E56" s="66">
+        <v>1000000</v>
+      </c>
+      <c r="F56" s="66">
+        <v>1039</v>
+      </c>
+      <c r="G56" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="48" customFormat="1">
+      <c r="H56" s="62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="67" customFormat="1">
       <c r="A57" s="53">
         <v>56</v>
       </c>
-      <c r="B57" s="46">
-        <v>12608</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53">
-        <v>37</v>
-      </c>
-      <c r="E57" s="46">
-        <v>50000</v>
-      </c>
-      <c r="F57" s="46">
-        <v>1042</v>
-      </c>
-      <c r="G57" s="53" t="s">
+      <c r="B57" s="66">
+        <v>12606</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65">
+        <v>43</v>
+      </c>
+      <c r="E57" s="66">
+        <v>1</v>
+      </c>
+      <c r="F57" s="66">
+        <v>1040</v>
+      </c>
+      <c r="G57" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="45" t="s">
-        <v>279</v>
+      <c r="H57" s="62" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="48" customFormat="1">
@@ -6963,23 +7127,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="46">
-        <v>12609</v>
+        <v>12607</v>
       </c>
       <c r="C58" s="53"/>
       <c r="D58" s="53">
         <v>37</v>
       </c>
       <c r="E58" s="46">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F58" s="46">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G58" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H58" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="48" customFormat="1">
@@ -6987,23 +7151,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="46">
-        <v>12610</v>
+        <v>12608</v>
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="53">
         <v>37</v>
       </c>
       <c r="E59" s="46">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="F59" s="46">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="48" customFormat="1">
@@ -7011,23 +7175,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="46">
-        <v>12611</v>
+        <v>12609</v>
       </c>
       <c r="C60" s="53"/>
       <c r="D60" s="53">
         <v>37</v>
       </c>
       <c r="E60" s="46">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F60" s="46">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G60" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="48" customFormat="1">
@@ -7035,23 +7199,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="46">
-        <v>12612</v>
+        <v>12610</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="53">
         <v>37</v>
       </c>
       <c r="E61" s="46">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="F61" s="46">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G61" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H61" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="48" customFormat="1">
@@ -7059,67 +7223,71 @@
         <v>61</v>
       </c>
       <c r="B62" s="46">
-        <v>12613</v>
+        <v>12611</v>
       </c>
       <c r="C62" s="53"/>
       <c r="D62" s="53">
         <v>37</v>
       </c>
-      <c r="E62" s="46" t="s">
-        <v>266</v>
+      <c r="E62" s="46">
+        <v>1000000</v>
       </c>
       <c r="F62" s="46">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G62" s="53" t="s">
         <v>40</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="29" customFormat="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="48" customFormat="1">
       <c r="A63" s="53">
         <v>62</v>
       </c>
-      <c r="B63" s="42">
-        <v>13000</v>
-      </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="51" t="s">
+      <c r="B63" s="46">
+        <v>12612</v>
+      </c>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53">
+        <v>37</v>
+      </c>
+      <c r="E63" s="46">
+        <v>5000000</v>
+      </c>
+      <c r="F63" s="46">
+        <v>1046</v>
+      </c>
+      <c r="G63" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="29" customFormat="1">
+      <c r="H63" s="45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="48" customFormat="1">
       <c r="A64" s="53">
         <v>63</v>
       </c>
-      <c r="B64" s="42">
-        <v>13001</v>
-      </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F64" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="G64" s="51" t="s">
+      <c r="B64" s="46">
+        <v>12613</v>
+      </c>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53">
+        <v>37</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="46">
+        <v>1047</v>
+      </c>
+      <c r="G64" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="55" t="s">
-        <v>172</v>
+      <c r="H64" s="45" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="29" customFormat="1">
@@ -7127,15 +7295,15 @@
         <v>64</v>
       </c>
       <c r="B65" s="42">
-        <v>13002</v>
+        <v>13000</v>
       </c>
       <c r="C65" s="51"/>
       <c r="D65" s="51"/>
       <c r="E65" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F65" s="59" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="G65" s="51" t="s">
         <v>40</v>
@@ -7144,25 +7312,63 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="F66" s="6"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="F67" s="6"/>
+    <row r="66" spans="1:8" s="29" customFormat="1">
+      <c r="A66" s="53">
+        <v>65</v>
+      </c>
+      <c r="B66" s="42">
+        <v>13001</v>
+      </c>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="29" customFormat="1">
+      <c r="A67" s="53">
+        <v>66</v>
+      </c>
+      <c r="B67" s="42">
+        <v>13002</v>
+      </c>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="55" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="F68" s="6"/>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8">
       <c r="F69" s="6"/>
-      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8">
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:8">
       <c r="F71" s="6"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8">
       <c r="F72" s="6"/>
@@ -7172,23 +7378,23 @@
     </row>
     <row r="74" spans="1:8">
       <c r="F74" s="6"/>
-      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8">
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:8">
       <c r="F76" s="6"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8">
       <c r="F77" s="6"/>
-      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8">
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:8">
       <c r="F79" s="6"/>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8">
       <c r="F80" s="6"/>
@@ -7198,23 +7404,23 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" s="6"/>
-      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="6:8">
       <c r="F84" s="6"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="6"/>
-      <c r="H85" s="1"/>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="6"/>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="6:8">
       <c r="F88" s="6"/>
@@ -7224,23 +7430,23 @@
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="6"/>
-      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="6:8">
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="6:8">
       <c r="F92" s="6"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8">
       <c r="F93" s="6"/>
-      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="6:8">
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="6:8">
       <c r="F95" s="6"/>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="6:8">
       <c r="F96" s="6"/>
@@ -7250,23 +7456,23 @@
     </row>
     <row r="98" spans="6:8">
       <c r="F98" s="6"/>
-      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="6:8">
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="6:8">
       <c r="F100" s="6"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8">
       <c r="F101" s="6"/>
-      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="6:8">
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="6:8">
       <c r="F103" s="6"/>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="6:8">
       <c r="F104" s="6"/>
@@ -7276,43 +7482,43 @@
     </row>
     <row r="106" spans="6:8">
       <c r="F106" s="6"/>
-      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="6:8">
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="6:8">
       <c r="F108" s="6"/>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="6:8">
       <c r="F109" s="6"/>
-      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="6:8">
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="6:8">
       <c r="F111" s="6"/>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="6:8">
       <c r="F112" s="6"/>
     </row>
     <row r="113" spans="6:8">
       <c r="F113" s="6"/>
-      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="6:8">
       <c r="F114" s="6"/>
     </row>
     <row r="115" spans="6:8">
       <c r="F115" s="6"/>
-      <c r="H115" s="1"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="6:8">
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="6:8">
       <c r="F117" s="6"/>
+      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="6:8">
       <c r="F118" s="6"/>
@@ -7322,34 +7528,32 @@
     </row>
     <row r="120" spans="6:8">
       <c r="F120" s="6"/>
-      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="6:8">
       <c r="F121" s="6"/>
     </row>
     <row r="122" spans="6:8">
       <c r="F122" s="6"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="6:8">
       <c r="F123" s="6"/>
-      <c r="H123" s="1"/>
     </row>
     <row r="124" spans="6:8">
       <c r="F124" s="6"/>
     </row>
     <row r="125" spans="6:8">
       <c r="F125" s="6"/>
+      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="6:8">
       <c r="F126" s="6"/>
     </row>
     <row r="127" spans="6:8">
       <c r="F127" s="6"/>
-      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="6:8">
       <c r="F128" s="6"/>
-      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="6:8">
       <c r="F129" s="6"/>
@@ -7614,6 +7818,14 @@
     <row r="194" spans="6:8">
       <c r="F194" s="6"/>
       <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="6:8">
+      <c r="F195" s="6"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="6:8">
+      <c r="F196" s="6"/>
+      <c r="H196" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7626,8 +7838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8848,7 +9060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -9231,7 +9443,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
@@ -9403,10 +9615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A134"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9486,22 +9698,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
+      <c r="B4" s="21">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15">
@@ -9510,44 +9727,43 @@
       <c r="B5" s="21">
         <v>1002</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="21">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="21">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="21">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>82</v>
+        <v>1003</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="21">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="G6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1">
       <c r="A7" s="15">
@@ -9556,39 +9772,38 @@
       <c r="B7" s="21">
         <v>1003</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>80</v>
+      <c r="C7" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="21">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E7" s="21">
         <v>1</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" s="21" customFormat="1">
+      <c r="G7" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="21">
-        <v>1003</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>82</v>
+        <v>1004</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="21">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15">
@@ -9597,38 +9812,35 @@
       <c r="B9" s="21">
         <v>1004</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>80</v>
+      <c r="C9" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="21">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" s="15" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="21">
-        <v>1004</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="21">
-        <v>30</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="15">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="15">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1">
       <c r="A11" s="15">
@@ -9637,32 +9849,35 @@
       <c r="B11" s="15">
         <v>1005</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>80</v>
+      <c r="C11" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="15">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>1005</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="15">
-        <v>30</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
+      <c r="B12" s="34">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="34">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15">
@@ -9671,11 +9886,11 @@
       <c r="B13" s="34">
         <v>1006</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>80</v>
+      <c r="C13" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="34">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="E13" s="34">
         <v>1</v>
@@ -9688,16 +9903,16 @@
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
-        <v>1006</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="34">
-        <v>30</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="B14" s="21">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="21">
         <v>1</v>
       </c>
       <c r="F14" s="21"/>
@@ -9712,10 +9927,10 @@
         <v>1007</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="D15" s="21">
-        <v>2500</v>
+        <v>30</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
@@ -9724,25 +9939,22 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" s="15" customFormat="1">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
-        <v>1007</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="21">
-        <v>30</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="15">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="15">
+        <v>30000</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="15" customFormat="1">
       <c r="A17" s="15">
@@ -9752,10 +9964,10 @@
         <v>1008</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="D17" s="15">
-        <v>30000</v>
+        <v>50</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -9766,13 +9978,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15">
-        <v>1008</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>82</v>
+        <v>1009</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="15">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -9785,11 +9997,11 @@
       <c r="B19" s="15">
         <v>1009</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>80</v>
+      <c r="C19" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="15">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
@@ -9800,13 +10012,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="15">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
@@ -9820,7 +10029,10 @@
         <v>1010</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>170</v>
+        <v>82</v>
+      </c>
+      <c r="D21" s="15">
+        <v>20</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
@@ -9831,13 +10043,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="D22" s="15">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="15">
         <v>1</v>
@@ -9848,13 +10060,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="15">
-        <v>1010</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>333</v>
+        <v>1011</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D23" s="15">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="15" customFormat="1">
@@ -9862,13 +10077,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D24" s="15">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="15">
         <v>1</v>
@@ -9879,7 +10094,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>122</v>
@@ -9896,13 +10111,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D26" s="15">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="15">
         <v>1</v>
@@ -9913,13 +10128,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -9930,13 +10145,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="15">
-        <v>1013</v>
+        <f t="shared" ref="B28:B47" si="0">B26+1</f>
+        <v>1014</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>206</v>
       </c>
       <c r="D28" s="15">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E28" s="15">
         <v>1</v>
@@ -9947,13 +10163,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="15">
-        <v>1013</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>1014</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="D29" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E29" s="15">
         <v>1</v>
@@ -9964,14 +10181,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" ref="B30:B49" si="0">B28+1</f>
-        <v>1014</v>
+        <f t="shared" si="0"/>
+        <v>1015</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>206</v>
       </c>
       <c r="D30" s="15">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E30" s="15">
         <v>1</v>
@@ -9983,10 +10200,10 @@
       </c>
       <c r="B31" s="15">
         <f t="shared" si="0"/>
-        <v>1014</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>317</v>
+        <v>1015</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D31" s="15">
         <v>30</v>
@@ -10001,13 +10218,13 @@
       </c>
       <c r="B32" s="15">
         <f t="shared" si="0"/>
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D32" s="15">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="E32" s="15">
         <v>1</v>
@@ -10019,13 +10236,13 @@
       </c>
       <c r="B33" s="15">
         <f t="shared" si="0"/>
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E33" s="15">
         <v>1</v>
@@ -10037,13 +10254,13 @@
       </c>
       <c r="B34" s="15">
         <f t="shared" si="0"/>
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D34" s="15">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="E34" s="15">
         <v>1</v>
@@ -10055,13 +10272,13 @@
       </c>
       <c r="B35" s="15">
         <f t="shared" si="0"/>
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D35" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E35" s="15">
         <v>1</v>
@@ -10073,13 +10290,10 @@
       </c>
       <c r="B36" s="15">
         <f t="shared" si="0"/>
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" s="15">
-        <v>15000</v>
+        <v>213</v>
       </c>
       <c r="E36" s="15">
         <v>1</v>
@@ -10091,10 +10305,10 @@
       </c>
       <c r="B37" s="15">
         <f t="shared" si="0"/>
-        <v>1017</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>122</v>
+        <v>1018</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D37" s="15">
         <v>20</v>
@@ -10109,10 +10323,13 @@
       </c>
       <c r="B38" s="15">
         <f t="shared" si="0"/>
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="D38" s="15">
+        <v>150000</v>
       </c>
       <c r="E38" s="15">
         <v>1</v>
@@ -10124,13 +10341,13 @@
       </c>
       <c r="B39" s="15">
         <f t="shared" si="0"/>
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="D39" s="15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E39" s="15">
         <v>1</v>
@@ -10142,13 +10359,13 @@
       </c>
       <c r="B40" s="15">
         <f t="shared" si="0"/>
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D40" s="15">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="E40" s="15">
         <v>1</v>
@@ -10160,13 +10377,13 @@
       </c>
       <c r="B41" s="15">
         <f t="shared" si="0"/>
-        <v>1019</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>207</v>
+        <v>1020</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D41" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E41" s="15">
         <v>1</v>
@@ -10178,13 +10395,13 @@
       </c>
       <c r="B42" s="15">
         <f t="shared" si="0"/>
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="D42" s="15">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E42" s="15">
         <v>1</v>
@@ -10196,10 +10413,10 @@
       </c>
       <c r="B43" s="15">
         <f t="shared" si="0"/>
-        <v>1020</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>122</v>
+        <v>1021</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D43" s="15">
         <v>20</v>
@@ -10214,13 +10431,13 @@
       </c>
       <c r="B44" s="15">
         <f t="shared" si="0"/>
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="D44" s="15">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="E44" s="15">
         <v>1</v>
@@ -10232,13 +10449,13 @@
       </c>
       <c r="B45" s="15">
         <f t="shared" si="0"/>
-        <v>1021</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>82</v>
+        <v>1022</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D45" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E45" s="15">
         <v>1</v>
@@ -10250,13 +10467,13 @@
       </c>
       <c r="B46" s="15">
         <f t="shared" si="0"/>
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D46" s="15">
-        <v>15000</v>
+        <v>500000</v>
       </c>
       <c r="E46" s="15">
         <v>1</v>
@@ -10268,13 +10485,13 @@
       </c>
       <c r="B47" s="15">
         <f t="shared" si="0"/>
-        <v>1022</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>122</v>
+        <v>1023</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="D47" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E47" s="15">
         <v>1</v>
@@ -10285,14 +10502,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="15">
-        <f t="shared" si="0"/>
-        <v>1023</v>
+        <f t="shared" ref="B48:B57" si="1">B46+1</f>
+        <v>1024</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D48" s="15">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="E48" s="15">
         <v>1</v>
@@ -10303,14 +10520,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="15">
-        <f t="shared" si="0"/>
-        <v>1023</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>207</v>
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D49" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E49" s="15">
         <v>1</v>
@@ -10321,14 +10538,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="15">
-        <f t="shared" ref="B50:B59" si="1">B48+1</f>
-        <v>1024</v>
+        <f t="shared" si="1"/>
+        <v>1025</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D50" s="15">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="E50" s="15">
         <v>1</v>
@@ -10340,13 +10557,13 @@
       </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>122</v>
+        <v>1025</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D51" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E51" s="15">
         <v>1</v>
@@ -10358,13 +10575,13 @@
       </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="D52" s="15">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="E52" s="15">
         <v>1</v>
@@ -10376,13 +10593,13 @@
       </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E53" s="15">
         <v>1</v>
@@ -10394,13 +10611,10 @@
       </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="15">
-        <v>10000</v>
+        <v>208</v>
       </c>
       <c r="E54" s="15">
         <v>1</v>
@@ -10412,10 +10626,10 @@
       </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
-        <v>1026</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>82</v>
+        <v>1027</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D55" s="15">
         <v>30</v>
@@ -10430,10 +10644,10 @@
       </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E56" s="15">
         <v>1</v>
@@ -10445,13 +10659,13 @@
       </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
-        <v>1027</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>122</v>
+        <v>1028</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D57" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E57" s="15">
         <v>1</v>
@@ -10462,11 +10676,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="1"/>
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>222</v>
+        <v>133</v>
+      </c>
+      <c r="D58" s="15">
+        <v>30</v>
       </c>
       <c r="E58" s="15">
         <v>1</v>
@@ -10477,14 +10693,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="1"/>
-        <v>1028</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>82</v>
+        <v>1029</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D59" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E59" s="15">
         <v>1</v>
@@ -10495,7 +10710,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="15">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>133</v>
@@ -10512,13 +10727,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="15">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D61" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E61" s="15">
         <v>1</v>
@@ -10529,13 +10744,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="15">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E62" s="15">
         <v>1</v>
@@ -10546,7 +10761,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="15">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>122</v>
@@ -10563,13 +10778,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="15">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D64" s="15">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E64" s="15">
         <v>1</v>
@@ -10580,7 +10795,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="15">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>122</v>
@@ -10597,13 +10812,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="15">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D66" s="15">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E66" s="15">
         <v>1</v>
@@ -10614,7 +10829,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="15">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>122</v>
@@ -10626,37 +10841,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="15" customFormat="1">
+    <row r="68" spans="1:5" s="63" customFormat="1">
       <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="15">
-        <v>1033</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="15">
+      <c r="B68" s="63">
+        <v>1034</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="63">
         <v>500</v>
       </c>
-      <c r="E68" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="15" customFormat="1">
+      <c r="E68" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="63" customFormat="1">
       <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="15">
-        <v>1033</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="15">
-        <v>50</v>
-      </c>
-      <c r="E69" s="15">
+      <c r="B69" s="63">
+        <v>1034</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="63">
+        <v>5</v>
+      </c>
+      <c r="E69" s="63">
         <v>1</v>
       </c>
     </row>
@@ -10665,13 +10880,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="63">
-        <v>1034</v>
+        <f>B68+1</f>
+        <v>1035</v>
       </c>
       <c r="C70" s="64" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D70" s="63">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="63">
         <v>1</v>
@@ -10682,7 +10898,8 @@
         <v>70</v>
       </c>
       <c r="B71" s="63">
-        <v>1034</v>
+        <f t="shared" ref="B71:B95" si="2">B69+1</f>
+        <v>1035</v>
       </c>
       <c r="C71" s="64" t="s">
         <v>273</v>
@@ -10699,11 +10916,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="63">
-        <f>B70+1</f>
-        <v>1035</v>
+        <f t="shared" si="2"/>
+        <v>1036</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="D72" s="63">
         <v>1000</v>
@@ -10717,14 +10934,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="63">
-        <f t="shared" ref="B73:B97" si="2">B71+1</f>
-        <v>1035</v>
+        <f t="shared" si="2"/>
+        <v>1036</v>
       </c>
       <c r="C73" s="64" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E73" s="63">
         <v>1</v>
@@ -10736,10 +10953,10 @@
       </c>
       <c r="B74" s="63">
         <f t="shared" si="2"/>
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="D74" s="63">
         <v>1000</v>
@@ -10754,10 +10971,10 @@
       </c>
       <c r="B75" s="63">
         <f t="shared" si="2"/>
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C75" s="64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D75" s="63">
         <v>10</v>
@@ -10772,10 +10989,10 @@
       </c>
       <c r="B76" s="63">
         <f t="shared" si="2"/>
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D76" s="63">
         <v>1000</v>
@@ -10790,10 +11007,10 @@
       </c>
       <c r="B77" s="63">
         <f t="shared" si="2"/>
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C77" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D77" s="63">
         <v>10</v>
@@ -10808,13 +11025,13 @@
       </c>
       <c r="B78" s="63">
         <f t="shared" si="2"/>
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C78" s="64" t="s">
         <v>253</v>
       </c>
       <c r="D78" s="63">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E78" s="63">
         <v>1</v>
@@ -10826,13 +11043,13 @@
       </c>
       <c r="B79" s="63">
         <f t="shared" si="2"/>
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C79" s="64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D79" s="63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E79" s="63">
         <v>1</v>
@@ -10844,13 +11061,13 @@
       </c>
       <c r="B80" s="63">
         <f t="shared" si="2"/>
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C80" s="64" t="s">
         <v>253</v>
       </c>
       <c r="D80" s="63">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E80" s="63">
         <v>1</v>
@@ -10862,51 +11079,51 @@
       </c>
       <c r="B81" s="63">
         <f t="shared" si="2"/>
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C81" s="64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D81" s="63">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E81" s="63">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="63" customFormat="1">
+    <row r="82" spans="1:5" s="15" customFormat="1">
       <c r="A82" s="15">
         <v>81</v>
       </c>
-      <c r="B82" s="63">
+      <c r="B82" s="60">
         <f t="shared" si="2"/>
-        <v>1040</v>
-      </c>
-      <c r="C82" s="64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C82" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="D82" s="63">
-        <v>3000</v>
-      </c>
-      <c r="E82" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="63" customFormat="1">
+      <c r="D82" s="60">
+        <v>200</v>
+      </c>
+      <c r="E82" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="15" customFormat="1">
       <c r="A83" s="15">
         <v>82</v>
       </c>
-      <c r="B83" s="63">
+      <c r="B83" s="60">
         <f t="shared" si="2"/>
-        <v>1040</v>
-      </c>
-      <c r="C83" s="64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C83" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="D83" s="63">
-        <v>30</v>
-      </c>
-      <c r="E83" s="63">
+      <c r="D83" s="60">
+        <v>5</v>
+      </c>
+      <c r="E83" s="60">
         <v>1</v>
       </c>
     </row>
@@ -10916,13 +11133,13 @@
       </c>
       <c r="B84" s="60">
         <f t="shared" si="2"/>
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C84" s="61" t="s">
         <v>253</v>
       </c>
       <c r="D84" s="60">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E84" s="60">
         <v>1</v>
@@ -10934,7 +11151,7 @@
       </c>
       <c r="B85" s="60">
         <f t="shared" si="2"/>
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C85" s="61" t="s">
         <v>273</v>
@@ -10952,13 +11169,13 @@
       </c>
       <c r="B86" s="60">
         <f t="shared" si="2"/>
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="D86" s="60">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E86" s="60">
         <v>1</v>
@@ -10970,13 +11187,13 @@
       </c>
       <c r="B87" s="60">
         <f t="shared" si="2"/>
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C87" s="61" t="s">
         <v>273</v>
       </c>
       <c r="D87" s="60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E87" s="60">
         <v>1</v>
@@ -10988,10 +11205,10 @@
       </c>
       <c r="B88" s="60">
         <f t="shared" si="2"/>
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D88" s="60">
         <v>2000</v>
@@ -11006,7 +11223,7 @@
       </c>
       <c r="B89" s="60">
         <f t="shared" si="2"/>
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C89" s="61" t="s">
         <v>273</v>
@@ -11024,13 +11241,13 @@
       </c>
       <c r="B90" s="60">
         <f t="shared" si="2"/>
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>253</v>
       </c>
       <c r="D90" s="60">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E90" s="60">
         <v>1</v>
@@ -11042,7 +11259,7 @@
       </c>
       <c r="B91" s="60">
         <f t="shared" si="2"/>
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C91" s="61" t="s">
         <v>273</v>
@@ -11060,13 +11277,13 @@
       </c>
       <c r="B92" s="60">
         <f t="shared" si="2"/>
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>253</v>
       </c>
       <c r="D92" s="60">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E92" s="60">
         <v>1</v>
@@ -11078,13 +11295,13 @@
       </c>
       <c r="B93" s="60">
         <f t="shared" si="2"/>
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93" s="60">
         <v>1</v>
@@ -11096,13 +11313,13 @@
       </c>
       <c r="B94" s="60">
         <f t="shared" si="2"/>
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="D94" s="60">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E94" s="60">
         <v>1</v>
@@ -11114,13 +11331,13 @@
       </c>
       <c r="B95" s="60">
         <f t="shared" si="2"/>
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>273</v>
       </c>
       <c r="D95" s="60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E95" s="60">
         <v>1</v>
@@ -11130,17 +11347,16 @@
       <c r="A96" s="15">
         <v>95</v>
       </c>
-      <c r="B96" s="60">
-        <f t="shared" si="2"/>
-        <v>1047</v>
-      </c>
-      <c r="C96" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" s="60">
-        <v>10000</v>
-      </c>
-      <c r="E96" s="60">
+      <c r="B96" s="15">
+        <v>1048</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E96" s="15">
         <v>1</v>
       </c>
     </row>
@@ -11148,17 +11364,16 @@
       <c r="A97" s="15">
         <v>96</v>
       </c>
-      <c r="B97" s="60">
-        <f t="shared" si="2"/>
-        <v>1047</v>
-      </c>
-      <c r="C97" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" s="60">
+      <c r="B97" s="15">
+        <v>1048</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D97" s="15">
         <v>30</v>
       </c>
-      <c r="E97" s="60">
+      <c r="E97" s="15">
         <v>1</v>
       </c>
     </row>
@@ -11167,13 +11382,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="15">
-        <v>1048</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>80</v>
+        <v>1049</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D98" s="15">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E98" s="15">
         <v>1</v>
@@ -11184,13 +11399,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="15">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D99" s="15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E99" s="15">
         <v>1</v>
@@ -11201,13 +11416,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="15">
-        <v>1049</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>160</v>
+        <v>1050</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D100" s="15">
-        <v>20000</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="15">
         <v>1</v>
@@ -11218,13 +11433,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="15">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D101" s="15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E101" s="15">
         <v>1</v>
@@ -11235,13 +11450,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="15">
-        <v>1050</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>80</v>
+        <v>1051</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D102" s="15">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="15">
         <v>1</v>
@@ -11252,13 +11467,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="15">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D103" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E103" s="15">
         <v>1</v>
@@ -11269,13 +11484,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="15">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D104" s="15">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="E104" s="15">
         <v>1</v>
@@ -11286,10 +11501,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="15">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D105" s="15">
         <v>30</v>
@@ -11303,16 +11518,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="15">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D106" s="15">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="E106" s="15">
         <v>1</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="15" customFormat="1">
@@ -11320,70 +11538,58 @@
         <v>106</v>
       </c>
       <c r="B107" s="15">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D107" s="15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E107" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" s="15" customFormat="1">
       <c r="A108" s="15">
         <v>107</v>
       </c>
-      <c r="B108" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="21">
-        <v>5000</v>
-      </c>
-      <c r="E108" s="21">
-        <v>1</v>
-      </c>
-      <c r="F108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="B108" s="15">
+        <v>1054</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="15" customFormat="1">
       <c r="A109" s="15">
         <v>108</v>
       </c>
-      <c r="B109" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D109" s="21">
-        <v>2</v>
-      </c>
-      <c r="E109" s="21">
-        <v>1</v>
-      </c>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="B109" s="15">
+        <v>1054</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D109" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" customHeight="1">
       <c r="A110" s="15">
         <v>109</v>
       </c>
       <c r="B110" s="21">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>158</v>
       </c>
       <c r="D110" s="21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E110" s="21">
         <v>1</v>
@@ -11397,13 +11603,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="21">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D111" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="21">
         <v>1</v>
@@ -11417,7 +11623,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="21">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C112" s="21" t="s">
         <v>158</v>
@@ -11437,13 +11643,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>135</v>
+        <v>2002</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D113" s="21">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E113" s="21">
         <v>1</v>
@@ -11457,7 +11663,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="21">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C114" s="21" t="s">
         <v>158</v>
@@ -11477,10 +11683,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>160</v>
+        <v>2003</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="D115" s="21">
         <v>10000</v>
@@ -11497,13 +11703,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="21">
-        <v>2005</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>160</v>
+        <v>2004</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="D116" s="21">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E116" s="21">
         <v>1</v>
@@ -11517,13 +11723,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="21">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="D117" s="21">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="E117" s="21">
         <v>1</v>
@@ -11537,13 +11743,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="21">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="D118" s="21">
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E118" s="21">
         <v>1</v>
@@ -11557,13 +11763,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="21">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D119" s="21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E119" s="21">
         <v>1</v>
@@ -11577,13 +11783,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="21">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D120" s="21">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="E120" s="21">
         <v>1</v>
@@ -11597,13 +11803,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="21">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D121" s="21">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E121" s="21">
         <v>1</v>
@@ -11617,13 +11823,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="21">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D122" s="21">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E122" s="21">
         <v>1</v>
@@ -11637,10 +11843,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="21">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D123" s="21">
         <v>5000</v>
@@ -11657,13 +11863,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="21">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="D124" s="21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E124" s="21">
         <v>1</v>
@@ -11676,16 +11882,16 @@
       <c r="A125" s="15">
         <v>124</v>
       </c>
-      <c r="B125" s="75">
-        <v>2011</v>
-      </c>
-      <c r="C125" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D125" s="75">
-        <v>1500</v>
-      </c>
-      <c r="E125" s="75">
+      <c r="B125" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" s="21">
+        <v>5000</v>
+      </c>
+      <c r="E125" s="21">
         <v>1</v>
       </c>
       <c r="F125" s="21"/>
@@ -11696,16 +11902,16 @@
       <c r="A126" s="15">
         <v>125</v>
       </c>
-      <c r="B126" s="75">
-        <v>2011</v>
-      </c>
-      <c r="C126" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D126" s="75">
-        <v>1</v>
-      </c>
-      <c r="E126" s="75">
+      <c r="B126" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E126" s="21">
         <v>1</v>
       </c>
       <c r="F126" s="21"/>
@@ -11717,13 +11923,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="75">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C127" s="75" t="s">
         <v>158</v>
       </c>
       <c r="D127" s="75">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E127" s="75">
         <v>1</v>
@@ -11737,10 +11943,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="75">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C128" s="76" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D128" s="75">
         <v>1</v>
@@ -11757,7 +11963,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="75">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C129" s="75" t="s">
         <v>158</v>
@@ -11777,13 +11983,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="75">
-        <v>2013</v>
-      </c>
-      <c r="C130" s="77" t="s">
-        <v>135</v>
+        <v>2012</v>
+      </c>
+      <c r="C130" s="76" t="s">
+        <v>149</v>
       </c>
       <c r="D130" s="75">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="E130" s="75">
         <v>1</v>
@@ -11797,7 +12003,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="75">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C131" s="75" t="s">
         <v>158</v>
@@ -11817,10 +12023,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="75">
-        <v>2014</v>
-      </c>
-      <c r="C132" s="76" t="s">
-        <v>160</v>
+        <v>2013</v>
+      </c>
+      <c r="C132" s="77" t="s">
+        <v>135</v>
       </c>
       <c r="D132" s="75">
         <v>3000</v>
@@ -11837,13 +12043,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="75">
-        <v>2015</v>
-      </c>
-      <c r="C133" s="76" t="s">
-        <v>160</v>
+        <v>2014</v>
+      </c>
+      <c r="C133" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="D133" s="75">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="E133" s="75">
         <v>1</v>
@@ -11857,13 +12063,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C134" s="76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D134" s="75">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E134" s="75">
         <v>1</v>
@@ -11872,8 +12078,48 @@
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
     </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="15">
+        <v>134</v>
+      </c>
+      <c r="B135" s="75">
+        <v>2015</v>
+      </c>
+      <c r="C135" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="75">
+        <v>20000</v>
+      </c>
+      <c r="E135" s="75">
+        <v>1</v>
+      </c>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="15">
+        <v>135</v>
+      </c>
+      <c r="B136" s="75">
+        <v>2015</v>
+      </c>
+      <c r="C136" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" s="75">
+        <v>1</v>
+      </c>
+      <c r="E136" s="75">
+        <v>1</v>
+      </c>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C134"/>
+  <autoFilter ref="C1:C136"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="340">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1381,6 +1381,14 @@
   </si>
   <si>
     <t>guess_apple_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7840,10 +7848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8987,28 +8995,28 @@
       <c r="A81" s="24">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>38</v>
+      <c r="B81" s="33">
+        <v>37</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="D81" s="35">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="24">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>39</v>
+      <c r="B82" s="33">
+        <v>37</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D82" s="35">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -9016,13 +9024,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>302</v>
       </c>
       <c r="D83" s="35">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -9030,13 +9038,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="35">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -9044,13 +9052,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D85" s="35">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -9058,12 +9066,40 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
+        <v>41</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="24">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" s="35">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="24">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
         <v>43</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C88" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D88" s="35">
         <v>1029</v>
       </c>
     </row>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4485,7 +4485,7 @@
         <v>12600</v>
       </c>
       <c r="B58" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="88" t="s">
         <v>253</v>
@@ -4524,7 +4524,7 @@
         <v>12601</v>
       </c>
       <c r="B59" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="88" t="s">
         <v>253</v>
@@ -4563,7 +4563,7 @@
         <v>12602</v>
       </c>
       <c r="B60" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="88" t="s">
         <v>253</v>
@@ -4602,7 +4602,7 @@
         <v>12603</v>
       </c>
       <c r="B61" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="88" t="s">
         <v>253</v>
@@ -4641,7 +4641,7 @@
         <v>12604</v>
       </c>
       <c r="B62" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="88" t="s">
         <v>253</v>
@@ -4680,7 +4680,7 @@
         <v>12605</v>
       </c>
       <c r="B63" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="88" t="s">
         <v>253</v>
@@ -4719,7 +4719,7 @@
         <v>12606</v>
       </c>
       <c r="B64" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="88" t="s">
         <v>253</v>
@@ -4758,7 +4758,7 @@
         <v>12607</v>
       </c>
       <c r="B65" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="88" t="s">
         <v>253</v>
@@ -4797,7 +4797,7 @@
         <v>12608</v>
       </c>
       <c r="B66" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="88" t="s">
         <v>253</v>
@@ -4836,7 +4836,7 @@
         <v>12609</v>
       </c>
       <c r="B67" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="88" t="s">
         <v>253</v>
@@ -4875,7 +4875,7 @@
         <v>12610</v>
       </c>
       <c r="B68" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="88" t="s">
         <v>253</v>
@@ -4914,7 +4914,7 @@
         <v>12611</v>
       </c>
       <c r="B69" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="88" t="s">
         <v>253</v>
@@ -4953,7 +4953,7 @@
         <v>12612</v>
       </c>
       <c r="B70" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="88" t="s">
         <v>253</v>
@@ -4992,7 +4992,7 @@
         <v>12613</v>
       </c>
       <c r="B71" s="88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="88" t="s">
         <v>253</v>
@@ -9813,8 +9813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:B71"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5280,7 +5280,7 @@
         <v>15</v>
       </c>
       <c r="G78" s="91">
-        <v>12539</v>
+        <v>12620</v>
       </c>
       <c r="H78" s="91" t="b">
         <v>1</v>
@@ -6108,9 +6108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8381,7 +8381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/task_fish_daily_server.xlsx
+++ b/config_debug/task_fish_daily_server.xlsx
@@ -1408,10 +1408,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>水果消消乐出现一次幸运时刻（单局至少投入60000）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>红包场累计赢金500万（单局至少投入60000）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1461,6 +1457,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5040,10 +5040,10 @@
         <v>334</v>
       </c>
       <c r="E72" s="91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G72" s="91">
         <v>12614</v>
@@ -5082,7 +5082,7 @@
         <v>262</v>
       </c>
       <c r="F73" s="91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G73" s="91">
         <v>12615</v>
@@ -5160,7 +5160,7 @@
         <v>262</v>
       </c>
       <c r="F75" s="91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G75" s="91">
         <v>12617</v>
@@ -5199,7 +5199,7 @@
         <v>262</v>
       </c>
       <c r="F76" s="91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G76" s="91">
         <v>12618</v>
@@ -5238,7 +5238,7 @@
         <v>262</v>
       </c>
       <c r="F77" s="91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G77" s="91">
         <v>12619</v>
@@ -5355,7 +5355,7 @@
         <v>264</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G80" s="41">
         <v>13001</v>
@@ -5394,7 +5394,7 @@
         <v>316</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G81" s="41">
         <v>13002</v>
@@ -6110,7 +6110,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7782,7 +7782,7 @@
         <v>40</v>
       </c>
       <c r="H69" s="62" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="48" customFormat="1">
@@ -7806,7 +7806,7 @@
         <v>40</v>
       </c>
       <c r="H70" s="45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="74" customFormat="1">
@@ -8381,7 +8381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -9814,7 +9814,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10370,7 +10370,7 @@
         <v>300</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -10387,7 +10387,7 @@
         <v>300</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -10404,7 +10404,7 @@
         <v>300</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -12325,7 +12325,7 @@
         <v>1053</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D106" s="15">
         <v>100</v>
@@ -12410,7 +12410,7 @@
         <v>1055</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D111" s="92">
         <v>10</v>
@@ -12518,7 +12518,7 @@
         <v>1058</v>
       </c>
       <c r="C117" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D117" s="92">
         <v>30</v>
@@ -12626,7 +12626,7 @@
         <v>1061</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D123" s="92">
         <v>50</v>
